--- a/20_営業/07_会計/TE030/T_TE030_CFO_019_A17_02_電子帳簿AP支払の情報系システム連携_OIC統合.xlsx
+++ b/20_営業/07_会計/TE030/T_TE030_CFO_019_A17_02_電子帳簿AP支払の情報系システム連携_OIC統合.xlsx
@@ -5,11 +5,11 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\itoenfile\system\30.SCSK\89_SaaS対応\20_ERPCloud導入\20_実装フェーズ\10_成果物\16_単体テスト実施\外部結合完了時\OIC\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\acomsv01\障害対応\E_本稼動_19901～20000\E_本稼動_19992【共通】OIC3アップグレード対応\20_成果物\TE030\無影響確認\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="3600" windowWidth="23040" windowHeight="8940"/>
+    <workbookView xWindow="0" yWindow="4200" windowWidth="23040" windowHeight="8940"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="2" r:id="rId1"/>
@@ -30,17 +30,19 @@
     <sheet name="テスト仕様_テスト結果(テスト・シナリオ11)" sheetId="16" r:id="rId16"/>
     <sheet name="テスト仕様_テスト結果(テスト・シナリオ12)" sheetId="14" r:id="rId17"/>
     <sheet name="テスト仕様_テスト結果(テスト・シナリオ13)" sheetId="15" r:id="rId18"/>
-    <sheet name="不具合ログ" sheetId="7" r:id="rId19"/>
-    <sheet name="未完了の課題と完了済みの課題" sheetId="8" r:id="rId20"/>
+    <sheet name="テスト仕様_テスト結果(テスト・シナリオ14)" sheetId="22" r:id="rId19"/>
+    <sheet name="不具合ログ" sheetId="7" r:id="rId20"/>
+    <sheet name="未完了の課題と完了済みの課題" sheetId="8" r:id="rId21"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="3">テスト・シナリオ一覧!$A$1:$F$21</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="3">テスト・シナリオ一覧!$A$1:$F$23</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="4">テスト仕様_データ・プロファイル!$A$1:$C$89</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="5">'テスト仕様_テスト結果(テスト・シナリオ1)'!$A$1:$I$49</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="14">'テスト仕様_テスト結果(テスト・シナリオ10)'!$A$1:$I$41</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="15">'テスト仕様_テスト結果(テスト・シナリオ11)'!$A$1:$I$41</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="16">'テスト仕様_テスト結果(テスト・シナリオ12)'!$A$1:$I$40</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="17">'テスト仕様_テスト結果(テスト・シナリオ13)'!$A$1:$I$40</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="18">'テスト仕様_テスト結果(テスト・シナリオ14)'!$A$1:$I$26</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="6">'テスト仕様_テスト結果(テスト・シナリオ2)'!$A$1:$I$52</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="7">'テスト仕様_テスト結果(テスト・シナリオ3) '!$A$1:$I$46</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="8">'テスト仕様_テスト結果(テスト・シナリオ4)'!$A$1:$I$48</definedName>
@@ -51,9 +53,9 @@
     <definedName name="_xlnm.Print_Area" localSheetId="13">'テスト仕様_テスト結果(テスト・シナリオ9)'!$A$1:$I$41</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">作成上の注意点!$A$1:$M$37</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">表紙!$A$1:$H$29</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">文書管理!$A$1:$I$15</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">文書管理!$A$1:$I$16</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -63,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="737" uniqueCount="238">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="783" uniqueCount="263">
   <si>
     <t>株式会社伊藤園</t>
     <phoneticPr fontId="5"/>
@@ -1610,17 +1612,177 @@
   <si>
     <t>Issue化</t>
   </si>
+  <si>
+    <t>Issue1.1</t>
+  </si>
+  <si>
+    <t>Issue1.1</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>シナリオ14</t>
+  </si>
+  <si>
+    <t>OIC3アップグレード 無影響確認テスト(DBへのCUID・共通処理動作確認)</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>正常終了する。</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>左記の通り</t>
+    <rPh sb="0" eb="2">
+      <t>サキ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>トオ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>OK</t>
+  </si>
+  <si>
+    <t>佐藤</t>
+    <rPh sb="0" eb="2">
+      <t>サトウ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>XXCCD002(業務日付取得)</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>XXCCD002(猶予日数取得)</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>XXCCD001(前回処理日更新)</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>①、②左記の通り</t>
+    <rPh sb="3" eb="5">
+      <t>サキ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>トオ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>テスト・シナリオ14</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>14-1</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>14-2</t>
+  </si>
+  <si>
+    <t>14-3</t>
+  </si>
+  <si>
+    <t>14-4</t>
+  </si>
+  <si>
+    <t>XXCFO019A17_02を実行する。
+OIC3アップグレードの影響でDBへのCUIDを実行するアクティビティまたは共通関数を呼び出すアクティビティの実行に影響が出ていないことを確認する。</t>
+    <rPh sb="15" eb="17">
+      <t>ジッコウ</t>
+    </rPh>
+    <rPh sb="76" eb="78">
+      <t>ジッコウ</t>
+    </rPh>
+    <rPh sb="79" eb="81">
+      <t>エイキョウ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>XXCFO019A17_02から共通処理XXCCD002が実行され、正常終了する。</t>
+    <rPh sb="16" eb="20">
+      <t>キョウツウショリ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>ジッコウ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>①XXCFO019A17_02から共通処理XXCCD001が実行され、正常終了する。
+②プロファイルオプション値テーブルが更新される。</t>
+    <rPh sb="17" eb="21">
+      <t>キョウツウショリ</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>ジッコウ</t>
+    </rPh>
+    <rPh sb="55" eb="56">
+      <t>チ</t>
+    </rPh>
+    <rPh sb="61" eb="63">
+      <t>コウシン</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>XXCFO019A17_02(電子帳簿AP支払の情報系システム連携)</t>
+    <rPh sb="15" eb="17">
+      <t>デンシ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>チョウボ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>シハライ</t>
+    </rPh>
+    <rPh sb="24" eb="27">
+      <t>ジョウホウケイ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>レンケイ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>T_TE030_CFO_019_A17_02_電子帳簿AP支払の情報系システム連携_OIC統合_エビデンス(シナリオ14).xlsx</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>{
+  "processId": 2317269
+}</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>E_本稼働_19992 OICアップグレード対応 無影響確認</t>
+  </si>
+  <si>
+    <t>SCSK 佐藤勇樹</t>
+    <rPh sb="5" eb="7">
+      <t>サトウ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ユウキ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="3">
     <numFmt numFmtId="176" formatCode="mmmm\ dd\,\ yyyy"/>
     <numFmt numFmtId="177" formatCode="mmm\ dd\ yyyy"/>
     <numFmt numFmtId="178" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
   </numFmts>
-  <fonts count="25">
+  <fonts count="27" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1801,6 +1963,21 @@
       <family val="3"/>
       <charset val="128"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FFFF00FF"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FFFF00FF"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="major"/>
+    </font>
   </fonts>
   <fills count="8">
     <fill>
@@ -1845,7 +2022,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="46">
+  <borders count="47">
     <border>
       <left/>
       <right/>
@@ -2414,6 +2591,17 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -2427,7 +2615,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="137">
+  <cellXfs count="144">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2662,9 +2850,6 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="177" fontId="7" fillId="0" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -2768,11 +2953,35 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="38" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="25" fillId="0" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="18" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="21" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="46" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -2818,6 +3027,7 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFFF99CC"/>
       <color rgb="FF0000FF"/>
       <color rgb="FFC0C0C0"/>
     </mruColors>
@@ -6730,6 +6940,731 @@
         <a:xfrm>
           <a:off x="28575" y="30184725"/>
           <a:ext cx="3400425" cy="466725"/>
+        </a:xfrm>
+        <a:prstGeom prst="foldedCorner">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 12500"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="FFFF00" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="13"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst>
+          <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
+            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:effectLst>
+                <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="808080"/>
+                </a:outerShdw>
+              </a:effectLst>
+            </a14:hiddenEffects>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="0" anchor="t" upright="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>ノート: 他に添付するエビデンスなどがあれば</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1200"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>         記述します。</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData fPrintsWithSheet="0"/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing15.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>175</xdr:row>
+      <xdr:rowOff>49530</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1171575</xdr:colOff>
+      <xdr:row>190</xdr:row>
+      <xdr:rowOff>140970</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="AutoShape 1"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="251460" y="30438090"/>
+          <a:ext cx="6939915" cy="2606040"/>
+        </a:xfrm>
+        <a:prstGeom prst="foldedCorner">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 12500"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="FFFF00" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="13"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst>
+          <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
+            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:effectLst>
+                <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="808080"/>
+                </a:outerShdw>
+              </a:effectLst>
+            </a14:hiddenEffects>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="0" anchor="t" upright="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>【TE.020作成時の注意点】</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>ノート: テスト・シナリオ毎のテスト・ステップを記載して下さい。コンカレント・プログラムの場合は各プロセスの内部処理、</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>        画面の場合は各機能の内部処理で、結果が分岐しうる処理を網羅するようにして下さい。</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>ノート: 「テスト内容」には、テスト・ステップ毎のテスト内容を記載して下さい。また、記載の上の注意は、以下を参照して下さい。</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>             ・処理が分岐しうる条件を、カラム名単位で詳細に記載して下さい。その際、カラム名は、</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>               検証のポイントとなるカラムを選択して記載して下さい。</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>　                 例：○○フラグ＝'Y'によって抽出対象となる事を確認</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>             ・データ取得ロジック(SELECT文)を確認する場合、SELECTできないケースも記載して下さい。</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>             ・１データを複数のテスト・ステップで使用する場合、以下の例を参考に記載して下さい。</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>                   例：シナリオX-Xと同時検証</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>ノート: 「テスト対象機能」には、「MD.050機能拡張に当っての機能設計書」（または「MD.070 機能拡張にあたっての</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>        技術設計書」）で定義される「機能番号」および「機能名」を記載して下さい。</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>ノート: 画面テストの際に画面から入力する値は、「テスト内容」欄に記載して下さい。</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1200"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>ノート: コンカレント、共通関数のテスト実施の際に使用するパラメータは、「テスト内容」欄に記載して下さい。</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData fPrintsWithSheet="0"/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>191</xdr:row>
+      <xdr:rowOff>68580</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1171575</xdr:colOff>
+      <xdr:row>208</xdr:row>
+      <xdr:rowOff>20955</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="AutoShape 2"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="251460" y="33139380"/>
+          <a:ext cx="6939915" cy="2802255"/>
+        </a:xfrm>
+        <a:prstGeom prst="foldedCorner">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 12500"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="FFFF00" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="13"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst>
+          <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
+            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:effectLst>
+                <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="808080"/>
+                </a:outerShdw>
+              </a:effectLst>
+            </a14:hiddenEffects>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="0" anchor="t" upright="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>【TE.070作成時の注意点】</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>ノート: テスト結果表に単体テスト結果を記載する際には、次のガイドラインに従います。</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>            1）予想結果: 成否判定が可能な予想される結果または出力を記載します。</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>                    例：○○フラグ＝'Y'により抽出対象となる、××IDが不一致のため更新対象外となる</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>            2）実際の結果: 実際にテスト・ステップで定義された内容でテストを実施した際の、</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>               予想結果に対応する実際の結果または出力を記載します。</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>            3）判定: 予想結果と実際の結果を比較し、テストの成否を判定した結果を以下の3つの記号で記載します。</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>            　　・○: テスト成功</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>            　　・×: テスト失敗</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>            　　・－: 対象外（前ステップでテストが失敗し、テストが実施できなかったような場合に使用します。）</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>            4）テスター: テスト実施者名を記載します。</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>            5）実施日: テスト実施日の年月日を記載します。</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>ノート: パフォーマンス・テスト用のテスト・シナリオの場合、「予想結果」、「実際の結果」に処理時間を記載して下さい。</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>ノート: 再テストの場合、行を挿入して再テスト結果を記載してください。</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData fPrintsWithSheet="0"/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>170</xdr:row>
+      <xdr:rowOff>68580</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2447925</xdr:colOff>
+      <xdr:row>173</xdr:row>
+      <xdr:rowOff>20955</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="AutoShape 3"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="28575" y="29618940"/>
+          <a:ext cx="3303270" cy="455295"/>
         </a:xfrm>
         <a:prstGeom prst="foldedCorner">
           <a:avLst>
@@ -12874,7 +13809,7 @@
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="9" style="2"/>
     <col min="2" max="2" width="10.75" style="2" customWidth="1"/>
@@ -13199,7 +14134,7 @@
     <col min="16134" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:8" ht="12" customHeight="1">
+    <row r="3" spans="2:8" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
@@ -13207,7 +14142,7 @@
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="2:8" ht="6" customHeight="1">
+    <row r="4" spans="2:8" ht="6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -13216,7 +14151,7 @@
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
     </row>
-    <row r="5" spans="2:8" ht="21">
+    <row r="5" spans="2:8" ht="21" x14ac:dyDescent="0.15">
       <c r="B5" s="3"/>
       <c r="C5" s="4"/>
       <c r="D5" s="4"/>
@@ -13225,67 +14160,67 @@
       <c r="G5" s="4"/>
       <c r="H5" s="4"/>
     </row>
-    <row r="6" spans="2:8" ht="64.150000000000006" customHeight="1">
-      <c r="B6" s="126" t="s">
+    <row r="6" spans="2:8" ht="64.150000000000006" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B6" s="133" t="s">
         <v>67</v>
       </c>
-      <c r="C6" s="126"/>
-      <c r="D6" s="126"/>
-      <c r="E6" s="126"/>
-      <c r="F6" s="126"/>
-      <c r="G6" s="126"/>
-      <c r="H6" s="126"/>
-    </row>
-    <row r="7" spans="2:8" ht="6" customHeight="1">
+      <c r="C6" s="133"/>
+      <c r="D6" s="133"/>
+      <c r="E6" s="133"/>
+      <c r="F6" s="133"/>
+      <c r="G6" s="133"/>
+      <c r="H6" s="133"/>
+    </row>
+    <row r="7" spans="2:8" ht="6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B7" s="5"/>
     </row>
-    <row r="8" spans="2:8" ht="6" customHeight="1">
+    <row r="8" spans="2:8" ht="6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B8" s="5"/>
     </row>
-    <row r="9" spans="2:8" ht="58.5" customHeight="1">
-      <c r="B9" s="127" t="s">
+    <row r="9" spans="2:8" ht="58.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B9" s="134" t="s">
         <v>0</v>
       </c>
-      <c r="C9" s="127"/>
-      <c r="D9" s="127"/>
-      <c r="E9" s="127"/>
-      <c r="F9" s="127"/>
-      <c r="G9" s="127"/>
-      <c r="H9" s="127"/>
-    </row>
-    <row r="10" spans="2:8" ht="6" customHeight="1">
+      <c r="C9" s="134"/>
+      <c r="D9" s="134"/>
+      <c r="E9" s="134"/>
+      <c r="F9" s="134"/>
+      <c r="G9" s="134"/>
+      <c r="H9" s="134"/>
+    </row>
+    <row r="10" spans="2:8" ht="6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B10" s="5"/>
     </row>
-    <row r="11" spans="2:8" ht="58.5" customHeight="1">
-      <c r="B11" s="127" t="s">
+    <row r="11" spans="2:8" ht="58.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B11" s="134" t="s">
         <v>6</v>
       </c>
-      <c r="C11" s="127"/>
-      <c r="D11" s="127"/>
-      <c r="E11" s="127"/>
-      <c r="F11" s="127"/>
-      <c r="G11" s="127"/>
-      <c r="H11" s="127"/>
-    </row>
-    <row r="12" spans="2:8" ht="6" customHeight="1"/>
-    <row r="13" spans="2:8" ht="58.5" customHeight="1">
-      <c r="B13" s="127" t="s">
+      <c r="C11" s="134"/>
+      <c r="D11" s="134"/>
+      <c r="E11" s="134"/>
+      <c r="F11" s="134"/>
+      <c r="G11" s="134"/>
+      <c r="H11" s="134"/>
+    </row>
+    <row r="12" spans="2:8" ht="6" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="13" spans="2:8" ht="58.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B13" s="134" t="s">
         <v>124</v>
       </c>
-      <c r="C13" s="127"/>
-      <c r="D13" s="127"/>
-      <c r="E13" s="127"/>
-      <c r="F13" s="127"/>
-      <c r="G13" s="127"/>
-      <c r="H13" s="127"/>
-    </row>
-    <row r="14" spans="2:8">
+      <c r="C13" s="134"/>
+      <c r="D13" s="134"/>
+      <c r="E13" s="134"/>
+      <c r="F13" s="134"/>
+      <c r="G13" s="134"/>
+      <c r="H13" s="134"/>
+    </row>
+    <row r="14" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B14" s="6"/>
     </row>
-    <row r="15" spans="2:8">
+    <row r="15" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B15" s="6"/>
     </row>
-    <row r="16" spans="2:8">
+    <row r="16" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B16" s="6" t="s">
         <v>1</v>
       </c>
@@ -13293,11 +14228,11 @@
         <v>126</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="6" customHeight="1">
+    <row r="17" spans="1:8" ht="6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B17" s="6"/>
       <c r="C17" s="6"/>
     </row>
-    <row r="18" spans="1:8">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B18" s="6" t="s">
         <v>2</v>
       </c>
@@ -13305,23 +14240,23 @@
         <v>44921</v>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="6" customHeight="1">
+    <row r="19" spans="1:8" ht="6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B19" s="6"/>
       <c r="C19" s="8"/>
     </row>
-    <row r="20" spans="1:8">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B20" s="6" t="s">
         <v>3</v>
       </c>
       <c r="C20" s="7">
-        <v>44984</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" ht="6" customHeight="1">
+        <v>45561</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B21" s="6"/>
       <c r="C21" s="6"/>
     </row>
-    <row r="22" spans="1:8">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B22" s="6" t="s">
         <v>73</v>
       </c>
@@ -13329,25 +14264,25 @@
         <v>125</v>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="6" customHeight="1">
+    <row r="23" spans="1:8" ht="6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B23" s="6"/>
       <c r="C23" s="6"/>
     </row>
-    <row r="24" spans="1:8">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B24" s="6" t="s">
         <v>4</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B25" s="6"/>
     </row>
-    <row r="26" spans="1:8">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B26" s="6"/>
     </row>
-    <row r="28" spans="1:8" ht="12" customHeight="1">
+    <row r="28" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="9"/>
       <c r="B28" s="9"/>
       <c r="C28" s="10"/>
@@ -13359,7 +14294,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="29" spans="1:8" ht="12" customHeight="1">
+    <row r="29" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="9"/>
       <c r="B29" s="9"/>
       <c r="C29" s="9"/>
@@ -13397,7 +14332,7 @@
       <selection pane="bottomLeft" activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="3.125" style="27" customWidth="1"/>
     <col min="2" max="2" width="9.75" style="27" customWidth="1"/>
@@ -13410,7 +14345,7 @@
     <col min="10" max="16384" width="9" style="27"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="6" customHeight="1">
+    <row r="1" spans="1:9" ht="6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="31"/>
       <c r="B1" s="31"/>
       <c r="C1" s="31"/>
@@ -13421,61 +14356,61 @@
       <c r="H1" s="36"/>
       <c r="I1" s="36"/>
     </row>
-    <row r="2" spans="1:9" ht="17.25">
+    <row r="2" spans="1:9" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A2" s="26" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B4" s="33" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B5" s="25" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B6" s="25"/>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B8" s="37" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="14.25" thickBot="1">
+    <row r="9" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B9" s="25" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="14.25" thickBot="1">
-      <c r="B10" s="103" t="s">
+    <row r="10" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B10" s="102" t="s">
         <v>41</v>
       </c>
-      <c r="C10" s="104" t="s">
+      <c r="C10" s="103" t="s">
         <v>42</v>
       </c>
-      <c r="D10" s="104" t="s">
+      <c r="D10" s="103" t="s">
         <v>43</v>
       </c>
-      <c r="E10" s="104" t="s">
+      <c r="E10" s="103" t="s">
         <v>44</v>
       </c>
-      <c r="F10" s="104" t="s">
+      <c r="F10" s="103" t="s">
         <v>45</v>
       </c>
-      <c r="G10" s="104" t="s">
+      <c r="G10" s="103" t="s">
         <v>46</v>
       </c>
-      <c r="H10" s="104" t="s">
+      <c r="H10" s="103" t="s">
         <v>47</v>
       </c>
-      <c r="I10" s="105" t="s">
+      <c r="I10" s="104" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="31.5">
+    <row r="11" spans="1:9" ht="31.5" x14ac:dyDescent="0.15">
       <c r="A11" s="38"/>
       <c r="B11" s="64" t="s">
         <v>111</v>
@@ -13484,17 +14419,17 @@
         <v>186</v>
       </c>
       <c r="D11" s="46"/>
-      <c r="E11" s="115"/>
-      <c r="F11" s="114"/>
-      <c r="G11" s="114"/>
-      <c r="H11" s="114"/>
-      <c r="I11" s="118"/>
-    </row>
-    <row r="12" spans="1:9" ht="73.5">
+      <c r="E11" s="114"/>
+      <c r="F11" s="113"/>
+      <c r="G11" s="113"/>
+      <c r="H11" s="113"/>
+      <c r="I11" s="117"/>
+    </row>
+    <row r="12" spans="1:9" ht="73.5" x14ac:dyDescent="0.15">
       <c r="B12" s="64" t="s">
         <v>112</v>
       </c>
-      <c r="C12" s="113" t="s">
+      <c r="C12" s="112" t="s">
         <v>157</v>
       </c>
       <c r="D12" s="46" t="s">
@@ -13516,7 +14451,7 @@
         <v>44938</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="52.5">
+    <row r="13" spans="1:9" ht="52.5" x14ac:dyDescent="0.15">
       <c r="B13" s="64"/>
       <c r="C13" s="46"/>
       <c r="D13" s="46"/>
@@ -13536,7 +14471,7 @@
         <v>44938</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="42">
+    <row r="14" spans="1:9" ht="42" x14ac:dyDescent="0.15">
       <c r="B14" s="64"/>
       <c r="C14" s="46"/>
       <c r="D14" s="46"/>
@@ -13556,7 +14491,7 @@
         <v>44938</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="52.5">
+    <row r="15" spans="1:9" ht="52.5" x14ac:dyDescent="0.15">
       <c r="B15" s="64"/>
       <c r="C15" s="46"/>
       <c r="D15" s="46"/>
@@ -13576,12 +14511,12 @@
         <v>44938</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="73.5">
+    <row r="16" spans="1:9" ht="73.5" x14ac:dyDescent="0.15">
       <c r="A16" s="38"/>
       <c r="B16" s="64"/>
       <c r="C16" s="46"/>
       <c r="D16" s="46"/>
-      <c r="E16" s="115" t="s">
+      <c r="E16" s="114" t="s">
         <v>158</v>
       </c>
       <c r="F16" s="39" t="s">
@@ -13597,12 +14532,12 @@
         <v>44938</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="73.5">
+    <row r="17" spans="1:9" ht="73.5" x14ac:dyDescent="0.15">
       <c r="A17" s="38"/>
       <c r="B17" s="64" t="s">
         <v>115</v>
       </c>
-      <c r="C17" s="113" t="s">
+      <c r="C17" s="112" t="s">
         <v>231</v>
       </c>
       <c r="D17" s="46" t="s">
@@ -13624,7 +14559,7 @@
         <v>44938</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="52.5">
+    <row r="18" spans="1:9" ht="52.5" x14ac:dyDescent="0.15">
       <c r="B18" s="64"/>
       <c r="C18" s="46"/>
       <c r="D18" s="46"/>
@@ -13644,7 +14579,7 @@
         <v>44938</v>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="94.5">
+    <row r="19" spans="1:9" ht="94.5" x14ac:dyDescent="0.15">
       <c r="B19" s="64"/>
       <c r="C19" s="46"/>
       <c r="D19" s="46"/>
@@ -13664,7 +14599,7 @@
         <v>44938</v>
       </c>
     </row>
-    <row r="20" spans="1:9" ht="52.5">
+    <row r="20" spans="1:9" ht="52.5" x14ac:dyDescent="0.15">
       <c r="B20" s="64"/>
       <c r="C20" s="46"/>
       <c r="D20" s="46"/>
@@ -13684,11 +14619,11 @@
         <v>44938</v>
       </c>
     </row>
-    <row r="21" spans="1:9" ht="52.5">
+    <row r="21" spans="1:9" ht="52.5" x14ac:dyDescent="0.15">
       <c r="B21" s="64"/>
       <c r="C21" s="46"/>
       <c r="D21" s="46"/>
-      <c r="E21" s="115" t="s">
+      <c r="E21" s="114" t="s">
         <v>224</v>
       </c>
       <c r="F21" s="39" t="s">
@@ -13704,11 +14639,11 @@
         <v>44938</v>
       </c>
     </row>
-    <row r="22" spans="1:9" ht="73.5">
+    <row r="22" spans="1:9" ht="73.5" x14ac:dyDescent="0.15">
       <c r="B22" s="64"/>
       <c r="C22" s="46"/>
       <c r="D22" s="46"/>
-      <c r="E22" s="115" t="s">
+      <c r="E22" s="114" t="s">
         <v>145</v>
       </c>
       <c r="F22" s="39" t="s">
@@ -13724,11 +14659,11 @@
         <v>44938</v>
       </c>
     </row>
-    <row r="23" spans="1:9" ht="63">
+    <row r="23" spans="1:9" ht="63" x14ac:dyDescent="0.15">
       <c r="B23" s="64"/>
       <c r="C23" s="46"/>
       <c r="D23" s="46"/>
-      <c r="E23" s="115" t="s">
+      <c r="E23" s="114" t="s">
         <v>215</v>
       </c>
       <c r="F23" s="39" t="s">
@@ -13744,7 +14679,7 @@
         <v>44938</v>
       </c>
     </row>
-    <row r="24" spans="1:9">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B24" s="64"/>
       <c r="C24" s="46"/>
       <c r="D24" s="46"/>
@@ -13754,7 +14689,7 @@
       <c r="H24" s="46"/>
       <c r="I24" s="76"/>
     </row>
-    <row r="25" spans="1:9">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B25" s="64"/>
       <c r="C25" s="46"/>
       <c r="D25" s="46"/>
@@ -13764,7 +14699,7 @@
       <c r="H25" s="46"/>
       <c r="I25" s="76"/>
     </row>
-    <row r="26" spans="1:9">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B26" s="68"/>
       <c r="C26" s="46"/>
       <c r="D26" s="46"/>
@@ -13774,7 +14709,7 @@
       <c r="H26" s="46"/>
       <c r="I26" s="76"/>
     </row>
-    <row r="27" spans="1:9">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B27" s="68"/>
       <c r="C27" s="46"/>
       <c r="D27" s="46"/>
@@ -13784,7 +14719,7 @@
       <c r="H27" s="46"/>
       <c r="I27" s="76"/>
     </row>
-    <row r="28" spans="1:9">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B28" s="68"/>
       <c r="C28" s="46"/>
       <c r="D28" s="46"/>
@@ -13794,7 +14729,7 @@
       <c r="H28" s="46"/>
       <c r="I28" s="76"/>
     </row>
-    <row r="29" spans="1:9" ht="14.25" thickBot="1">
+    <row r="29" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B29" s="72"/>
       <c r="C29" s="47"/>
       <c r="D29" s="47"/>
@@ -13804,7 +14739,7 @@
       <c r="H29" s="47"/>
       <c r="I29" s="77"/>
     </row>
-    <row r="30" spans="1:9">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B30" s="35"/>
       <c r="C30" s="35"/>
       <c r="D30" s="35"/>
@@ -13814,7 +14749,7 @@
       <c r="H30" s="35"/>
       <c r="I30" s="35"/>
     </row>
-    <row r="31" spans="1:9">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B31" s="35"/>
       <c r="C31" s="35"/>
       <c r="D31" s="35"/>
@@ -13824,7 +14759,7 @@
       <c r="H31" s="35"/>
       <c r="I31" s="35"/>
     </row>
-    <row r="32" spans="1:9" ht="6" customHeight="1">
+    <row r="32" spans="1:9" ht="6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="28"/>
       <c r="B32" s="28"/>
       <c r="C32" s="28"/>
@@ -13834,7 +14769,7 @@
       <c r="G32" s="35"/>
       <c r="H32" s="35"/>
     </row>
-    <row r="33" spans="1:9" ht="14.25">
+    <row r="33" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A33" s="32" t="s">
         <v>49</v>
       </c>
@@ -13844,7 +14779,7 @@
       <c r="H33" s="35"/>
       <c r="I33" s="35"/>
     </row>
-    <row r="34" spans="1:9">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B34" s="35"/>
       <c r="C34" s="35"/>
       <c r="D34" s="35"/>
@@ -13854,7 +14789,7 @@
       <c r="H34" s="35"/>
       <c r="I34" s="35"/>
     </row>
-    <row r="35" spans="1:9">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B35" s="35"/>
       <c r="C35" s="35"/>
       <c r="D35" s="35"/>
@@ -13864,7 +14799,7 @@
       <c r="H35" s="35"/>
       <c r="I35" s="35"/>
     </row>
-    <row r="36" spans="1:9">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B36" s="35"/>
       <c r="C36" s="35"/>
       <c r="D36" s="35"/>
@@ -13874,7 +14809,7 @@
       <c r="H36" s="35"/>
       <c r="I36" s="35"/>
     </row>
-    <row r="37" spans="1:9">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B37" s="35"/>
       <c r="C37" s="35"/>
       <c r="D37" s="35"/>
@@ -13884,7 +14819,7 @@
       <c r="H37" s="35"/>
       <c r="I37" s="35"/>
     </row>
-    <row r="38" spans="1:9">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B38" s="35"/>
       <c r="C38" s="35"/>
       <c r="D38" s="35"/>
@@ -13894,7 +14829,7 @@
       <c r="H38" s="35"/>
       <c r="I38" s="35"/>
     </row>
-    <row r="39" spans="1:9">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B39" s="35"/>
       <c r="C39" s="35"/>
       <c r="D39" s="35"/>
@@ -13912,7 +14847,7 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51200000000000001" footer="0.51200000000000001"/>
-  <pageSetup paperSize="9" scale="63" fitToHeight="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="64" fitToHeight="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
   <drawing r:id="rId2"/>
 </worksheet>
@@ -13931,7 +14866,7 @@
       <selection pane="bottomLeft" activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="3.125" style="27" customWidth="1"/>
     <col min="2" max="2" width="9.75" style="27" customWidth="1"/>
@@ -14511,7 +15446,7 @@
     <col min="16138" max="16384" width="9" style="27"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="6" customHeight="1">
+    <row r="1" spans="1:9" ht="6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="31"/>
       <c r="B1" s="31"/>
       <c r="C1" s="31"/>
@@ -14522,61 +15457,61 @@
       <c r="H1" s="36"/>
       <c r="I1" s="36"/>
     </row>
-    <row r="2" spans="1:9" ht="17.25">
+    <row r="2" spans="1:9" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A2" s="26" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B4" s="33" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B5" s="25" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B6" s="25"/>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B8" s="37" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="14.25" thickBot="1">
+    <row r="9" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B9" s="25" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="14.25" thickBot="1">
-      <c r="B10" s="103" t="s">
+    <row r="10" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B10" s="102" t="s">
         <v>41</v>
       </c>
-      <c r="C10" s="104" t="s">
+      <c r="C10" s="103" t="s">
         <v>42</v>
       </c>
-      <c r="D10" s="104" t="s">
+      <c r="D10" s="103" t="s">
         <v>43</v>
       </c>
-      <c r="E10" s="104" t="s">
+      <c r="E10" s="103" t="s">
         <v>162</v>
       </c>
-      <c r="F10" s="104" t="s">
+      <c r="F10" s="103" t="s">
         <v>45</v>
       </c>
-      <c r="G10" s="104" t="s">
+      <c r="G10" s="103" t="s">
         <v>46</v>
       </c>
-      <c r="H10" s="104" t="s">
+      <c r="H10" s="103" t="s">
         <v>47</v>
       </c>
-      <c r="I10" s="105" t="s">
+      <c r="I10" s="104" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="21">
+    <row r="11" spans="1:9" ht="21" x14ac:dyDescent="0.15">
       <c r="A11" s="38"/>
       <c r="B11" s="64" t="s">
         <v>196</v>
@@ -14591,12 +15526,12 @@
       <c r="H11" s="51"/>
       <c r="I11" s="78"/>
     </row>
-    <row r="12" spans="1:9" ht="73.5">
+    <row r="12" spans="1:9" ht="73.5" x14ac:dyDescent="0.15">
       <c r="A12" s="38"/>
       <c r="B12" s="64" t="s">
         <v>197</v>
       </c>
-      <c r="C12" s="113" t="s">
+      <c r="C12" s="112" t="s">
         <v>222</v>
       </c>
       <c r="D12" s="46" t="s">
@@ -14618,7 +15553,7 @@
         <v>44938</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="52.5">
+    <row r="13" spans="1:9" ht="52.5" x14ac:dyDescent="0.15">
       <c r="A13" s="38"/>
       <c r="B13" s="64"/>
       <c r="C13" s="46"/>
@@ -14639,10 +15574,10 @@
         <v>44938</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="42">
+    <row r="14" spans="1:9" ht="42" x14ac:dyDescent="0.15">
       <c r="B14" s="64"/>
       <c r="C14" s="46"/>
-      <c r="D14" s="115"/>
+      <c r="D14" s="114"/>
       <c r="E14" s="57" t="s">
         <v>114</v>
       </c>
@@ -14659,7 +15594,7 @@
         <v>44938</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="52.5">
+    <row r="15" spans="1:9" ht="52.5" x14ac:dyDescent="0.15">
       <c r="B15" s="64"/>
       <c r="C15" s="46"/>
       <c r="D15" s="46"/>
@@ -14679,11 +15614,11 @@
         <v>44938</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="73.5">
+    <row r="16" spans="1:9" ht="73.5" x14ac:dyDescent="0.15">
       <c r="B16" s="64"/>
       <c r="C16" s="46"/>
       <c r="D16" s="46"/>
-      <c r="E16" s="115" t="s">
+      <c r="E16" s="114" t="s">
         <v>145</v>
       </c>
       <c r="F16" s="39" t="s">
@@ -14699,17 +15634,17 @@
         <v>44938</v>
       </c>
     </row>
-    <row r="17" spans="1:9">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B17" s="64"/>
       <c r="C17" s="46"/>
       <c r="D17" s="46"/>
-      <c r="E17" s="115"/>
+      <c r="E17" s="114"/>
       <c r="F17" s="46"/>
       <c r="G17" s="46"/>
       <c r="H17" s="46"/>
       <c r="I17" s="76"/>
     </row>
-    <row r="18" spans="1:9">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B18" s="64"/>
       <c r="C18" s="46"/>
       <c r="D18" s="46"/>
@@ -14719,17 +15654,17 @@
       <c r="H18" s="46"/>
       <c r="I18" s="76"/>
     </row>
-    <row r="19" spans="1:9">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B19" s="64"/>
       <c r="C19" s="46"/>
       <c r="D19" s="46"/>
-      <c r="E19" s="115"/>
+      <c r="E19" s="114"/>
       <c r="F19" s="46"/>
       <c r="G19" s="46"/>
       <c r="H19" s="46"/>
       <c r="I19" s="76"/>
     </row>
-    <row r="20" spans="1:9">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A20" s="38"/>
       <c r="B20" s="64"/>
       <c r="C20" s="46"/>
@@ -14740,7 +15675,7 @@
       <c r="H20" s="57"/>
       <c r="I20" s="76"/>
     </row>
-    <row r="21" spans="1:9">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A21" s="38"/>
       <c r="B21" s="64"/>
       <c r="C21" s="46"/>
@@ -14751,17 +15686,17 @@
       <c r="H21" s="57"/>
       <c r="I21" s="76"/>
     </row>
-    <row r="22" spans="1:9">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B22" s="64"/>
       <c r="C22" s="46"/>
       <c r="D22" s="46"/>
-      <c r="E22" s="115"/>
+      <c r="E22" s="114"/>
       <c r="F22" s="46"/>
       <c r="G22" s="46"/>
       <c r="H22" s="46"/>
       <c r="I22" s="76"/>
     </row>
-    <row r="23" spans="1:9">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A23" s="38"/>
       <c r="B23" s="64"/>
       <c r="C23" s="46"/>
@@ -14772,7 +15707,7 @@
       <c r="H23" s="57"/>
       <c r="I23" s="76"/>
     </row>
-    <row r="24" spans="1:9">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A24" s="38"/>
       <c r="B24" s="64"/>
       <c r="C24" s="46"/>
@@ -14783,47 +15718,47 @@
       <c r="H24" s="57"/>
       <c r="I24" s="76"/>
     </row>
-    <row r="25" spans="1:9">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B25" s="64"/>
       <c r="C25" s="46"/>
       <c r="D25" s="46"/>
-      <c r="E25" s="115"/>
+      <c r="E25" s="114"/>
       <c r="F25" s="46"/>
       <c r="G25" s="46"/>
       <c r="H25" s="46"/>
       <c r="I25" s="76"/>
     </row>
-    <row r="26" spans="1:9">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B26" s="64"/>
       <c r="C26" s="46"/>
       <c r="D26" s="46"/>
-      <c r="E26" s="115"/>
+      <c r="E26" s="114"/>
       <c r="F26" s="46"/>
       <c r="G26" s="46"/>
       <c r="H26" s="46"/>
       <c r="I26" s="76"/>
     </row>
-    <row r="27" spans="1:9">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B27" s="64"/>
       <c r="C27" s="46"/>
       <c r="D27" s="46"/>
-      <c r="E27" s="115"/>
+      <c r="E27" s="114"/>
       <c r="F27" s="46"/>
       <c r="G27" s="46"/>
       <c r="H27" s="46"/>
       <c r="I27" s="76"/>
     </row>
-    <row r="28" spans="1:9">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B28" s="64"/>
       <c r="C28" s="46"/>
       <c r="D28" s="46"/>
-      <c r="E28" s="115"/>
+      <c r="E28" s="114"/>
       <c r="F28" s="46"/>
       <c r="G28" s="46"/>
       <c r="H28" s="46"/>
       <c r="I28" s="76"/>
     </row>
-    <row r="29" spans="1:9">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B29" s="68"/>
       <c r="C29" s="46"/>
       <c r="D29" s="46"/>
@@ -14833,7 +15768,7 @@
       <c r="H29" s="46"/>
       <c r="I29" s="76"/>
     </row>
-    <row r="30" spans="1:9" ht="14.25" thickBot="1">
+    <row r="30" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B30" s="72"/>
       <c r="C30" s="47"/>
       <c r="D30" s="47"/>
@@ -14843,7 +15778,7 @@
       <c r="H30" s="47"/>
       <c r="I30" s="77"/>
     </row>
-    <row r="31" spans="1:9">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B31" s="35"/>
       <c r="C31" s="35"/>
       <c r="D31" s="35"/>
@@ -14853,7 +15788,7 @@
       <c r="H31" s="35"/>
       <c r="I31" s="35"/>
     </row>
-    <row r="32" spans="1:9">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B32" s="35"/>
       <c r="C32" s="35"/>
       <c r="D32" s="35"/>
@@ -14863,7 +15798,7 @@
       <c r="H32" s="35"/>
       <c r="I32" s="35"/>
     </row>
-    <row r="33" spans="1:9" ht="6" customHeight="1">
+    <row r="33" spans="1:9" ht="6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="28"/>
       <c r="B33" s="28"/>
       <c r="C33" s="28"/>
@@ -14873,7 +15808,7 @@
       <c r="G33" s="35"/>
       <c r="H33" s="35"/>
     </row>
-    <row r="34" spans="1:9" ht="14.25">
+    <row r="34" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A34" s="32" t="s">
         <v>164</v>
       </c>
@@ -14883,7 +15818,7 @@
       <c r="H34" s="35"/>
       <c r="I34" s="35"/>
     </row>
-    <row r="35" spans="1:9">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B35" s="35"/>
       <c r="C35" s="35"/>
       <c r="D35" s="35"/>
@@ -14893,8 +15828,8 @@
       <c r="H35" s="35"/>
       <c r="I35" s="35"/>
     </row>
-    <row r="36" spans="1:9">
-      <c r="B36" s="119"/>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B36" s="118"/>
       <c r="C36" s="35"/>
       <c r="D36" s="35"/>
       <c r="E36" s="35"/>
@@ -14903,7 +15838,7 @@
       <c r="H36" s="35"/>
       <c r="I36" s="35"/>
     </row>
-    <row r="37" spans="1:9">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B37" s="35"/>
       <c r="C37" s="35"/>
       <c r="D37" s="35"/>
@@ -14913,7 +15848,7 @@
       <c r="H37" s="35"/>
       <c r="I37" s="35"/>
     </row>
-    <row r="38" spans="1:9">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B38" s="35"/>
       <c r="C38" s="35"/>
       <c r="D38" s="35"/>
@@ -14923,7 +15858,7 @@
       <c r="H38" s="35"/>
       <c r="I38" s="35"/>
     </row>
-    <row r="39" spans="1:9">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B39" s="35"/>
       <c r="C39" s="35"/>
       <c r="D39" s="35"/>
@@ -14933,7 +15868,7 @@
       <c r="H39" s="35"/>
       <c r="I39" s="35"/>
     </row>
-    <row r="40" spans="1:9">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B40" s="35"/>
       <c r="C40" s="35"/>
       <c r="D40" s="35"/>
@@ -14951,7 +15886,7 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51200000000000001" footer="0.51200000000000001"/>
-  <pageSetup paperSize="9" scale="63" fitToHeight="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="64" fitToHeight="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
   <drawing r:id="rId2"/>
 </worksheet>
@@ -14970,7 +15905,7 @@
       <selection pane="bottomLeft" activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="3.125" style="27" customWidth="1"/>
     <col min="2" max="2" width="9.75" style="27" customWidth="1"/>
@@ -15550,7 +16485,7 @@
     <col min="16138" max="16384" width="9" style="27"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="6" customHeight="1">
+    <row r="1" spans="1:9" ht="6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="31"/>
       <c r="B1" s="31"/>
       <c r="C1" s="31"/>
@@ -15561,61 +16496,61 @@
       <c r="H1" s="36"/>
       <c r="I1" s="36"/>
     </row>
-    <row r="2" spans="1:9" ht="17.25">
+    <row r="2" spans="1:9" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A2" s="26" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B4" s="33" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B5" s="25" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B6" s="25"/>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B8" s="37" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="14.25" thickBot="1">
+    <row r="9" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B9" s="25" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="14.25" thickBot="1">
-      <c r="B10" s="103" t="s">
+    <row r="10" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B10" s="102" t="s">
         <v>41</v>
       </c>
-      <c r="C10" s="104" t="s">
+      <c r="C10" s="103" t="s">
         <v>42</v>
       </c>
-      <c r="D10" s="104" t="s">
+      <c r="D10" s="103" t="s">
         <v>43</v>
       </c>
-      <c r="E10" s="104" t="s">
+      <c r="E10" s="103" t="s">
         <v>162</v>
       </c>
-      <c r="F10" s="104" t="s">
+      <c r="F10" s="103" t="s">
         <v>45</v>
       </c>
-      <c r="G10" s="104" t="s">
+      <c r="G10" s="103" t="s">
         <v>46</v>
       </c>
-      <c r="H10" s="104" t="s">
+      <c r="H10" s="103" t="s">
         <v>47</v>
       </c>
-      <c r="I10" s="105" t="s">
+      <c r="I10" s="104" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="21">
+    <row r="11" spans="1:9" ht="21" x14ac:dyDescent="0.15">
       <c r="A11" s="38"/>
       <c r="B11" s="64" t="s">
         <v>199</v>
@@ -15625,16 +16560,16 @@
       </c>
       <c r="D11" s="46"/>
       <c r="E11" s="46"/>
-      <c r="F11" s="114"/>
-      <c r="G11" s="114"/>
-      <c r="H11" s="114"/>
-      <c r="I11" s="118"/>
-    </row>
-    <row r="12" spans="1:9" ht="73.5">
+      <c r="F11" s="113"/>
+      <c r="G11" s="113"/>
+      <c r="H11" s="113"/>
+      <c r="I11" s="117"/>
+    </row>
+    <row r="12" spans="1:9" ht="73.5" x14ac:dyDescent="0.15">
       <c r="B12" s="64" t="s">
         <v>200</v>
       </c>
-      <c r="C12" s="113" t="s">
+      <c r="C12" s="112" t="s">
         <v>222</v>
       </c>
       <c r="D12" s="46" t="s">
@@ -15656,7 +16591,7 @@
         <v>44938</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="52.5">
+    <row r="13" spans="1:9" ht="52.5" x14ac:dyDescent="0.15">
       <c r="B13" s="64"/>
       <c r="C13" s="46"/>
       <c r="D13" s="46"/>
@@ -15676,10 +16611,10 @@
         <v>44938</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="42">
+    <row r="14" spans="1:9" ht="42" x14ac:dyDescent="0.15">
       <c r="B14" s="64"/>
       <c r="C14" s="46"/>
-      <c r="D14" s="115"/>
+      <c r="D14" s="114"/>
       <c r="E14" s="57" t="s">
         <v>114</v>
       </c>
@@ -15696,7 +16631,7 @@
         <v>44938</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="52.5">
+    <row r="15" spans="1:9" ht="52.5" x14ac:dyDescent="0.15">
       <c r="A15" s="38"/>
       <c r="B15" s="64"/>
       <c r="C15" s="46"/>
@@ -15717,12 +16652,12 @@
         <v>44938</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="73.5">
+    <row r="16" spans="1:9" ht="73.5" x14ac:dyDescent="0.15">
       <c r="A16" s="38"/>
       <c r="B16" s="64"/>
       <c r="C16" s="46"/>
       <c r="D16" s="46"/>
-      <c r="E16" s="115" t="s">
+      <c r="E16" s="114" t="s">
         <v>145</v>
       </c>
       <c r="F16" s="39" t="s">
@@ -15738,91 +16673,91 @@
         <v>44938</v>
       </c>
     </row>
-    <row r="17" spans="1:9">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A17" s="38"/>
       <c r="B17" s="64"/>
       <c r="C17" s="46"/>
-      <c r="D17" s="115"/>
-      <c r="E17" s="115"/>
+      <c r="D17" s="114"/>
+      <c r="E17" s="114"/>
       <c r="F17" s="57"/>
       <c r="G17" s="57"/>
       <c r="H17" s="57"/>
       <c r="I17" s="76"/>
     </row>
-    <row r="18" spans="1:9">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A18" s="38"/>
       <c r="B18" s="64"/>
       <c r="C18" s="46"/>
-      <c r="D18" s="115"/>
+      <c r="D18" s="114"/>
       <c r="E18" s="46"/>
       <c r="F18" s="57"/>
       <c r="G18" s="57"/>
       <c r="H18" s="57"/>
       <c r="I18" s="76"/>
     </row>
-    <row r="19" spans="1:9">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B19" s="64"/>
       <c r="C19" s="46"/>
-      <c r="D19" s="115"/>
-      <c r="E19" s="115"/>
+      <c r="D19" s="114"/>
+      <c r="E19" s="114"/>
       <c r="F19" s="46"/>
       <c r="G19" s="46"/>
       <c r="H19" s="46"/>
       <c r="I19" s="76"/>
     </row>
-    <row r="20" spans="1:9">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B20" s="64"/>
       <c r="C20" s="46"/>
       <c r="D20" s="46"/>
-      <c r="E20" s="115"/>
+      <c r="E20" s="114"/>
       <c r="F20" s="46"/>
       <c r="G20" s="46"/>
       <c r="H20" s="46"/>
       <c r="I20" s="76"/>
     </row>
-    <row r="21" spans="1:9">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B21" s="64"/>
       <c r="C21" s="46"/>
       <c r="D21" s="46"/>
-      <c r="E21" s="115"/>
+      <c r="E21" s="114"/>
       <c r="F21" s="46"/>
       <c r="G21" s="46"/>
       <c r="H21" s="46"/>
       <c r="I21" s="76"/>
     </row>
-    <row r="22" spans="1:9">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B22" s="64"/>
       <c r="C22" s="46"/>
       <c r="D22" s="46"/>
-      <c r="E22" s="115"/>
+      <c r="E22" s="114"/>
       <c r="F22" s="46"/>
       <c r="G22" s="46"/>
       <c r="H22" s="46"/>
       <c r="I22" s="76"/>
     </row>
-    <row r="23" spans="1:9">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B23" s="64"/>
       <c r="C23" s="46"/>
       <c r="D23" s="46"/>
-      <c r="E23" s="115"/>
+      <c r="E23" s="114"/>
       <c r="F23" s="46"/>
       <c r="G23" s="46"/>
       <c r="H23" s="46"/>
       <c r="I23" s="76"/>
     </row>
-    <row r="24" spans="1:9">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B24" s="64"/>
       <c r="C24" s="46"/>
       <c r="D24" s="46"/>
-      <c r="E24" s="115"/>
+      <c r="E24" s="114"/>
       <c r="F24" s="46"/>
       <c r="G24" s="46"/>
       <c r="H24" s="46"/>
       <c r="I24" s="76"/>
     </row>
-    <row r="25" spans="1:9">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B25" s="64"/>
-      <c r="C25" s="113"/>
+      <c r="C25" s="112"/>
       <c r="D25" s="46"/>
       <c r="E25" s="51"/>
       <c r="F25" s="46"/>
@@ -15830,7 +16765,7 @@
       <c r="H25" s="46"/>
       <c r="I25" s="76"/>
     </row>
-    <row r="26" spans="1:9">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B26" s="64"/>
       <c r="C26" s="46"/>
       <c r="D26" s="46"/>
@@ -15840,7 +16775,7 @@
       <c r="H26" s="46"/>
       <c r="I26" s="76"/>
     </row>
-    <row r="27" spans="1:9">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B27" s="68"/>
       <c r="C27" s="46"/>
       <c r="D27" s="46"/>
@@ -15850,7 +16785,7 @@
       <c r="H27" s="46"/>
       <c r="I27" s="76"/>
     </row>
-    <row r="28" spans="1:9">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B28" s="68"/>
       <c r="C28" s="46"/>
       <c r="D28" s="46"/>
@@ -15860,7 +16795,7 @@
       <c r="H28" s="46"/>
       <c r="I28" s="76"/>
     </row>
-    <row r="29" spans="1:9">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B29" s="68"/>
       <c r="C29" s="46"/>
       <c r="D29" s="46"/>
@@ -15870,7 +16805,7 @@
       <c r="H29" s="46"/>
       <c r="I29" s="76"/>
     </row>
-    <row r="30" spans="1:9" ht="14.25" thickBot="1">
+    <row r="30" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B30" s="72"/>
       <c r="C30" s="47"/>
       <c r="D30" s="47"/>
@@ -15880,7 +16815,7 @@
       <c r="H30" s="47"/>
       <c r="I30" s="77"/>
     </row>
-    <row r="31" spans="1:9">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B31" s="35"/>
       <c r="C31" s="35"/>
       <c r="D31" s="35"/>
@@ -15890,7 +16825,7 @@
       <c r="H31" s="35"/>
       <c r="I31" s="35"/>
     </row>
-    <row r="32" spans="1:9">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B32" s="35"/>
       <c r="C32" s="35"/>
       <c r="D32" s="35"/>
@@ -15900,7 +16835,7 @@
       <c r="H32" s="35"/>
       <c r="I32" s="35"/>
     </row>
-    <row r="33" spans="1:9" ht="6" customHeight="1">
+    <row r="33" spans="1:9" ht="6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="28"/>
       <c r="B33" s="28"/>
       <c r="C33" s="28"/>
@@ -15910,7 +16845,7 @@
       <c r="G33" s="35"/>
       <c r="H33" s="35"/>
     </row>
-    <row r="34" spans="1:9" ht="14.25">
+    <row r="34" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A34" s="32" t="s">
         <v>167</v>
       </c>
@@ -15920,7 +16855,7 @@
       <c r="H34" s="35"/>
       <c r="I34" s="35"/>
     </row>
-    <row r="35" spans="1:9">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B35" s="35"/>
       <c r="C35" s="35"/>
       <c r="D35" s="35"/>
@@ -15930,8 +16865,8 @@
       <c r="H35" s="35"/>
       <c r="I35" s="35"/>
     </row>
-    <row r="36" spans="1:9">
-      <c r="B36" s="119"/>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B36" s="118"/>
       <c r="C36" s="35"/>
       <c r="D36" s="35"/>
       <c r="E36" s="35"/>
@@ -15940,7 +16875,7 @@
       <c r="H36" s="35"/>
       <c r="I36" s="35"/>
     </row>
-    <row r="37" spans="1:9">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B37" s="35"/>
       <c r="C37" s="35"/>
       <c r="D37" s="35"/>
@@ -15950,7 +16885,7 @@
       <c r="H37" s="35"/>
       <c r="I37" s="35"/>
     </row>
-    <row r="38" spans="1:9">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B38" s="35"/>
       <c r="C38" s="35"/>
       <c r="D38" s="35"/>
@@ -15960,7 +16895,7 @@
       <c r="H38" s="35"/>
       <c r="I38" s="35"/>
     </row>
-    <row r="39" spans="1:9">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B39" s="35"/>
       <c r="C39" s="35"/>
       <c r="D39" s="35"/>
@@ -15970,7 +16905,7 @@
       <c r="H39" s="35"/>
       <c r="I39" s="35"/>
     </row>
-    <row r="40" spans="1:9">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B40" s="35"/>
       <c r="C40" s="35"/>
       <c r="D40" s="35"/>
@@ -15988,7 +16923,7 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51200000000000001" footer="0.51200000000000001"/>
-  <pageSetup paperSize="9" scale="63" fitToHeight="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="64" fitToHeight="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
   <drawing r:id="rId2"/>
 </worksheet>
@@ -16007,7 +16942,7 @@
       <selection pane="bottomLeft" activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="3.125" style="27" customWidth="1"/>
     <col min="2" max="2" width="9.75" style="27" customWidth="1"/>
@@ -16587,7 +17522,7 @@
     <col min="16138" max="16384" width="9" style="27"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="6" customHeight="1">
+    <row r="1" spans="1:9" ht="6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="31"/>
       <c r="B1" s="31"/>
       <c r="C1" s="31"/>
@@ -16598,61 +17533,61 @@
       <c r="H1" s="36"/>
       <c r="I1" s="36"/>
     </row>
-    <row r="2" spans="1:9" ht="17.25">
+    <row r="2" spans="1:9" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A2" s="26" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B4" s="33" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B5" s="25" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B6" s="25"/>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B8" s="37" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="14.25" thickBot="1">
+    <row r="9" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B9" s="25" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="14.25" thickBot="1">
-      <c r="B10" s="103" t="s">
+    <row r="10" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B10" s="102" t="s">
         <v>41</v>
       </c>
-      <c r="C10" s="104" t="s">
+      <c r="C10" s="103" t="s">
         <v>42</v>
       </c>
-      <c r="D10" s="104" t="s">
+      <c r="D10" s="103" t="s">
         <v>43</v>
       </c>
-      <c r="E10" s="104" t="s">
+      <c r="E10" s="103" t="s">
         <v>162</v>
       </c>
-      <c r="F10" s="104" t="s">
+      <c r="F10" s="103" t="s">
         <v>45</v>
       </c>
-      <c r="G10" s="104" t="s">
+      <c r="G10" s="103" t="s">
         <v>46</v>
       </c>
-      <c r="H10" s="104" t="s">
+      <c r="H10" s="103" t="s">
         <v>47</v>
       </c>
-      <c r="I10" s="105" t="s">
+      <c r="I10" s="104" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="21">
+    <row r="11" spans="1:9" ht="21" x14ac:dyDescent="0.15">
       <c r="A11" s="38"/>
       <c r="B11" s="64" t="s">
         <v>169</v>
@@ -16667,12 +17602,12 @@
       <c r="H11" s="51"/>
       <c r="I11" s="78"/>
     </row>
-    <row r="12" spans="1:9" ht="73.5">
+    <row r="12" spans="1:9" ht="73.5" x14ac:dyDescent="0.15">
       <c r="A12" s="38"/>
       <c r="B12" s="64" t="s">
         <v>171</v>
       </c>
-      <c r="C12" s="113" t="s">
+      <c r="C12" s="112" t="s">
         <v>222</v>
       </c>
       <c r="D12" s="46" t="s">
@@ -16694,7 +17629,7 @@
         <v>44938</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="52.5">
+    <row r="13" spans="1:9" ht="52.5" x14ac:dyDescent="0.15">
       <c r="A13" s="38"/>
       <c r="B13" s="64"/>
       <c r="C13" s="46"/>
@@ -16715,10 +17650,10 @@
         <v>44938</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="42">
+    <row r="14" spans="1:9" ht="42" x14ac:dyDescent="0.15">
       <c r="B14" s="64"/>
       <c r="C14" s="46"/>
-      <c r="D14" s="115"/>
+      <c r="D14" s="114"/>
       <c r="E14" s="57" t="s">
         <v>114</v>
       </c>
@@ -16735,7 +17670,7 @@
         <v>44938</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="52.5">
+    <row r="15" spans="1:9" ht="52.5" x14ac:dyDescent="0.15">
       <c r="B15" s="64"/>
       <c r="C15" s="46"/>
       <c r="D15" s="46"/>
@@ -16755,11 +17690,11 @@
         <v>44938</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="73.5">
+    <row r="16" spans="1:9" ht="73.5" x14ac:dyDescent="0.15">
       <c r="B16" s="64"/>
       <c r="C16" s="46"/>
       <c r="D16" s="46"/>
-      <c r="E16" s="115" t="s">
+      <c r="E16" s="114" t="s">
         <v>145</v>
       </c>
       <c r="F16" s="39" t="s">
@@ -16775,17 +17710,17 @@
         <v>44938</v>
       </c>
     </row>
-    <row r="17" spans="1:9">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B17" s="64"/>
       <c r="C17" s="46"/>
       <c r="D17" s="46"/>
-      <c r="E17" s="115"/>
+      <c r="E17" s="114"/>
       <c r="F17" s="46"/>
       <c r="G17" s="46"/>
       <c r="H17" s="46"/>
       <c r="I17" s="76"/>
     </row>
-    <row r="18" spans="1:9">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B18" s="64"/>
       <c r="C18" s="46"/>
       <c r="D18" s="46"/>
@@ -16795,17 +17730,17 @@
       <c r="H18" s="46"/>
       <c r="I18" s="76"/>
     </row>
-    <row r="19" spans="1:9">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B19" s="64"/>
       <c r="C19" s="46"/>
       <c r="D19" s="46"/>
-      <c r="E19" s="115"/>
+      <c r="E19" s="114"/>
       <c r="F19" s="46"/>
       <c r="G19" s="46"/>
       <c r="H19" s="46"/>
       <c r="I19" s="76"/>
     </row>
-    <row r="20" spans="1:9">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A20" s="38"/>
       <c r="B20" s="64"/>
       <c r="C20" s="46"/>
@@ -16816,7 +17751,7 @@
       <c r="H20" s="57"/>
       <c r="I20" s="76"/>
     </row>
-    <row r="21" spans="1:9">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A21" s="38"/>
       <c r="B21" s="64"/>
       <c r="C21" s="46"/>
@@ -16827,17 +17762,17 @@
       <c r="H21" s="57"/>
       <c r="I21" s="76"/>
     </row>
-    <row r="22" spans="1:9">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B22" s="64"/>
       <c r="C22" s="46"/>
       <c r="D22" s="46"/>
-      <c r="E22" s="115"/>
+      <c r="E22" s="114"/>
       <c r="F22" s="46"/>
       <c r="G22" s="46"/>
       <c r="H22" s="46"/>
       <c r="I22" s="76"/>
     </row>
-    <row r="23" spans="1:9">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A23" s="38"/>
       <c r="B23" s="64"/>
       <c r="C23" s="46"/>
@@ -16848,7 +17783,7 @@
       <c r="H23" s="57"/>
       <c r="I23" s="76"/>
     </row>
-    <row r="24" spans="1:9">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A24" s="38"/>
       <c r="B24" s="64"/>
       <c r="C24" s="46"/>
@@ -16859,47 +17794,47 @@
       <c r="H24" s="57"/>
       <c r="I24" s="76"/>
     </row>
-    <row r="25" spans="1:9">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B25" s="64"/>
       <c r="C25" s="46"/>
       <c r="D25" s="46"/>
-      <c r="E25" s="115"/>
+      <c r="E25" s="114"/>
       <c r="F25" s="46"/>
       <c r="G25" s="46"/>
       <c r="H25" s="46"/>
       <c r="I25" s="76"/>
     </row>
-    <row r="26" spans="1:9">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B26" s="64"/>
       <c r="C26" s="46"/>
       <c r="D26" s="46"/>
-      <c r="E26" s="115"/>
+      <c r="E26" s="114"/>
       <c r="F26" s="46"/>
       <c r="G26" s="46"/>
       <c r="H26" s="46"/>
       <c r="I26" s="76"/>
     </row>
-    <row r="27" spans="1:9">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B27" s="64"/>
       <c r="C27" s="46"/>
       <c r="D27" s="46"/>
-      <c r="E27" s="115"/>
+      <c r="E27" s="114"/>
       <c r="F27" s="46"/>
       <c r="G27" s="46"/>
       <c r="H27" s="46"/>
       <c r="I27" s="76"/>
     </row>
-    <row r="28" spans="1:9">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B28" s="64"/>
       <c r="C28" s="46"/>
       <c r="D28" s="46"/>
-      <c r="E28" s="115"/>
+      <c r="E28" s="114"/>
       <c r="F28" s="46"/>
       <c r="G28" s="46"/>
       <c r="H28" s="46"/>
       <c r="I28" s="76"/>
     </row>
-    <row r="29" spans="1:9">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B29" s="68"/>
       <c r="C29" s="46"/>
       <c r="D29" s="46"/>
@@ -16909,7 +17844,7 @@
       <c r="H29" s="46"/>
       <c r="I29" s="76"/>
     </row>
-    <row r="30" spans="1:9" ht="14.25" thickBot="1">
+    <row r="30" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B30" s="72"/>
       <c r="C30" s="47"/>
       <c r="D30" s="47"/>
@@ -16919,7 +17854,7 @@
       <c r="H30" s="47"/>
       <c r="I30" s="77"/>
     </row>
-    <row r="31" spans="1:9">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B31" s="35"/>
       <c r="C31" s="35"/>
       <c r="D31" s="35"/>
@@ -16929,7 +17864,7 @@
       <c r="H31" s="35"/>
       <c r="I31" s="35"/>
     </row>
-    <row r="32" spans="1:9">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B32" s="35"/>
       <c r="C32" s="35"/>
       <c r="D32" s="35"/>
@@ -16939,7 +17874,7 @@
       <c r="H32" s="35"/>
       <c r="I32" s="35"/>
     </row>
-    <row r="33" spans="1:9" ht="6" customHeight="1">
+    <row r="33" spans="1:9" ht="6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="28"/>
       <c r="B33" s="28"/>
       <c r="C33" s="28"/>
@@ -16949,7 +17884,7 @@
       <c r="G33" s="35"/>
       <c r="H33" s="35"/>
     </row>
-    <row r="34" spans="1:9" ht="14.25">
+    <row r="34" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A34" s="32" t="s">
         <v>172</v>
       </c>
@@ -16959,7 +17894,7 @@
       <c r="H34" s="35"/>
       <c r="I34" s="35"/>
     </row>
-    <row r="35" spans="1:9">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B35" s="35"/>
       <c r="C35" s="35"/>
       <c r="D35" s="35"/>
@@ -16969,8 +17904,8 @@
       <c r="H35" s="35"/>
       <c r="I35" s="35"/>
     </row>
-    <row r="36" spans="1:9">
-      <c r="B36" s="119"/>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B36" s="118"/>
       <c r="C36" s="35"/>
       <c r="D36" s="35"/>
       <c r="E36" s="35"/>
@@ -16979,7 +17914,7 @@
       <c r="H36" s="35"/>
       <c r="I36" s="35"/>
     </row>
-    <row r="37" spans="1:9">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B37" s="35"/>
       <c r="C37" s="35"/>
       <c r="D37" s="35"/>
@@ -16989,7 +17924,7 @@
       <c r="H37" s="35"/>
       <c r="I37" s="35"/>
     </row>
-    <row r="38" spans="1:9">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B38" s="35"/>
       <c r="C38" s="35"/>
       <c r="D38" s="35"/>
@@ -16999,7 +17934,7 @@
       <c r="H38" s="35"/>
       <c r="I38" s="35"/>
     </row>
-    <row r="39" spans="1:9">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B39" s="35"/>
       <c r="C39" s="35"/>
       <c r="D39" s="35"/>
@@ -17009,7 +17944,7 @@
       <c r="H39" s="35"/>
       <c r="I39" s="35"/>
     </row>
-    <row r="40" spans="1:9">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B40" s="35"/>
       <c r="C40" s="35"/>
       <c r="D40" s="35"/>
@@ -17027,7 +17962,7 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51200000000000001" footer="0.51200000000000001"/>
-  <pageSetup paperSize="9" scale="63" fitToHeight="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="64" fitToHeight="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
   <drawing r:id="rId2"/>
 </worksheet>
@@ -17046,7 +17981,7 @@
       <selection pane="bottomLeft" activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="3.125" style="27" customWidth="1"/>
     <col min="2" max="2" width="9.75" style="27" customWidth="1"/>
@@ -17626,7 +18561,7 @@
     <col min="16138" max="16384" width="9" style="27"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="6" customHeight="1">
+    <row r="1" spans="1:9" ht="6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="31"/>
       <c r="B1" s="31"/>
       <c r="C1" s="31"/>
@@ -17637,61 +18572,61 @@
       <c r="H1" s="36"/>
       <c r="I1" s="36"/>
     </row>
-    <row r="2" spans="1:9" ht="17.25">
+    <row r="2" spans="1:9" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A2" s="26" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B4" s="33" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B5" s="25" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B6" s="25"/>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B8" s="37" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="14.25" thickBot="1">
+    <row r="9" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B9" s="25" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="14.25" thickBot="1">
-      <c r="B10" s="103" t="s">
+    <row r="10" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B10" s="102" t="s">
         <v>41</v>
       </c>
-      <c r="C10" s="104" t="s">
+      <c r="C10" s="103" t="s">
         <v>42</v>
       </c>
-      <c r="D10" s="104" t="s">
+      <c r="D10" s="103" t="s">
         <v>43</v>
       </c>
-      <c r="E10" s="104" t="s">
+      <c r="E10" s="103" t="s">
         <v>174</v>
       </c>
-      <c r="F10" s="104" t="s">
+      <c r="F10" s="103" t="s">
         <v>45</v>
       </c>
-      <c r="G10" s="104" t="s">
+      <c r="G10" s="103" t="s">
         <v>46</v>
       </c>
-      <c r="H10" s="104" t="s">
+      <c r="H10" s="103" t="s">
         <v>47</v>
       </c>
-      <c r="I10" s="105" t="s">
+      <c r="I10" s="104" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="21">
+    <row r="11" spans="1:9" ht="21" x14ac:dyDescent="0.15">
       <c r="A11" s="38"/>
       <c r="B11" s="64" t="s">
         <v>175</v>
@@ -17701,16 +18636,16 @@
       </c>
       <c r="D11" s="46"/>
       <c r="E11" s="46"/>
-      <c r="F11" s="114"/>
-      <c r="G11" s="114"/>
-      <c r="H11" s="114"/>
-      <c r="I11" s="118"/>
-    </row>
-    <row r="12" spans="1:9" ht="73.5">
+      <c r="F11" s="113"/>
+      <c r="G11" s="113"/>
+      <c r="H11" s="113"/>
+      <c r="I11" s="117"/>
+    </row>
+    <row r="12" spans="1:9" ht="73.5" x14ac:dyDescent="0.15">
       <c r="B12" s="64" t="s">
         <v>177</v>
       </c>
-      <c r="C12" s="113" t="s">
+      <c r="C12" s="112" t="s">
         <v>222</v>
       </c>
       <c r="D12" s="46" t="s">
@@ -17732,7 +18667,7 @@
         <v>44938</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="52.5">
+    <row r="13" spans="1:9" ht="52.5" x14ac:dyDescent="0.15">
       <c r="B13" s="64"/>
       <c r="C13" s="46"/>
       <c r="D13" s="46"/>
@@ -17752,10 +18687,10 @@
         <v>44938</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="42">
+    <row r="14" spans="1:9" ht="42" x14ac:dyDescent="0.15">
       <c r="B14" s="64"/>
       <c r="C14" s="46"/>
-      <c r="D14" s="115"/>
+      <c r="D14" s="114"/>
       <c r="E14" s="57" t="s">
         <v>114</v>
       </c>
@@ -17772,7 +18707,7 @@
         <v>44938</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="52.5">
+    <row r="15" spans="1:9" ht="52.5" x14ac:dyDescent="0.15">
       <c r="A15" s="38"/>
       <c r="B15" s="64"/>
       <c r="C15" s="46"/>
@@ -17793,12 +18728,12 @@
         <v>44938</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="73.5">
+    <row r="16" spans="1:9" ht="73.5" x14ac:dyDescent="0.15">
       <c r="A16" s="38"/>
       <c r="B16" s="64"/>
       <c r="C16" s="46"/>
       <c r="D16" s="46"/>
-      <c r="E16" s="115" t="s">
+      <c r="E16" s="114" t="s">
         <v>145</v>
       </c>
       <c r="F16" s="39" t="s">
@@ -17814,91 +18749,91 @@
         <v>44938</v>
       </c>
     </row>
-    <row r="17" spans="1:9">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A17" s="38"/>
       <c r="B17" s="64"/>
       <c r="C17" s="46"/>
-      <c r="D17" s="115"/>
-      <c r="E17" s="115"/>
+      <c r="D17" s="114"/>
+      <c r="E17" s="114"/>
       <c r="F17" s="57"/>
       <c r="G17" s="57"/>
       <c r="H17" s="57"/>
       <c r="I17" s="76"/>
     </row>
-    <row r="18" spans="1:9">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A18" s="38"/>
       <c r="B18" s="64"/>
       <c r="C18" s="46"/>
-      <c r="D18" s="115"/>
+      <c r="D18" s="114"/>
       <c r="E18" s="46"/>
       <c r="F18" s="57"/>
       <c r="G18" s="57"/>
       <c r="H18" s="57"/>
       <c r="I18" s="76"/>
     </row>
-    <row r="19" spans="1:9">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B19" s="64"/>
       <c r="C19" s="46"/>
-      <c r="D19" s="115"/>
-      <c r="E19" s="115"/>
+      <c r="D19" s="114"/>
+      <c r="E19" s="114"/>
       <c r="F19" s="46"/>
       <c r="G19" s="46"/>
       <c r="H19" s="46"/>
       <c r="I19" s="76"/>
     </row>
-    <row r="20" spans="1:9">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B20" s="64"/>
       <c r="C20" s="46"/>
       <c r="D20" s="46"/>
-      <c r="E20" s="115"/>
+      <c r="E20" s="114"/>
       <c r="F20" s="46"/>
       <c r="G20" s="46"/>
       <c r="H20" s="46"/>
       <c r="I20" s="76"/>
     </row>
-    <row r="21" spans="1:9">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B21" s="64"/>
       <c r="C21" s="46"/>
       <c r="D21" s="46"/>
-      <c r="E21" s="115"/>
+      <c r="E21" s="114"/>
       <c r="F21" s="46"/>
       <c r="G21" s="46"/>
       <c r="H21" s="46"/>
       <c r="I21" s="76"/>
     </row>
-    <row r="22" spans="1:9">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B22" s="64"/>
       <c r="C22" s="46"/>
       <c r="D22" s="46"/>
-      <c r="E22" s="115"/>
+      <c r="E22" s="114"/>
       <c r="F22" s="46"/>
       <c r="G22" s="46"/>
       <c r="H22" s="46"/>
       <c r="I22" s="76"/>
     </row>
-    <row r="23" spans="1:9">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B23" s="64"/>
       <c r="C23" s="46"/>
       <c r="D23" s="46"/>
-      <c r="E23" s="115"/>
+      <c r="E23" s="114"/>
       <c r="F23" s="46"/>
       <c r="G23" s="46"/>
       <c r="H23" s="46"/>
       <c r="I23" s="76"/>
     </row>
-    <row r="24" spans="1:9">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B24" s="64"/>
       <c r="C24" s="46"/>
       <c r="D24" s="46"/>
-      <c r="E24" s="115"/>
+      <c r="E24" s="114"/>
       <c r="F24" s="46"/>
       <c r="G24" s="46"/>
       <c r="H24" s="46"/>
       <c r="I24" s="76"/>
     </row>
-    <row r="25" spans="1:9">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B25" s="64"/>
-      <c r="C25" s="113"/>
+      <c r="C25" s="112"/>
       <c r="D25" s="46"/>
       <c r="E25" s="51"/>
       <c r="F25" s="46"/>
@@ -17906,7 +18841,7 @@
       <c r="H25" s="46"/>
       <c r="I25" s="76"/>
     </row>
-    <row r="26" spans="1:9">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B26" s="64"/>
       <c r="C26" s="46"/>
       <c r="D26" s="46"/>
@@ -17916,7 +18851,7 @@
       <c r="H26" s="46"/>
       <c r="I26" s="76"/>
     </row>
-    <row r="27" spans="1:9">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B27" s="68"/>
       <c r="C27" s="46"/>
       <c r="D27" s="46"/>
@@ -17926,7 +18861,7 @@
       <c r="H27" s="46"/>
       <c r="I27" s="76"/>
     </row>
-    <row r="28" spans="1:9">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B28" s="68"/>
       <c r="C28" s="46"/>
       <c r="D28" s="46"/>
@@ -17936,7 +18871,7 @@
       <c r="H28" s="46"/>
       <c r="I28" s="76"/>
     </row>
-    <row r="29" spans="1:9">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B29" s="68"/>
       <c r="C29" s="46"/>
       <c r="D29" s="46"/>
@@ -17946,7 +18881,7 @@
       <c r="H29" s="46"/>
       <c r="I29" s="76"/>
     </row>
-    <row r="30" spans="1:9" ht="14.25" thickBot="1">
+    <row r="30" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B30" s="72"/>
       <c r="C30" s="47"/>
       <c r="D30" s="47"/>
@@ -17956,7 +18891,7 @@
       <c r="H30" s="47"/>
       <c r="I30" s="77"/>
     </row>
-    <row r="31" spans="1:9">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B31" s="35"/>
       <c r="C31" s="35"/>
       <c r="D31" s="35"/>
@@ -17966,7 +18901,7 @@
       <c r="H31" s="35"/>
       <c r="I31" s="35"/>
     </row>
-    <row r="32" spans="1:9">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B32" s="35"/>
       <c r="C32" s="35"/>
       <c r="D32" s="35"/>
@@ -17976,7 +18911,7 @@
       <c r="H32" s="35"/>
       <c r="I32" s="35"/>
     </row>
-    <row r="33" spans="1:9" ht="6" customHeight="1">
+    <row r="33" spans="1:9" ht="6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="28"/>
       <c r="B33" s="28"/>
       <c r="C33" s="28"/>
@@ -17986,7 +18921,7 @@
       <c r="G33" s="35"/>
       <c r="H33" s="35"/>
     </row>
-    <row r="34" spans="1:9" ht="14.25">
+    <row r="34" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A34" s="32" t="s">
         <v>178</v>
       </c>
@@ -17996,7 +18931,7 @@
       <c r="H34" s="35"/>
       <c r="I34" s="35"/>
     </row>
-    <row r="35" spans="1:9">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B35" s="35"/>
       <c r="C35" s="35"/>
       <c r="D35" s="35"/>
@@ -18006,8 +18941,8 @@
       <c r="H35" s="35"/>
       <c r="I35" s="35"/>
     </row>
-    <row r="36" spans="1:9">
-      <c r="B36" s="119"/>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B36" s="118"/>
       <c r="C36" s="35"/>
       <c r="D36" s="35"/>
       <c r="E36" s="35"/>
@@ -18016,7 +18951,7 @@
       <c r="H36" s="35"/>
       <c r="I36" s="35"/>
     </row>
-    <row r="37" spans="1:9">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B37" s="35"/>
       <c r="C37" s="35"/>
       <c r="D37" s="35"/>
@@ -18026,7 +18961,7 @@
       <c r="H37" s="35"/>
       <c r="I37" s="35"/>
     </row>
-    <row r="38" spans="1:9">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B38" s="35"/>
       <c r="C38" s="35"/>
       <c r="D38" s="35"/>
@@ -18036,7 +18971,7 @@
       <c r="H38" s="35"/>
       <c r="I38" s="35"/>
     </row>
-    <row r="39" spans="1:9">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B39" s="35"/>
       <c r="C39" s="35"/>
       <c r="D39" s="35"/>
@@ -18046,7 +18981,7 @@
       <c r="H39" s="35"/>
       <c r="I39" s="35"/>
     </row>
-    <row r="40" spans="1:9">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B40" s="35"/>
       <c r="C40" s="35"/>
       <c r="D40" s="35"/>
@@ -18064,7 +18999,7 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51200000000000001" footer="0.51200000000000001"/>
-  <pageSetup paperSize="9" scale="63" fitToHeight="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="64" fitToHeight="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
   <drawing r:id="rId2"/>
 </worksheet>
@@ -18083,7 +19018,7 @@
       <selection pane="bottomLeft" activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="3.125" style="27" customWidth="1"/>
     <col min="2" max="2" width="9.75" style="27" customWidth="1"/>
@@ -18663,7 +19598,7 @@
     <col min="16138" max="16384" width="9" style="27"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="6" customHeight="1">
+    <row r="1" spans="1:9" ht="6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="31"/>
       <c r="B1" s="31"/>
       <c r="C1" s="31"/>
@@ -18674,61 +19609,61 @@
       <c r="H1" s="36"/>
       <c r="I1" s="36"/>
     </row>
-    <row r="2" spans="1:9" ht="17.25">
+    <row r="2" spans="1:9" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A2" s="26" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B4" s="33" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B5" s="25" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B6" s="25"/>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B8" s="37" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="14.25" thickBot="1">
+    <row r="9" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B9" s="25" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="14.25" thickBot="1">
-      <c r="B10" s="103" t="s">
+    <row r="10" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B10" s="102" t="s">
         <v>41</v>
       </c>
-      <c r="C10" s="104" t="s">
+      <c r="C10" s="103" t="s">
         <v>42</v>
       </c>
-      <c r="D10" s="104" t="s">
+      <c r="D10" s="103" t="s">
         <v>43</v>
       </c>
-      <c r="E10" s="104" t="s">
+      <c r="E10" s="103" t="s">
         <v>44</v>
       </c>
-      <c r="F10" s="104" t="s">
+      <c r="F10" s="103" t="s">
         <v>45</v>
       </c>
-      <c r="G10" s="104" t="s">
+      <c r="G10" s="103" t="s">
         <v>46</v>
       </c>
-      <c r="H10" s="104" t="s">
+      <c r="H10" s="103" t="s">
         <v>47</v>
       </c>
-      <c r="I10" s="105" t="s">
+      <c r="I10" s="104" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="21">
+    <row r="11" spans="1:9" ht="21" x14ac:dyDescent="0.15">
       <c r="A11" s="38"/>
       <c r="B11" s="64" t="s">
         <v>201</v>
@@ -18738,16 +19673,16 @@
       </c>
       <c r="D11" s="46"/>
       <c r="E11" s="46"/>
-      <c r="F11" s="114"/>
-      <c r="G11" s="114"/>
-      <c r="H11" s="114"/>
-      <c r="I11" s="118"/>
-    </row>
-    <row r="12" spans="1:9" ht="73.5">
+      <c r="F11" s="113"/>
+      <c r="G11" s="113"/>
+      <c r="H11" s="113"/>
+      <c r="I11" s="117"/>
+    </row>
+    <row r="12" spans="1:9" ht="73.5" x14ac:dyDescent="0.15">
       <c r="B12" s="64" t="s">
         <v>202</v>
       </c>
-      <c r="C12" s="113" t="s">
+      <c r="C12" s="112" t="s">
         <v>222</v>
       </c>
       <c r="D12" s="46" t="s">
@@ -18769,7 +19704,7 @@
         <v>44938</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="52.5">
+    <row r="13" spans="1:9" ht="52.5" x14ac:dyDescent="0.15">
       <c r="B13" s="64"/>
       <c r="C13" s="46"/>
       <c r="D13" s="46"/>
@@ -18789,10 +19724,10 @@
         <v>44938</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="42">
+    <row r="14" spans="1:9" ht="42" x14ac:dyDescent="0.15">
       <c r="B14" s="64"/>
       <c r="C14" s="46"/>
-      <c r="D14" s="115"/>
+      <c r="D14" s="114"/>
       <c r="E14" s="57" t="s">
         <v>114</v>
       </c>
@@ -18809,7 +19744,7 @@
         <v>44938</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="52.5">
+    <row r="15" spans="1:9" ht="52.5" x14ac:dyDescent="0.15">
       <c r="A15" s="38"/>
       <c r="B15" s="64"/>
       <c r="C15" s="46"/>
@@ -18830,12 +19765,12 @@
         <v>44938</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="73.5">
+    <row r="16" spans="1:9" ht="73.5" x14ac:dyDescent="0.15">
       <c r="A16" s="38"/>
       <c r="B16" s="64"/>
       <c r="C16" s="46"/>
       <c r="D16" s="46"/>
-      <c r="E16" s="115" t="s">
+      <c r="E16" s="114" t="s">
         <v>145</v>
       </c>
       <c r="F16" s="39" t="s">
@@ -18851,91 +19786,91 @@
         <v>44938</v>
       </c>
     </row>
-    <row r="17" spans="1:9">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A17" s="38"/>
       <c r="B17" s="64"/>
       <c r="C17" s="46"/>
-      <c r="D17" s="115"/>
-      <c r="E17" s="115"/>
+      <c r="D17" s="114"/>
+      <c r="E17" s="114"/>
       <c r="F17" s="57"/>
       <c r="G17" s="57"/>
       <c r="H17" s="57"/>
       <c r="I17" s="76"/>
     </row>
-    <row r="18" spans="1:9">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A18" s="38"/>
       <c r="B18" s="64"/>
       <c r="C18" s="46"/>
-      <c r="D18" s="115"/>
+      <c r="D18" s="114"/>
       <c r="E18" s="46"/>
       <c r="F18" s="57"/>
       <c r="G18" s="57"/>
       <c r="H18" s="57"/>
       <c r="I18" s="76"/>
     </row>
-    <row r="19" spans="1:9">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B19" s="64"/>
       <c r="C19" s="46"/>
-      <c r="D19" s="115"/>
-      <c r="E19" s="115"/>
+      <c r="D19" s="114"/>
+      <c r="E19" s="114"/>
       <c r="F19" s="46"/>
       <c r="G19" s="46"/>
       <c r="H19" s="46"/>
       <c r="I19" s="76"/>
     </row>
-    <row r="20" spans="1:9">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B20" s="64"/>
       <c r="C20" s="46"/>
       <c r="D20" s="46"/>
-      <c r="E20" s="115"/>
+      <c r="E20" s="114"/>
       <c r="F20" s="46"/>
       <c r="G20" s="46"/>
       <c r="H20" s="46"/>
       <c r="I20" s="76"/>
     </row>
-    <row r="21" spans="1:9">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B21" s="64"/>
       <c r="C21" s="46"/>
       <c r="D21" s="46"/>
-      <c r="E21" s="115"/>
+      <c r="E21" s="114"/>
       <c r="F21" s="46"/>
       <c r="G21" s="46"/>
       <c r="H21" s="46"/>
       <c r="I21" s="76"/>
     </row>
-    <row r="22" spans="1:9">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B22" s="64"/>
       <c r="C22" s="46"/>
       <c r="D22" s="46"/>
-      <c r="E22" s="115"/>
+      <c r="E22" s="114"/>
       <c r="F22" s="46"/>
       <c r="G22" s="46"/>
       <c r="H22" s="46"/>
       <c r="I22" s="76"/>
     </row>
-    <row r="23" spans="1:9">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B23" s="64"/>
       <c r="C23" s="46"/>
       <c r="D23" s="46"/>
-      <c r="E23" s="115"/>
+      <c r="E23" s="114"/>
       <c r="F23" s="46"/>
       <c r="G23" s="46"/>
       <c r="H23" s="46"/>
       <c r="I23" s="76"/>
     </row>
-    <row r="24" spans="1:9">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B24" s="64"/>
       <c r="C24" s="46"/>
       <c r="D24" s="46"/>
-      <c r="E24" s="115"/>
+      <c r="E24" s="114"/>
       <c r="F24" s="46"/>
       <c r="G24" s="46"/>
       <c r="H24" s="46"/>
       <c r="I24" s="76"/>
     </row>
-    <row r="25" spans="1:9">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B25" s="64"/>
-      <c r="C25" s="113"/>
+      <c r="C25" s="112"/>
       <c r="D25" s="46"/>
       <c r="E25" s="51"/>
       <c r="F25" s="46"/>
@@ -18943,7 +19878,7 @@
       <c r="H25" s="46"/>
       <c r="I25" s="76"/>
     </row>
-    <row r="26" spans="1:9">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B26" s="64"/>
       <c r="C26" s="46"/>
       <c r="D26" s="46"/>
@@ -18953,7 +19888,7 @@
       <c r="H26" s="46"/>
       <c r="I26" s="76"/>
     </row>
-    <row r="27" spans="1:9">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B27" s="68"/>
       <c r="C27" s="46"/>
       <c r="D27" s="46"/>
@@ -18963,7 +19898,7 @@
       <c r="H27" s="46"/>
       <c r="I27" s="76"/>
     </row>
-    <row r="28" spans="1:9">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B28" s="68"/>
       <c r="C28" s="46"/>
       <c r="D28" s="46"/>
@@ -18973,7 +19908,7 @@
       <c r="H28" s="46"/>
       <c r="I28" s="76"/>
     </row>
-    <row r="29" spans="1:9">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B29" s="68"/>
       <c r="C29" s="46"/>
       <c r="D29" s="46"/>
@@ -18983,7 +19918,7 @@
       <c r="H29" s="46"/>
       <c r="I29" s="76"/>
     </row>
-    <row r="30" spans="1:9" ht="14.25" thickBot="1">
+    <row r="30" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B30" s="72"/>
       <c r="C30" s="47"/>
       <c r="D30" s="47"/>
@@ -18993,7 +19928,7 @@
       <c r="H30" s="47"/>
       <c r="I30" s="77"/>
     </row>
-    <row r="31" spans="1:9">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B31" s="35"/>
       <c r="C31" s="35"/>
       <c r="D31" s="35"/>
@@ -19003,7 +19938,7 @@
       <c r="H31" s="35"/>
       <c r="I31" s="35"/>
     </row>
-    <row r="32" spans="1:9">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B32" s="35"/>
       <c r="C32" s="35"/>
       <c r="D32" s="35"/>
@@ -19013,7 +19948,7 @@
       <c r="H32" s="35"/>
       <c r="I32" s="35"/>
     </row>
-    <row r="33" spans="1:9" ht="6" customHeight="1">
+    <row r="33" spans="1:9" ht="6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="28"/>
       <c r="B33" s="28"/>
       <c r="C33" s="28"/>
@@ -19023,7 +19958,7 @@
       <c r="G33" s="35"/>
       <c r="H33" s="35"/>
     </row>
-    <row r="34" spans="1:9" ht="14.25">
+    <row r="34" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A34" s="32" t="s">
         <v>49</v>
       </c>
@@ -19033,7 +19968,7 @@
       <c r="H34" s="35"/>
       <c r="I34" s="35"/>
     </row>
-    <row r="35" spans="1:9">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B35" s="35"/>
       <c r="C35" s="35"/>
       <c r="D35" s="35"/>
@@ -19043,8 +19978,8 @@
       <c r="H35" s="35"/>
       <c r="I35" s="35"/>
     </row>
-    <row r="36" spans="1:9">
-      <c r="B36" s="119"/>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B36" s="118"/>
       <c r="C36" s="35"/>
       <c r="D36" s="35"/>
       <c r="E36" s="35"/>
@@ -19053,7 +19988,7 @@
       <c r="H36" s="35"/>
       <c r="I36" s="35"/>
     </row>
-    <row r="37" spans="1:9">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B37" s="35"/>
       <c r="C37" s="35"/>
       <c r="D37" s="35"/>
@@ -19063,7 +19998,7 @@
       <c r="H37" s="35"/>
       <c r="I37" s="35"/>
     </row>
-    <row r="38" spans="1:9">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B38" s="35"/>
       <c r="C38" s="35"/>
       <c r="D38" s="35"/>
@@ -19073,7 +20008,7 @@
       <c r="H38" s="35"/>
       <c r="I38" s="35"/>
     </row>
-    <row r="39" spans="1:9">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B39" s="35"/>
       <c r="C39" s="35"/>
       <c r="D39" s="35"/>
@@ -19083,7 +20018,7 @@
       <c r="H39" s="35"/>
       <c r="I39" s="35"/>
     </row>
-    <row r="40" spans="1:9">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B40" s="35"/>
       <c r="C40" s="35"/>
       <c r="D40" s="35"/>
@@ -19101,7 +20036,7 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51200000000000001" footer="0.51200000000000001"/>
-  <pageSetup paperSize="9" scale="63" fitToHeight="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="64" fitToHeight="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
   <drawing r:id="rId2"/>
 </worksheet>
@@ -19120,7 +20055,7 @@
       <selection pane="bottomLeft" activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="3.125" style="27" customWidth="1"/>
     <col min="2" max="2" width="9.75" style="27" customWidth="1"/>
@@ -19700,7 +20635,7 @@
     <col min="16138" max="16384" width="9" style="27"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="6" customHeight="1">
+    <row r="1" spans="1:9" ht="6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="31"/>
       <c r="B1" s="31"/>
       <c r="C1" s="31"/>
@@ -19711,61 +20646,61 @@
       <c r="H1" s="36"/>
       <c r="I1" s="36"/>
     </row>
-    <row r="2" spans="1:9" ht="17.25">
+    <row r="2" spans="1:9" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A2" s="26" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B4" s="33" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B5" s="25" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B6" s="25"/>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B8" s="37" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="14.25" thickBot="1">
+    <row r="9" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B9" s="25" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="14.25" thickBot="1">
-      <c r="B10" s="103" t="s">
+    <row r="10" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B10" s="102" t="s">
         <v>41</v>
       </c>
-      <c r="C10" s="104" t="s">
+      <c r="C10" s="103" t="s">
         <v>42</v>
       </c>
-      <c r="D10" s="104" t="s">
+      <c r="D10" s="103" t="s">
         <v>43</v>
       </c>
-      <c r="E10" s="104" t="s">
+      <c r="E10" s="103" t="s">
         <v>163</v>
       </c>
-      <c r="F10" s="104" t="s">
+      <c r="F10" s="103" t="s">
         <v>45</v>
       </c>
-      <c r="G10" s="104" t="s">
+      <c r="G10" s="103" t="s">
         <v>46</v>
       </c>
-      <c r="H10" s="104" t="s">
+      <c r="H10" s="103" t="s">
         <v>47</v>
       </c>
-      <c r="I10" s="105" t="s">
+      <c r="I10" s="104" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="21">
+    <row r="11" spans="1:9" ht="21" x14ac:dyDescent="0.15">
       <c r="A11" s="38"/>
       <c r="B11" s="64" t="s">
         <v>212</v>
@@ -19775,16 +20710,16 @@
       </c>
       <c r="D11" s="46"/>
       <c r="E11" s="46"/>
-      <c r="F11" s="114"/>
-      <c r="G11" s="114"/>
-      <c r="H11" s="114"/>
-      <c r="I11" s="118"/>
-    </row>
-    <row r="12" spans="1:9" ht="73.5">
+      <c r="F11" s="113"/>
+      <c r="G11" s="113"/>
+      <c r="H11" s="113"/>
+      <c r="I11" s="117"/>
+    </row>
+    <row r="12" spans="1:9" ht="73.5" x14ac:dyDescent="0.15">
       <c r="B12" s="64" t="s">
         <v>213</v>
       </c>
-      <c r="C12" s="113" t="s">
+      <c r="C12" s="112" t="s">
         <v>222</v>
       </c>
       <c r="D12" s="46" t="s">
@@ -19806,7 +20741,7 @@
         <v>44938</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="52.5">
+    <row r="13" spans="1:9" ht="52.5" x14ac:dyDescent="0.15">
       <c r="B13" s="64"/>
       <c r="C13" s="46"/>
       <c r="D13" s="46"/>
@@ -19826,10 +20761,10 @@
         <v>44938</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="42">
+    <row r="14" spans="1:9" ht="42" x14ac:dyDescent="0.15">
       <c r="B14" s="64"/>
       <c r="C14" s="46"/>
-      <c r="D14" s="115"/>
+      <c r="D14" s="114"/>
       <c r="E14" s="57" t="s">
         <v>114</v>
       </c>
@@ -19846,7 +20781,7 @@
         <v>44938</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="52.5">
+    <row r="15" spans="1:9" ht="52.5" x14ac:dyDescent="0.15">
       <c r="A15" s="38"/>
       <c r="B15" s="64"/>
       <c r="C15" s="46"/>
@@ -19867,12 +20802,12 @@
         <v>44938</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="73.5">
+    <row r="16" spans="1:9" ht="73.5" x14ac:dyDescent="0.15">
       <c r="A16" s="38"/>
       <c r="B16" s="64"/>
       <c r="C16" s="46"/>
       <c r="D16" s="46"/>
-      <c r="E16" s="115" t="s">
+      <c r="E16" s="114" t="s">
         <v>145</v>
       </c>
       <c r="F16" s="39" t="s">
@@ -19888,91 +20823,91 @@
         <v>44938</v>
       </c>
     </row>
-    <row r="17" spans="1:9">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A17" s="38"/>
       <c r="B17" s="64"/>
       <c r="C17" s="46"/>
-      <c r="D17" s="115"/>
-      <c r="E17" s="115"/>
+      <c r="D17" s="114"/>
+      <c r="E17" s="114"/>
       <c r="F17" s="57"/>
       <c r="G17" s="57"/>
       <c r="H17" s="57"/>
       <c r="I17" s="76"/>
     </row>
-    <row r="18" spans="1:9">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A18" s="38"/>
       <c r="B18" s="64"/>
       <c r="C18" s="46"/>
-      <c r="D18" s="115"/>
+      <c r="D18" s="114"/>
       <c r="E18" s="46"/>
       <c r="F18" s="57"/>
       <c r="G18" s="57"/>
       <c r="H18" s="57"/>
       <c r="I18" s="76"/>
     </row>
-    <row r="19" spans="1:9">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B19" s="64"/>
       <c r="C19" s="46"/>
-      <c r="D19" s="115"/>
-      <c r="E19" s="115"/>
+      <c r="D19" s="114"/>
+      <c r="E19" s="114"/>
       <c r="F19" s="46"/>
       <c r="G19" s="46"/>
       <c r="H19" s="46"/>
       <c r="I19" s="76"/>
     </row>
-    <row r="20" spans="1:9">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B20" s="64"/>
       <c r="C20" s="46"/>
       <c r="D20" s="46"/>
-      <c r="E20" s="115"/>
+      <c r="E20" s="114"/>
       <c r="F20" s="46"/>
       <c r="G20" s="46"/>
       <c r="H20" s="46"/>
       <c r="I20" s="76"/>
     </row>
-    <row r="21" spans="1:9">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B21" s="64"/>
       <c r="C21" s="46"/>
       <c r="D21" s="46"/>
-      <c r="E21" s="115"/>
+      <c r="E21" s="114"/>
       <c r="F21" s="46"/>
       <c r="G21" s="46"/>
       <c r="H21" s="46"/>
       <c r="I21" s="76"/>
     </row>
-    <row r="22" spans="1:9">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B22" s="64"/>
       <c r="C22" s="46"/>
       <c r="D22" s="46"/>
-      <c r="E22" s="115"/>
+      <c r="E22" s="114"/>
       <c r="F22" s="46"/>
       <c r="G22" s="46"/>
       <c r="H22" s="46"/>
       <c r="I22" s="76"/>
     </row>
-    <row r="23" spans="1:9">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B23" s="64"/>
       <c r="C23" s="46"/>
       <c r="D23" s="46"/>
-      <c r="E23" s="115"/>
+      <c r="E23" s="114"/>
       <c r="F23" s="46"/>
       <c r="G23" s="46"/>
       <c r="H23" s="46"/>
       <c r="I23" s="76"/>
     </row>
-    <row r="24" spans="1:9">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B24" s="64"/>
       <c r="C24" s="46"/>
       <c r="D24" s="46"/>
-      <c r="E24" s="115"/>
+      <c r="E24" s="114"/>
       <c r="F24" s="46"/>
       <c r="G24" s="46"/>
       <c r="H24" s="46"/>
       <c r="I24" s="76"/>
     </row>
-    <row r="25" spans="1:9">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B25" s="64"/>
-      <c r="C25" s="113"/>
+      <c r="C25" s="112"/>
       <c r="D25" s="46"/>
       <c r="E25" s="51"/>
       <c r="F25" s="46"/>
@@ -19980,7 +20915,7 @@
       <c r="H25" s="46"/>
       <c r="I25" s="76"/>
     </row>
-    <row r="26" spans="1:9">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B26" s="64"/>
       <c r="C26" s="46"/>
       <c r="D26" s="46"/>
@@ -19990,7 +20925,7 @@
       <c r="H26" s="46"/>
       <c r="I26" s="76"/>
     </row>
-    <row r="27" spans="1:9">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B27" s="68"/>
       <c r="C27" s="46"/>
       <c r="D27" s="46"/>
@@ -20000,7 +20935,7 @@
       <c r="H27" s="46"/>
       <c r="I27" s="76"/>
     </row>
-    <row r="28" spans="1:9">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B28" s="68"/>
       <c r="C28" s="46"/>
       <c r="D28" s="46"/>
@@ -20010,7 +20945,7 @@
       <c r="H28" s="46"/>
       <c r="I28" s="76"/>
     </row>
-    <row r="29" spans="1:9">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B29" s="68"/>
       <c r="C29" s="46"/>
       <c r="D29" s="46"/>
@@ -20020,7 +20955,7 @@
       <c r="H29" s="46"/>
       <c r="I29" s="76"/>
     </row>
-    <row r="30" spans="1:9" ht="14.25" thickBot="1">
+    <row r="30" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B30" s="72"/>
       <c r="C30" s="47"/>
       <c r="D30" s="47"/>
@@ -20030,7 +20965,7 @@
       <c r="H30" s="47"/>
       <c r="I30" s="77"/>
     </row>
-    <row r="31" spans="1:9">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B31" s="35"/>
       <c r="C31" s="35"/>
       <c r="D31" s="35"/>
@@ -20040,7 +20975,7 @@
       <c r="H31" s="35"/>
       <c r="I31" s="35"/>
     </row>
-    <row r="32" spans="1:9">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B32" s="35"/>
       <c r="C32" s="35"/>
       <c r="D32" s="35"/>
@@ -20050,7 +20985,7 @@
       <c r="H32" s="35"/>
       <c r="I32" s="35"/>
     </row>
-    <row r="33" spans="1:9" ht="6" customHeight="1">
+    <row r="33" spans="1:9" ht="6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="28"/>
       <c r="B33" s="28"/>
       <c r="C33" s="28"/>
@@ -20060,7 +20995,7 @@
       <c r="G33" s="35"/>
       <c r="H33" s="35"/>
     </row>
-    <row r="34" spans="1:9" ht="14.25">
+    <row r="34" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A34" s="32" t="s">
         <v>164</v>
       </c>
@@ -20070,7 +21005,7 @@
       <c r="H34" s="35"/>
       <c r="I34" s="35"/>
     </row>
-    <row r="35" spans="1:9">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B35" s="35"/>
       <c r="C35" s="35"/>
       <c r="D35" s="35"/>
@@ -20080,8 +21015,8 @@
       <c r="H35" s="35"/>
       <c r="I35" s="35"/>
     </row>
-    <row r="36" spans="1:9">
-      <c r="B36" s="119"/>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B36" s="118"/>
       <c r="C36" s="35"/>
       <c r="D36" s="35"/>
       <c r="E36" s="35"/>
@@ -20090,7 +21025,7 @@
       <c r="H36" s="35"/>
       <c r="I36" s="35"/>
     </row>
-    <row r="37" spans="1:9">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B37" s="35"/>
       <c r="C37" s="35"/>
       <c r="D37" s="35"/>
@@ -20100,7 +21035,7 @@
       <c r="H37" s="35"/>
       <c r="I37" s="35"/>
     </row>
-    <row r="38" spans="1:9">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B38" s="35"/>
       <c r="C38" s="35"/>
       <c r="D38" s="35"/>
@@ -20110,7 +21045,7 @@
       <c r="H38" s="35"/>
       <c r="I38" s="35"/>
     </row>
-    <row r="39" spans="1:9">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B39" s="35"/>
       <c r="C39" s="35"/>
       <c r="D39" s="35"/>
@@ -20120,7 +21055,7 @@
       <c r="H39" s="35"/>
       <c r="I39" s="35"/>
     </row>
-    <row r="40" spans="1:9">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B40" s="35"/>
       <c r="C40" s="35"/>
       <c r="D40" s="35"/>
@@ -20138,7 +21073,7 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51200000000000001" footer="0.51200000000000001"/>
-  <pageSetup paperSize="9" scale="63" fitToHeight="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="64" fitToHeight="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
   <drawing r:id="rId2"/>
 </worksheet>
@@ -20156,7 +21091,7 @@
       <selection pane="bottomLeft" activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="3.125" style="27" customWidth="1"/>
     <col min="2" max="2" width="9.75" style="27" customWidth="1"/>
@@ -20169,7 +21104,7 @@
     <col min="10" max="16384" width="9" style="27"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="6" customHeight="1">
+    <row r="1" spans="1:9" ht="6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="31"/>
       <c r="B1" s="31"/>
       <c r="C1" s="31"/>
@@ -20180,66 +21115,66 @@
       <c r="H1" s="36"/>
       <c r="I1" s="36"/>
     </row>
-    <row r="2" spans="1:9" ht="17.25">
+    <row r="2" spans="1:9" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A2" s="26" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B4" s="33" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B5" s="25" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B6" s="25"/>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B8" s="37" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="14.25" thickBot="1">
+    <row r="9" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B9" s="25" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="14.25" thickBot="1">
-      <c r="B10" s="103" t="s">
+    <row r="10" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B10" s="102" t="s">
         <v>41</v>
       </c>
-      <c r="C10" s="104" t="s">
+      <c r="C10" s="103" t="s">
         <v>42</v>
       </c>
-      <c r="D10" s="104" t="s">
+      <c r="D10" s="103" t="s">
         <v>43</v>
       </c>
-      <c r="E10" s="104" t="s">
+      <c r="E10" s="103" t="s">
         <v>44</v>
       </c>
-      <c r="F10" s="104" t="s">
+      <c r="F10" s="103" t="s">
         <v>45</v>
       </c>
-      <c r="G10" s="104" t="s">
+      <c r="G10" s="103" t="s">
         <v>46</v>
       </c>
-      <c r="H10" s="104" t="s">
+      <c r="H10" s="103" t="s">
         <v>47</v>
       </c>
-      <c r="I10" s="105" t="s">
+      <c r="I10" s="104" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="73.5">
+    <row r="11" spans="1:9" ht="73.5" x14ac:dyDescent="0.15">
       <c r="A11" s="38"/>
       <c r="B11" s="64" t="s">
         <v>205</v>
       </c>
-      <c r="C11" s="113" t="s">
+      <c r="C11" s="112" t="s">
         <v>147</v>
       </c>
       <c r="D11" s="46" t="s">
@@ -20261,7 +21196,7 @@
         <v>44938</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="52.5">
+    <row r="12" spans="1:9" ht="52.5" x14ac:dyDescent="0.15">
       <c r="B12" s="64"/>
       <c r="C12" s="46"/>
       <c r="D12" s="46"/>
@@ -20281,7 +21216,7 @@
         <v>44938</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="42">
+    <row r="13" spans="1:9" ht="42" x14ac:dyDescent="0.15">
       <c r="B13" s="64"/>
       <c r="C13" s="46"/>
       <c r="D13" s="46"/>
@@ -20301,7 +21236,7 @@
         <v>44938</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="52.5">
+    <row r="14" spans="1:9" ht="52.5" x14ac:dyDescent="0.15">
       <c r="B14" s="64"/>
       <c r="C14" s="46"/>
       <c r="D14" s="46"/>
@@ -20321,11 +21256,11 @@
         <v>44938</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="73.5">
+    <row r="15" spans="1:9" ht="73.5" x14ac:dyDescent="0.15">
       <c r="B15" s="64"/>
       <c r="C15" s="46"/>
       <c r="D15" s="46"/>
-      <c r="E15" s="115" t="s">
+      <c r="E15" s="114" t="s">
         <v>182</v>
       </c>
       <c r="F15" s="39" t="s">
@@ -20341,7 +21276,7 @@
         <v>44938</v>
       </c>
     </row>
-    <row r="16" spans="1:9">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A16" s="38"/>
       <c r="B16" s="64"/>
       <c r="C16" s="46"/>
@@ -20352,80 +21287,80 @@
       <c r="H16" s="57"/>
       <c r="I16" s="76"/>
     </row>
-    <row r="17" spans="1:9">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A17" s="38"/>
-      <c r="B17" s="117"/>
+      <c r="B17" s="116"/>
       <c r="C17" s="46"/>
-      <c r="D17" s="115"/>
+      <c r="D17" s="114"/>
       <c r="E17" s="46"/>
       <c r="F17" s="57"/>
       <c r="G17" s="57"/>
       <c r="H17" s="57"/>
       <c r="I17" s="76"/>
     </row>
-    <row r="18" spans="1:9">
-      <c r="B18" s="117"/>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B18" s="116"/>
       <c r="C18" s="46"/>
-      <c r="D18" s="115"/>
-      <c r="E18" s="115"/>
+      <c r="D18" s="114"/>
+      <c r="E18" s="114"/>
       <c r="F18" s="46"/>
       <c r="G18" s="46"/>
       <c r="H18" s="46"/>
       <c r="I18" s="76"/>
     </row>
-    <row r="19" spans="1:9">
-      <c r="B19" s="117"/>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B19" s="116"/>
       <c r="C19" s="46"/>
       <c r="D19" s="46"/>
-      <c r="E19" s="115"/>
+      <c r="E19" s="114"/>
       <c r="F19" s="46"/>
       <c r="G19" s="46"/>
       <c r="H19" s="46"/>
       <c r="I19" s="76"/>
     </row>
-    <row r="20" spans="1:9">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B20" s="64"/>
       <c r="C20" s="46"/>
       <c r="D20" s="46"/>
-      <c r="E20" s="115"/>
+      <c r="E20" s="114"/>
       <c r="F20" s="46"/>
       <c r="G20" s="46"/>
       <c r="H20" s="46"/>
       <c r="I20" s="76"/>
     </row>
-    <row r="21" spans="1:9">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B21" s="64"/>
       <c r="C21" s="46"/>
       <c r="D21" s="46"/>
-      <c r="E21" s="115"/>
+      <c r="E21" s="114"/>
       <c r="F21" s="46"/>
       <c r="G21" s="46"/>
       <c r="H21" s="46"/>
       <c r="I21" s="76"/>
     </row>
-    <row r="22" spans="1:9">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B22" s="64"/>
       <c r="C22" s="46"/>
       <c r="D22" s="46"/>
-      <c r="E22" s="115"/>
+      <c r="E22" s="114"/>
       <c r="F22" s="46"/>
       <c r="G22" s="46"/>
       <c r="H22" s="46"/>
       <c r="I22" s="76"/>
     </row>
-    <row r="23" spans="1:9">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B23" s="64"/>
       <c r="C23" s="46"/>
       <c r="D23" s="46"/>
-      <c r="E23" s="115"/>
+      <c r="E23" s="114"/>
       <c r="F23" s="46"/>
       <c r="G23" s="46"/>
       <c r="H23" s="46"/>
       <c r="I23" s="76"/>
     </row>
-    <row r="24" spans="1:9">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B24" s="64"/>
-      <c r="C24" s="113"/>
+      <c r="C24" s="112"/>
       <c r="D24" s="46"/>
       <c r="E24" s="51"/>
       <c r="F24" s="46"/>
@@ -20433,7 +21368,7 @@
       <c r="H24" s="46"/>
       <c r="I24" s="76"/>
     </row>
-    <row r="25" spans="1:9">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B25" s="64"/>
       <c r="C25" s="46"/>
       <c r="D25" s="46"/>
@@ -20443,7 +21378,7 @@
       <c r="H25" s="46"/>
       <c r="I25" s="76"/>
     </row>
-    <row r="26" spans="1:9">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B26" s="68"/>
       <c r="C26" s="46"/>
       <c r="D26" s="46"/>
@@ -20453,7 +21388,7 @@
       <c r="H26" s="46"/>
       <c r="I26" s="76"/>
     </row>
-    <row r="27" spans="1:9">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B27" s="68"/>
       <c r="C27" s="46"/>
       <c r="D27" s="46"/>
@@ -20463,7 +21398,7 @@
       <c r="H27" s="46"/>
       <c r="I27" s="76"/>
     </row>
-    <row r="28" spans="1:9">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B28" s="68"/>
       <c r="C28" s="46"/>
       <c r="D28" s="46"/>
@@ -20473,7 +21408,7 @@
       <c r="H28" s="46"/>
       <c r="I28" s="76"/>
     </row>
-    <row r="29" spans="1:9" ht="14.25" thickBot="1">
+    <row r="29" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B29" s="72"/>
       <c r="C29" s="47"/>
       <c r="D29" s="47"/>
@@ -20483,7 +21418,7 @@
       <c r="H29" s="47"/>
       <c r="I29" s="77"/>
     </row>
-    <row r="30" spans="1:9">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B30" s="35"/>
       <c r="C30" s="35"/>
       <c r="D30" s="35"/>
@@ -20493,7 +21428,7 @@
       <c r="H30" s="35"/>
       <c r="I30" s="35"/>
     </row>
-    <row r="31" spans="1:9">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B31" s="35"/>
       <c r="C31" s="35"/>
       <c r="D31" s="35"/>
@@ -20503,7 +21438,7 @@
       <c r="H31" s="35"/>
       <c r="I31" s="35"/>
     </row>
-    <row r="32" spans="1:9" ht="6" customHeight="1">
+    <row r="32" spans="1:9" ht="6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="28"/>
       <c r="B32" s="28"/>
       <c r="C32" s="28"/>
@@ -20513,7 +21448,7 @@
       <c r="G32" s="35"/>
       <c r="H32" s="35"/>
     </row>
-    <row r="33" spans="1:9" ht="14.25">
+    <row r="33" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A33" s="32" t="s">
         <v>49</v>
       </c>
@@ -20523,7 +21458,7 @@
       <c r="H33" s="35"/>
       <c r="I33" s="35"/>
     </row>
-    <row r="34" spans="1:9">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B34" s="35"/>
       <c r="C34" s="35"/>
       <c r="D34" s="35"/>
@@ -20533,7 +21468,7 @@
       <c r="H34" s="35"/>
       <c r="I34" s="35"/>
     </row>
-    <row r="35" spans="1:9">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B35" s="35"/>
       <c r="C35" s="35"/>
       <c r="D35" s="35"/>
@@ -20543,7 +21478,7 @@
       <c r="H35" s="35"/>
       <c r="I35" s="35"/>
     </row>
-    <row r="36" spans="1:9">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B36" s="35"/>
       <c r="C36" s="35"/>
       <c r="D36" s="35"/>
@@ -20553,7 +21488,7 @@
       <c r="H36" s="35"/>
       <c r="I36" s="35"/>
     </row>
-    <row r="37" spans="1:9">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B37" s="35"/>
       <c r="C37" s="35"/>
       <c r="D37" s="35"/>
@@ -20563,7 +21498,7 @@
       <c r="H37" s="35"/>
       <c r="I37" s="35"/>
     </row>
-    <row r="38" spans="1:9">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B38" s="35"/>
       <c r="C38" s="35"/>
       <c r="D38" s="35"/>
@@ -20573,7 +21508,7 @@
       <c r="H38" s="35"/>
       <c r="I38" s="35"/>
     </row>
-    <row r="39" spans="1:9">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B39" s="35"/>
       <c r="C39" s="35"/>
       <c r="D39" s="35"/>
@@ -20591,7 +21526,7 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51200000000000001" footer="0.51200000000000001"/>
-  <pageSetup paperSize="9" scale="63" fitToHeight="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="64" fitToHeight="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
   <drawing r:id="rId2"/>
 </worksheet>
@@ -20609,7 +21544,7 @@
       <selection pane="bottomLeft" activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="3.125" style="27" customWidth="1"/>
     <col min="2" max="2" width="9.75" style="27" customWidth="1"/>
@@ -20622,7 +21557,7 @@
     <col min="10" max="16384" width="9" style="27"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="6" customHeight="1">
+    <row r="1" spans="1:9" ht="6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="31"/>
       <c r="B1" s="31"/>
       <c r="C1" s="31"/>
@@ -20633,66 +21568,66 @@
       <c r="H1" s="36"/>
       <c r="I1" s="36"/>
     </row>
-    <row r="2" spans="1:9" ht="17.25">
+    <row r="2" spans="1:9" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A2" s="26" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B4" s="33" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B5" s="25" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B6" s="25"/>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B8" s="37" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="14.25" thickBot="1">
+    <row r="9" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B9" s="25" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="14.25" thickBot="1">
-      <c r="B10" s="103" t="s">
+    <row r="10" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B10" s="102" t="s">
         <v>41</v>
       </c>
-      <c r="C10" s="104" t="s">
+      <c r="C10" s="103" t="s">
         <v>42</v>
       </c>
-      <c r="D10" s="104" t="s">
+      <c r="D10" s="103" t="s">
         <v>43</v>
       </c>
-      <c r="E10" s="104" t="s">
+      <c r="E10" s="103" t="s">
         <v>44</v>
       </c>
-      <c r="F10" s="104" t="s">
+      <c r="F10" s="103" t="s">
         <v>45</v>
       </c>
-      <c r="G10" s="104" t="s">
+      <c r="G10" s="103" t="s">
         <v>46</v>
       </c>
-      <c r="H10" s="104" t="s">
+      <c r="H10" s="103" t="s">
         <v>47</v>
       </c>
-      <c r="I10" s="105" t="s">
+      <c r="I10" s="104" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="73.5">
+    <row r="11" spans="1:9" ht="73.5" x14ac:dyDescent="0.15">
       <c r="A11" s="38"/>
       <c r="B11" s="64" t="s">
         <v>208</v>
       </c>
-      <c r="C11" s="113" t="s">
+      <c r="C11" s="112" t="s">
         <v>147</v>
       </c>
       <c r="D11" s="46" t="s">
@@ -20714,7 +21649,7 @@
         <v>44938</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="52.5">
+    <row r="12" spans="1:9" ht="52.5" x14ac:dyDescent="0.15">
       <c r="B12" s="64"/>
       <c r="C12" s="46"/>
       <c r="D12" s="46"/>
@@ -20734,7 +21669,7 @@
         <v>44938</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="42">
+    <row r="13" spans="1:9" ht="42" x14ac:dyDescent="0.15">
       <c r="B13" s="64"/>
       <c r="C13" s="46"/>
       <c r="D13" s="46"/>
@@ -20754,7 +21689,7 @@
         <v>44938</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="52.5">
+    <row r="14" spans="1:9" ht="52.5" x14ac:dyDescent="0.15">
       <c r="B14" s="64"/>
       <c r="C14" s="46"/>
       <c r="D14" s="46"/>
@@ -20774,11 +21709,11 @@
         <v>44938</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="73.5">
+    <row r="15" spans="1:9" ht="73.5" x14ac:dyDescent="0.15">
       <c r="B15" s="64"/>
       <c r="C15" s="46"/>
       <c r="D15" s="46"/>
-      <c r="E15" s="115" t="s">
+      <c r="E15" s="114" t="s">
         <v>182</v>
       </c>
       <c r="F15" s="39" t="s">
@@ -20794,7 +21729,7 @@
         <v>44938</v>
       </c>
     </row>
-    <row r="16" spans="1:9">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A16" s="38"/>
       <c r="B16" s="64"/>
       <c r="C16" s="46"/>
@@ -20805,80 +21740,80 @@
       <c r="H16" s="57"/>
       <c r="I16" s="76"/>
     </row>
-    <row r="17" spans="1:9">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A17" s="38"/>
-      <c r="B17" s="117"/>
+      <c r="B17" s="116"/>
       <c r="C17" s="46"/>
-      <c r="D17" s="115"/>
+      <c r="D17" s="114"/>
       <c r="E17" s="46"/>
       <c r="F17" s="57"/>
       <c r="G17" s="57"/>
       <c r="H17" s="57"/>
       <c r="I17" s="76"/>
     </row>
-    <row r="18" spans="1:9">
-      <c r="B18" s="117"/>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B18" s="116"/>
       <c r="C18" s="46"/>
-      <c r="D18" s="115"/>
-      <c r="E18" s="115"/>
+      <c r="D18" s="114"/>
+      <c r="E18" s="114"/>
       <c r="F18" s="46"/>
       <c r="G18" s="46"/>
       <c r="H18" s="46"/>
       <c r="I18" s="76"/>
     </row>
-    <row r="19" spans="1:9">
-      <c r="B19" s="117"/>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B19" s="116"/>
       <c r="C19" s="46"/>
       <c r="D19" s="46"/>
-      <c r="E19" s="115"/>
+      <c r="E19" s="114"/>
       <c r="F19" s="46"/>
       <c r="G19" s="46"/>
       <c r="H19" s="46"/>
       <c r="I19" s="76"/>
     </row>
-    <row r="20" spans="1:9">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B20" s="64"/>
       <c r="C20" s="46"/>
       <c r="D20" s="46"/>
-      <c r="E20" s="115"/>
+      <c r="E20" s="114"/>
       <c r="F20" s="46"/>
       <c r="G20" s="46"/>
       <c r="H20" s="46"/>
       <c r="I20" s="76"/>
     </row>
-    <row r="21" spans="1:9">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B21" s="64"/>
       <c r="C21" s="46"/>
       <c r="D21" s="46"/>
-      <c r="E21" s="115"/>
+      <c r="E21" s="114"/>
       <c r="F21" s="46"/>
       <c r="G21" s="46"/>
       <c r="H21" s="46"/>
       <c r="I21" s="76"/>
     </row>
-    <row r="22" spans="1:9">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B22" s="64"/>
       <c r="C22" s="46"/>
       <c r="D22" s="46"/>
-      <c r="E22" s="115"/>
+      <c r="E22" s="114"/>
       <c r="F22" s="46"/>
       <c r="G22" s="46"/>
       <c r="H22" s="46"/>
       <c r="I22" s="76"/>
     </row>
-    <row r="23" spans="1:9">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B23" s="64"/>
       <c r="C23" s="46"/>
       <c r="D23" s="46"/>
-      <c r="E23" s="115"/>
+      <c r="E23" s="114"/>
       <c r="F23" s="46"/>
       <c r="G23" s="46"/>
       <c r="H23" s="46"/>
       <c r="I23" s="76"/>
     </row>
-    <row r="24" spans="1:9">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B24" s="64"/>
-      <c r="C24" s="113"/>
+      <c r="C24" s="112"/>
       <c r="D24" s="46"/>
       <c r="E24" s="51"/>
       <c r="F24" s="46"/>
@@ -20886,7 +21821,7 @@
       <c r="H24" s="46"/>
       <c r="I24" s="76"/>
     </row>
-    <row r="25" spans="1:9">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B25" s="64"/>
       <c r="C25" s="46"/>
       <c r="D25" s="46"/>
@@ -20896,7 +21831,7 @@
       <c r="H25" s="46"/>
       <c r="I25" s="76"/>
     </row>
-    <row r="26" spans="1:9">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B26" s="68"/>
       <c r="C26" s="46"/>
       <c r="D26" s="46"/>
@@ -20906,7 +21841,7 @@
       <c r="H26" s="46"/>
       <c r="I26" s="76"/>
     </row>
-    <row r="27" spans="1:9">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B27" s="68"/>
       <c r="C27" s="46"/>
       <c r="D27" s="46"/>
@@ -20916,7 +21851,7 @@
       <c r="H27" s="46"/>
       <c r="I27" s="76"/>
     </row>
-    <row r="28" spans="1:9">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B28" s="68"/>
       <c r="C28" s="46"/>
       <c r="D28" s="46"/>
@@ -20926,7 +21861,7 @@
       <c r="H28" s="46"/>
       <c r="I28" s="76"/>
     </row>
-    <row r="29" spans="1:9" ht="14.25" thickBot="1">
+    <row r="29" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B29" s="72"/>
       <c r="C29" s="47"/>
       <c r="D29" s="47"/>
@@ -20936,7 +21871,7 @@
       <c r="H29" s="47"/>
       <c r="I29" s="77"/>
     </row>
-    <row r="30" spans="1:9">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B30" s="35"/>
       <c r="C30" s="35"/>
       <c r="D30" s="35"/>
@@ -20946,7 +21881,7 @@
       <c r="H30" s="35"/>
       <c r="I30" s="35"/>
     </row>
-    <row r="31" spans="1:9">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B31" s="35"/>
       <c r="C31" s="35"/>
       <c r="D31" s="35"/>
@@ -20956,7 +21891,7 @@
       <c r="H31" s="35"/>
       <c r="I31" s="35"/>
     </row>
-    <row r="32" spans="1:9" ht="6" customHeight="1">
+    <row r="32" spans="1:9" ht="6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="28"/>
       <c r="B32" s="28"/>
       <c r="C32" s="28"/>
@@ -20966,7 +21901,7 @@
       <c r="G32" s="35"/>
       <c r="H32" s="35"/>
     </row>
-    <row r="33" spans="1:9" ht="14.25">
+    <row r="33" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A33" s="32" t="s">
         <v>49</v>
       </c>
@@ -20976,7 +21911,7 @@
       <c r="H33" s="35"/>
       <c r="I33" s="35"/>
     </row>
-    <row r="34" spans="1:9">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B34" s="35"/>
       <c r="C34" s="35"/>
       <c r="D34" s="35"/>
@@ -20986,7 +21921,7 @@
       <c r="H34" s="35"/>
       <c r="I34" s="35"/>
     </row>
-    <row r="35" spans="1:9">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B35" s="35"/>
       <c r="C35" s="35"/>
       <c r="D35" s="35"/>
@@ -20996,7 +21931,7 @@
       <c r="H35" s="35"/>
       <c r="I35" s="35"/>
     </row>
-    <row r="36" spans="1:9">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B36" s="35"/>
       <c r="C36" s="35"/>
       <c r="D36" s="35"/>
@@ -21006,7 +21941,7 @@
       <c r="H36" s="35"/>
       <c r="I36" s="35"/>
     </row>
-    <row r="37" spans="1:9">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B37" s="35"/>
       <c r="C37" s="35"/>
       <c r="D37" s="35"/>
@@ -21016,7 +21951,7 @@
       <c r="H37" s="35"/>
       <c r="I37" s="35"/>
     </row>
-    <row r="38" spans="1:9">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B38" s="35"/>
       <c r="C38" s="35"/>
       <c r="D38" s="35"/>
@@ -21026,7 +21961,7 @@
       <c r="H38" s="35"/>
       <c r="I38" s="35"/>
     </row>
-    <row r="39" spans="1:9">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B39" s="35"/>
       <c r="C39" s="35"/>
       <c r="D39" s="35"/>
@@ -21044,7 +21979,7 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51200000000000001" footer="0.51200000000000001"/>
-  <pageSetup paperSize="9" scale="63" fitToHeight="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="64" fitToHeight="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
   <drawing r:id="rId2"/>
 </worksheet>
@@ -21052,22 +21987,31 @@
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet7"/>
-  <dimension ref="A1:H24"/>
+  <sheetPr>
+    <tabColor rgb="FFFF99CC"/>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:I25"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="10" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A11" sqref="A11"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="3.125" style="27" customWidth="1"/>
-    <col min="2" max="3" width="9.125" style="27" customWidth="1"/>
-    <col min="4" max="4" width="30.625" style="27" customWidth="1"/>
-    <col min="5" max="5" width="30" style="27" customWidth="1"/>
-    <col min="6" max="8" width="13.125" style="27" customWidth="1"/>
-    <col min="9" max="16384" width="9" style="27"/>
+    <col min="2" max="2" width="9.75" style="27" customWidth="1"/>
+    <col min="3" max="3" width="40.125" style="27" customWidth="1"/>
+    <col min="4" max="4" width="13.125" style="27" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="21.625" style="27" customWidth="1"/>
+    <col min="7" max="7" width="4.75" style="27" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.125" style="27" customWidth="1"/>
+    <col min="9" max="9" width="11.625" style="27" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="27"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="6" customHeight="1">
+    <row r="1" spans="1:9" ht="6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="31"/>
       <c r="B1" s="31"/>
       <c r="C1" s="31"/>
@@ -21076,247 +22020,302 @@
       <c r="F1" s="31"/>
       <c r="G1" s="36"/>
       <c r="H1" s="36"/>
-    </row>
-    <row r="2" spans="1:8" ht="17.25">
+      <c r="I1" s="36"/>
+    </row>
+    <row r="2" spans="1:9" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A2" s="26" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="14.25" thickBot="1">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B4" s="33" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
-      <c r="B5" s="131" t="s">
-        <v>66</v>
-      </c>
-      <c r="C5" s="106" t="s">
-        <v>75</v>
-      </c>
-      <c r="D5" s="133" t="s">
-        <v>52</v>
-      </c>
-      <c r="E5" s="135" t="s">
-        <v>53</v>
-      </c>
-      <c r="F5" s="133" t="s">
-        <v>54</v>
-      </c>
-      <c r="G5" s="135" t="s">
-        <v>55</v>
-      </c>
-      <c r="H5" s="129" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="14.25" thickBot="1">
-      <c r="B6" s="132"/>
-      <c r="C6" s="107" t="s">
-        <v>57</v>
-      </c>
-      <c r="D6" s="134"/>
-      <c r="E6" s="136"/>
-      <c r="F6" s="134"/>
-      <c r="G6" s="136"/>
-      <c r="H6" s="130"/>
-    </row>
-    <row r="7" spans="1:8">
-      <c r="B7" s="66" t="s">
-        <v>71</v>
-      </c>
-      <c r="C7" s="41"/>
-      <c r="D7" s="43"/>
-      <c r="E7" s="41"/>
-      <c r="F7" s="43"/>
-      <c r="G7" s="45"/>
-      <c r="H7" s="67"/>
-    </row>
-    <row r="8" spans="1:8">
-      <c r="B8" s="68"/>
-      <c r="C8" s="42"/>
-      <c r="D8" s="44"/>
-      <c r="E8" s="42"/>
-      <c r="F8" s="46"/>
-      <c r="G8" s="48"/>
-      <c r="H8" s="69"/>
-    </row>
-    <row r="9" spans="1:8">
-      <c r="B9" s="68"/>
-      <c r="C9" s="46"/>
-      <c r="D9" s="42"/>
-      <c r="E9" s="46"/>
-      <c r="F9" s="50"/>
-      <c r="G9" s="52"/>
-      <c r="H9" s="69"/>
-    </row>
-    <row r="10" spans="1:8">
-      <c r="B10" s="68"/>
-      <c r="C10" s="46"/>
-      <c r="D10" s="46"/>
-      <c r="E10" s="46"/>
-      <c r="F10" s="46"/>
-      <c r="G10" s="48"/>
-      <c r="H10" s="69"/>
-    </row>
-    <row r="11" spans="1:8">
-      <c r="B11" s="68"/>
-      <c r="C11" s="42"/>
-      <c r="D11" s="46"/>
-      <c r="E11" s="49"/>
-      <c r="F11" s="51"/>
-      <c r="G11" s="53"/>
-      <c r="H11" s="70"/>
-    </row>
-    <row r="12" spans="1:8">
-      <c r="B12" s="68"/>
-      <c r="C12" s="46"/>
-      <c r="D12" s="46"/>
-      <c r="E12" s="46"/>
-      <c r="F12" s="50"/>
-      <c r="G12" s="52"/>
-      <c r="H12" s="70"/>
-    </row>
-    <row r="13" spans="1:8">
-      <c r="B13" s="68"/>
-      <c r="C13" s="42"/>
-      <c r="D13" s="54"/>
-      <c r="E13" s="49"/>
-      <c r="F13" s="46"/>
-      <c r="G13" s="48"/>
-      <c r="H13" s="71"/>
-    </row>
-    <row r="14" spans="1:8">
-      <c r="B14" s="68"/>
-      <c r="C14" s="46"/>
-      <c r="D14" s="46"/>
-      <c r="E14" s="46"/>
-      <c r="F14" s="50"/>
-      <c r="G14" s="52"/>
-      <c r="H14" s="70"/>
-    </row>
-    <row r="15" spans="1:8">
-      <c r="B15" s="68"/>
-      <c r="C15" s="42"/>
-      <c r="D15" s="54"/>
-      <c r="E15" s="49"/>
-      <c r="F15" s="46"/>
-      <c r="G15" s="48"/>
-      <c r="H15" s="71"/>
-    </row>
-    <row r="16" spans="1:8">
-      <c r="B16" s="68"/>
-      <c r="C16" s="46"/>
-      <c r="D16" s="46"/>
-      <c r="E16" s="55"/>
-      <c r="F16" s="50"/>
-      <c r="G16" s="52"/>
-      <c r="H16" s="69"/>
-    </row>
-    <row r="17" spans="2:8">
-      <c r="B17" s="68"/>
-      <c r="C17" s="42"/>
-      <c r="D17" s="54"/>
-      <c r="E17" s="46"/>
-      <c r="F17" s="46"/>
-      <c r="G17" s="48"/>
-      <c r="H17" s="70"/>
-    </row>
-    <row r="18" spans="2:8">
-      <c r="B18" s="68"/>
-      <c r="C18" s="46"/>
-      <c r="D18" s="42"/>
-      <c r="E18" s="55"/>
-      <c r="F18" s="50"/>
-      <c r="G18" s="52"/>
-      <c r="H18" s="69"/>
-    </row>
-    <row r="19" spans="2:8">
-      <c r="B19" s="68"/>
-      <c r="C19" s="42"/>
-      <c r="D19" s="46"/>
-      <c r="E19" s="46"/>
-      <c r="F19" s="46"/>
-      <c r="G19" s="48"/>
-      <c r="H19" s="70"/>
-    </row>
-    <row r="20" spans="2:8">
-      <c r="B20" s="68"/>
-      <c r="C20" s="46"/>
-      <c r="D20" s="42"/>
-      <c r="E20" s="55"/>
-      <c r="F20" s="50"/>
-      <c r="G20" s="52"/>
-      <c r="H20" s="69"/>
-    </row>
-    <row r="21" spans="2:8">
-      <c r="B21" s="68"/>
-      <c r="C21" s="42"/>
-      <c r="D21" s="46"/>
-      <c r="E21" s="46"/>
-      <c r="F21" s="46"/>
-      <c r="G21" s="48"/>
-      <c r="H21" s="70"/>
-    </row>
-    <row r="22" spans="2:8">
-      <c r="B22" s="68"/>
-      <c r="C22" s="46"/>
-      <c r="D22" s="46"/>
-      <c r="E22" s="46"/>
-      <c r="F22" s="46"/>
-      <c r="G22" s="52"/>
-      <c r="H22" s="69"/>
-    </row>
-    <row r="23" spans="2:8">
-      <c r="B23" s="66"/>
-      <c r="C23" s="55"/>
-      <c r="D23" s="55"/>
-      <c r="E23" s="46"/>
-      <c r="F23" s="50"/>
-      <c r="G23" s="56"/>
-      <c r="H23" s="69"/>
-    </row>
-    <row r="24" spans="2:8" ht="14.25" thickBot="1">
-      <c r="B24" s="72"/>
-      <c r="C24" s="73"/>
-      <c r="D24" s="73"/>
-      <c r="E24" s="73"/>
-      <c r="F24" s="47"/>
-      <c r="G24" s="74"/>
-      <c r="H24" s="75"/>
+        <v>37</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B5" s="25" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B6" s="25"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B8" s="37" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B9" s="25" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B10" s="102" t="s">
+        <v>41</v>
+      </c>
+      <c r="C10" s="103" t="s">
+        <v>42</v>
+      </c>
+      <c r="D10" s="103" t="s">
+        <v>43</v>
+      </c>
+      <c r="E10" s="103" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" s="103" t="s">
+        <v>45</v>
+      </c>
+      <c r="G10" s="103" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" s="103" t="s">
+        <v>47</v>
+      </c>
+      <c r="I10" s="104" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="42" x14ac:dyDescent="0.15">
+      <c r="A11" s="38"/>
+      <c r="B11" s="132" t="s">
+        <v>251</v>
+      </c>
+      <c r="C11" s="112" t="s">
+        <v>255</v>
+      </c>
+      <c r="D11" s="39" t="s">
+        <v>258</v>
+      </c>
+      <c r="E11" s="51" t="s">
+        <v>242</v>
+      </c>
+      <c r="F11" s="51" t="s">
+        <v>243</v>
+      </c>
+      <c r="G11" s="51" t="s">
+        <v>244</v>
+      </c>
+      <c r="H11" s="51" t="s">
+        <v>245</v>
+      </c>
+      <c r="I11" s="78">
+        <v>45433</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="31.5" x14ac:dyDescent="0.15">
+      <c r="A12" s="38"/>
+      <c r="B12" s="132" t="s">
+        <v>252</v>
+      </c>
+      <c r="C12" s="112" t="s">
+        <v>260</v>
+      </c>
+      <c r="D12" s="57" t="s">
+        <v>246</v>
+      </c>
+      <c r="E12" s="57" t="s">
+        <v>256</v>
+      </c>
+      <c r="F12" s="51" t="s">
+        <v>243</v>
+      </c>
+      <c r="G12" s="46" t="s">
+        <v>244</v>
+      </c>
+      <c r="H12" s="46" t="s">
+        <v>245</v>
+      </c>
+      <c r="I12" s="76">
+        <v>45433</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="31.5" x14ac:dyDescent="0.15">
+      <c r="A13" s="38"/>
+      <c r="B13" s="132" t="s">
+        <v>253</v>
+      </c>
+      <c r="C13" s="112"/>
+      <c r="D13" s="57" t="s">
+        <v>247</v>
+      </c>
+      <c r="E13" s="57" t="s">
+        <v>256</v>
+      </c>
+      <c r="F13" s="51" t="s">
+        <v>243</v>
+      </c>
+      <c r="G13" s="46" t="s">
+        <v>244</v>
+      </c>
+      <c r="H13" s="46" t="s">
+        <v>245</v>
+      </c>
+      <c r="I13" s="76">
+        <v>45433</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="52.5" x14ac:dyDescent="0.15">
+      <c r="B14" s="132" t="s">
+        <v>254</v>
+      </c>
+      <c r="C14" s="51"/>
+      <c r="D14" s="57" t="s">
+        <v>248</v>
+      </c>
+      <c r="E14" s="57" t="s">
+        <v>257</v>
+      </c>
+      <c r="F14" s="51" t="s">
+        <v>249</v>
+      </c>
+      <c r="G14" s="46" t="s">
+        <v>244</v>
+      </c>
+      <c r="H14" s="46" t="s">
+        <v>245</v>
+      </c>
+      <c r="I14" s="76">
+        <v>45433</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B15" s="72"/>
+      <c r="C15" s="47"/>
+      <c r="D15" s="47"/>
+      <c r="E15" s="47"/>
+      <c r="F15" s="58"/>
+      <c r="G15" s="47"/>
+      <c r="H15" s="47"/>
+      <c r="I15" s="77"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B16" s="35"/>
+      <c r="C16" s="35"/>
+      <c r="D16" s="35"/>
+      <c r="E16" s="35"/>
+      <c r="F16" s="35"/>
+      <c r="G16" s="35"/>
+      <c r="H16" s="35"/>
+      <c r="I16" s="35"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B17" s="35"/>
+      <c r="C17" s="35"/>
+      <c r="D17" s="35"/>
+      <c r="E17" s="35"/>
+      <c r="F17" s="35"/>
+      <c r="G17" s="35"/>
+      <c r="H17" s="35"/>
+      <c r="I17" s="35"/>
+    </row>
+    <row r="18" spans="1:9" ht="6" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="28"/>
+      <c r="B18" s="28"/>
+      <c r="C18" s="28"/>
+      <c r="D18" s="35"/>
+      <c r="E18" s="35"/>
+      <c r="F18" s="35"/>
+      <c r="G18" s="35"/>
+      <c r="H18" s="35"/>
+    </row>
+    <row r="19" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A19" s="32" t="s">
+        <v>49</v>
+      </c>
+      <c r="E19" s="35"/>
+      <c r="F19" s="35"/>
+      <c r="G19" s="35"/>
+      <c r="H19" s="35"/>
+      <c r="I19" s="35"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B20" s="35"/>
+      <c r="C20" s="35"/>
+      <c r="D20" s="35"/>
+      <c r="E20" s="35"/>
+      <c r="F20" s="35"/>
+      <c r="G20" s="35"/>
+      <c r="H20" s="35"/>
+      <c r="I20" s="35"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B21" s="118" t="s">
+        <v>259</v>
+      </c>
+      <c r="C21" s="35"/>
+      <c r="D21" s="35"/>
+      <c r="E21" s="35"/>
+      <c r="F21" s="35"/>
+      <c r="G21" s="35"/>
+      <c r="H21" s="35"/>
+      <c r="I21" s="35"/>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B22" s="35"/>
+      <c r="C22" s="35"/>
+      <c r="D22" s="35"/>
+      <c r="E22" s="35"/>
+      <c r="F22" s="35"/>
+      <c r="G22" s="35"/>
+      <c r="H22" s="35"/>
+      <c r="I22" s="35"/>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B23" s="35"/>
+      <c r="C23" s="35"/>
+      <c r="D23" s="35"/>
+      <c r="E23" s="35"/>
+      <c r="F23" s="35"/>
+      <c r="G23" s="35"/>
+      <c r="H23" s="35"/>
+      <c r="I23" s="35"/>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B24" s="35"/>
+      <c r="C24" s="35"/>
+      <c r="D24" s="35"/>
+      <c r="E24" s="35"/>
+      <c r="F24" s="35"/>
+      <c r="G24" s="35"/>
+      <c r="H24" s="35"/>
+      <c r="I24" s="35"/>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B25" s="35"/>
+      <c r="C25" s="35"/>
+      <c r="D25" s="35"/>
+      <c r="E25" s="35"/>
+      <c r="F25" s="35"/>
+      <c r="G25" s="35"/>
+      <c r="H25" s="35"/>
+      <c r="I25" s="35"/>
     </row>
   </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="H5:H6"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="F5:F6"/>
-    <mergeCell ref="G5:G6"/>
-  </mergeCells>
   <phoneticPr fontId="3"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H7:H24">
-      <formula1>"起票,対応中,対応済"</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G11:G15">
+      <formula1>"OK,NG"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51200000000000001" footer="0.51200000000000001"/>
-  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="64" fitToHeight="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:I14"/>
+  <dimension ref="A1:I15"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="9" style="15"/>
-    <col min="2" max="2" width="9.125" style="15" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.375" style="15" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.625" style="15" customWidth="1"/>
     <col min="4" max="4" width="7.625" style="15" customWidth="1"/>
     <col min="5" max="257" width="9" style="15"/>
@@ -21574,7 +22573,7 @@
     <col min="16133" max="16384" width="9" style="15"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="8.1" customHeight="1">
+    <row r="1" spans="1:9" ht="8.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="14"/>
       <c r="B1" s="14"/>
       <c r="C1" s="14"/>
@@ -21585,48 +22584,48 @@
       <c r="H1" s="14"/>
       <c r="I1" s="14"/>
     </row>
-    <row r="2" spans="1:9" ht="17.25">
+    <row r="2" spans="1:9" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A2" s="16" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A3" s="17"/>
     </row>
-    <row r="4" spans="1:9" ht="3.95" customHeight="1">
+    <row r="4" spans="1:9" ht="3.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="14"/>
       <c r="B4" s="14"/>
       <c r="C4" s="14"/>
       <c r="D4" s="14"/>
     </row>
-    <row r="5" spans="1:9" ht="14.25">
+    <row r="5" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A5" s="18" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="14.25" customHeight="1" thickBot="1">
+    <row r="6" spans="1:9" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A6" s="19"/>
     </row>
-    <row r="7" spans="1:9" ht="14.25" thickBot="1">
-      <c r="B7" s="97" t="s">
+    <row r="7" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B7" s="96" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="98" t="s">
+      <c r="C7" s="97" t="s">
         <v>11</v>
       </c>
-      <c r="D7" s="98" t="s">
+      <c r="D7" s="97" t="s">
         <v>12</v>
       </c>
-      <c r="E7" s="99" t="s">
+      <c r="E7" s="98" t="s">
         <v>74</v>
       </c>
-      <c r="F7" s="99"/>
-      <c r="G7" s="99"/>
-      <c r="H7" s="99"/>
-      <c r="I7" s="100"/>
-    </row>
-    <row r="8" spans="1:9">
-      <c r="B8" s="89">
+      <c r="F7" s="98"/>
+      <c r="G7" s="98"/>
+      <c r="H7" s="98"/>
+      <c r="I7" s="99"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B8" s="88">
         <v>44921</v>
       </c>
       <c r="C8" s="20" t="s">
@@ -21641,10 +22640,10 @@
       <c r="F8" s="23"/>
       <c r="G8" s="23"/>
       <c r="H8" s="23"/>
-      <c r="I8" s="90"/>
-    </row>
-    <row r="9" spans="1:9">
-      <c r="B9" s="89">
+      <c r="I8" s="89"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B9" s="88">
         <v>44984</v>
       </c>
       <c r="C9" s="20" t="s">
@@ -21659,29 +22658,47 @@
       <c r="F9" s="23"/>
       <c r="G9" s="23"/>
       <c r="H9" s="23"/>
-      <c r="I9" s="90"/>
-    </row>
-    <row r="10" spans="1:9" ht="14.25" thickBot="1">
-      <c r="B10" s="91"/>
-      <c r="C10" s="92"/>
-      <c r="D10" s="93"/>
-      <c r="E10" s="94"/>
-      <c r="F10" s="95"/>
-      <c r="G10" s="95"/>
-      <c r="H10" s="95"/>
-      <c r="I10" s="96"/>
-    </row>
-    <row r="11" spans="1:9">
-      <c r="A11" s="17"/>
-    </row>
-    <row r="12" spans="1:9">
+      <c r="I9" s="89"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B10" s="124">
+        <v>45561</v>
+      </c>
+      <c r="C10" s="125" t="s">
+        <v>262</v>
+      </c>
+      <c r="D10" s="126" t="s">
+        <v>238</v>
+      </c>
+      <c r="E10" s="127" t="s">
+        <v>261</v>
+      </c>
+      <c r="F10" s="23"/>
+      <c r="G10" s="23"/>
+      <c r="H10" s="23"/>
+      <c r="I10" s="89"/>
+    </row>
+    <row r="11" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B11" s="90"/>
+      <c r="C11" s="91"/>
+      <c r="D11" s="92"/>
+      <c r="E11" s="93"/>
+      <c r="F11" s="94"/>
+      <c r="G11" s="94"/>
+      <c r="H11" s="94"/>
+      <c r="I11" s="95"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A12" s="17"/>
     </row>
-    <row r="13" spans="1:9">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A13" s="17"/>
     </row>
-    <row r="14" spans="1:9">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A14" s="17"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A15" s="17"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3"/>
@@ -21697,12 +22714,268 @@
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet7"/>
+  <dimension ref="A1:H24"/>
+  <sheetViews>
+    <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="3.125" style="27" customWidth="1"/>
+    <col min="2" max="3" width="9.125" style="27" customWidth="1"/>
+    <col min="4" max="4" width="30.625" style="27" customWidth="1"/>
+    <col min="5" max="5" width="30" style="27" customWidth="1"/>
+    <col min="6" max="8" width="13.125" style="27" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="27"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="6" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="31"/>
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="36"/>
+      <c r="H1" s="36"/>
+    </row>
+    <row r="2" spans="1:8" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A2" s="26" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B4" s="33" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="B5" s="138" t="s">
+        <v>66</v>
+      </c>
+      <c r="C5" s="105" t="s">
+        <v>75</v>
+      </c>
+      <c r="D5" s="140" t="s">
+        <v>52</v>
+      </c>
+      <c r="E5" s="142" t="s">
+        <v>53</v>
+      </c>
+      <c r="F5" s="140" t="s">
+        <v>54</v>
+      </c>
+      <c r="G5" s="142" t="s">
+        <v>55</v>
+      </c>
+      <c r="H5" s="136" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B6" s="139"/>
+      <c r="C6" s="106" t="s">
+        <v>57</v>
+      </c>
+      <c r="D6" s="141"/>
+      <c r="E6" s="143"/>
+      <c r="F6" s="141"/>
+      <c r="G6" s="143"/>
+      <c r="H6" s="137"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="B7" s="66" t="s">
+        <v>71</v>
+      </c>
+      <c r="C7" s="41"/>
+      <c r="D7" s="43"/>
+      <c r="E7" s="41"/>
+      <c r="F7" s="43"/>
+      <c r="G7" s="45"/>
+      <c r="H7" s="67"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="B8" s="68"/>
+      <c r="C8" s="42"/>
+      <c r="D8" s="44"/>
+      <c r="E8" s="42"/>
+      <c r="F8" s="46"/>
+      <c r="G8" s="48"/>
+      <c r="H8" s="69"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="B9" s="68"/>
+      <c r="C9" s="46"/>
+      <c r="D9" s="42"/>
+      <c r="E9" s="46"/>
+      <c r="F9" s="50"/>
+      <c r="G9" s="52"/>
+      <c r="H9" s="69"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="B10" s="68"/>
+      <c r="C10" s="46"/>
+      <c r="D10" s="46"/>
+      <c r="E10" s="46"/>
+      <c r="F10" s="46"/>
+      <c r="G10" s="48"/>
+      <c r="H10" s="69"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="B11" s="68"/>
+      <c r="C11" s="42"/>
+      <c r="D11" s="46"/>
+      <c r="E11" s="49"/>
+      <c r="F11" s="51"/>
+      <c r="G11" s="53"/>
+      <c r="H11" s="70"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="B12" s="68"/>
+      <c r="C12" s="46"/>
+      <c r="D12" s="46"/>
+      <c r="E12" s="46"/>
+      <c r="F12" s="50"/>
+      <c r="G12" s="52"/>
+      <c r="H12" s="70"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="B13" s="68"/>
+      <c r="C13" s="42"/>
+      <c r="D13" s="54"/>
+      <c r="E13" s="49"/>
+      <c r="F13" s="46"/>
+      <c r="G13" s="48"/>
+      <c r="H13" s="71"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="B14" s="68"/>
+      <c r="C14" s="46"/>
+      <c r="D14" s="46"/>
+      <c r="E14" s="46"/>
+      <c r="F14" s="50"/>
+      <c r="G14" s="52"/>
+      <c r="H14" s="70"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="B15" s="68"/>
+      <c r="C15" s="42"/>
+      <c r="D15" s="54"/>
+      <c r="E15" s="49"/>
+      <c r="F15" s="46"/>
+      <c r="G15" s="48"/>
+      <c r="H15" s="71"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="B16" s="68"/>
+      <c r="C16" s="46"/>
+      <c r="D16" s="46"/>
+      <c r="E16" s="55"/>
+      <c r="F16" s="50"/>
+      <c r="G16" s="52"/>
+      <c r="H16" s="69"/>
+    </row>
+    <row r="17" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B17" s="68"/>
+      <c r="C17" s="42"/>
+      <c r="D17" s="54"/>
+      <c r="E17" s="46"/>
+      <c r="F17" s="46"/>
+      <c r="G17" s="48"/>
+      <c r="H17" s="70"/>
+    </row>
+    <row r="18" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B18" s="68"/>
+      <c r="C18" s="46"/>
+      <c r="D18" s="42"/>
+      <c r="E18" s="55"/>
+      <c r="F18" s="50"/>
+      <c r="G18" s="52"/>
+      <c r="H18" s="69"/>
+    </row>
+    <row r="19" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B19" s="68"/>
+      <c r="C19" s="42"/>
+      <c r="D19" s="46"/>
+      <c r="E19" s="46"/>
+      <c r="F19" s="46"/>
+      <c r="G19" s="48"/>
+      <c r="H19" s="70"/>
+    </row>
+    <row r="20" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B20" s="68"/>
+      <c r="C20" s="46"/>
+      <c r="D20" s="42"/>
+      <c r="E20" s="55"/>
+      <c r="F20" s="50"/>
+      <c r="G20" s="52"/>
+      <c r="H20" s="69"/>
+    </row>
+    <row r="21" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B21" s="68"/>
+      <c r="C21" s="42"/>
+      <c r="D21" s="46"/>
+      <c r="E21" s="46"/>
+      <c r="F21" s="46"/>
+      <c r="G21" s="48"/>
+      <c r="H21" s="70"/>
+    </row>
+    <row r="22" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B22" s="68"/>
+      <c r="C22" s="46"/>
+      <c r="D22" s="46"/>
+      <c r="E22" s="46"/>
+      <c r="F22" s="46"/>
+      <c r="G22" s="52"/>
+      <c r="H22" s="69"/>
+    </row>
+    <row r="23" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B23" s="66"/>
+      <c r="C23" s="55"/>
+      <c r="D23" s="55"/>
+      <c r="E23" s="46"/>
+      <c r="F23" s="50"/>
+      <c r="G23" s="56"/>
+      <c r="H23" s="69"/>
+    </row>
+    <row r="24" spans="2:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B24" s="72"/>
+      <c r="C24" s="73"/>
+      <c r="D24" s="73"/>
+      <c r="E24" s="73"/>
+      <c r="F24" s="47"/>
+      <c r="G24" s="74"/>
+      <c r="H24" s="75"/>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="H5:H6"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="G5:G6"/>
+  </mergeCells>
+  <phoneticPr fontId="3"/>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H7:H24">
+      <formula1>"起票,対応中,対応済"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51200000000000001" footer="0.51200000000000001"/>
+  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <headerFooter alignWithMargins="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet8"/>
   <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="1.625" style="27" customWidth="1"/>
     <col min="2" max="2" width="6.625" style="27" customWidth="1"/>
@@ -21713,7 +22986,7 @@
     <col min="8" max="16384" width="9" style="27"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="6" customHeight="1">
+    <row r="1" spans="1:7" ht="6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="28"/>
       <c r="B1" s="28"/>
       <c r="C1" s="28"/>
@@ -21722,46 +22995,46 @@
       <c r="F1" s="28"/>
       <c r="G1" s="28"/>
     </row>
-    <row r="2" spans="1:7" ht="17.25">
+    <row r="2" spans="1:7" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A2" s="26" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="6" customHeight="1">
+    <row r="4" spans="1:7" ht="6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="28"/>
       <c r="B4" s="28"/>
       <c r="C4" s="28"/>
     </row>
-    <row r="5" spans="1:7" ht="14.25">
+    <row r="5" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A5" s="32" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="14.25" thickBot="1">
+    <row r="6" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A6" s="17"/>
     </row>
-    <row r="7" spans="1:7" ht="14.25" thickBot="1">
+    <row r="7" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A7" s="59"/>
-      <c r="B7" s="108" t="s">
+      <c r="B7" s="107" t="s">
         <v>60</v>
       </c>
-      <c r="C7" s="109" t="s">
+      <c r="C7" s="108" t="s">
         <v>61</v>
       </c>
-      <c r="D7" s="109" t="s">
+      <c r="D7" s="108" t="s">
         <v>53</v>
       </c>
-      <c r="E7" s="109" t="s">
+      <c r="E7" s="108" t="s">
         <v>62</v>
       </c>
-      <c r="F7" s="109" t="s">
+      <c r="F7" s="108" t="s">
         <v>63</v>
       </c>
-      <c r="G7" s="110" t="s">
+      <c r="G7" s="109" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="14.1" customHeight="1" thickBot="1">
+    <row r="8" spans="1:7" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A8" s="35"/>
       <c r="B8" s="60"/>
       <c r="C8" s="61"/>
@@ -21770,7 +23043,7 @@
       <c r="F8" s="62"/>
       <c r="G8" s="63"/>
     </row>
-    <row r="9" spans="1:7" ht="14.1" customHeight="1">
+    <row r="9" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="35"/>
       <c r="B9" s="35"/>
       <c r="C9" s="35"/>
@@ -21779,44 +23052,44 @@
       <c r="F9" s="35"/>
       <c r="G9" s="35"/>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A10" s="17"/>
     </row>
-    <row r="11" spans="1:7" ht="6" customHeight="1">
+    <row r="11" spans="1:7" ht="6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="28"/>
       <c r="B11" s="28"/>
       <c r="C11" s="28"/>
     </row>
-    <row r="12" spans="1:7" ht="14.25">
+    <row r="12" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A12" s="32" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="14.25" thickBot="1">
+    <row r="13" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A13" s="17"/>
     </row>
-    <row r="14" spans="1:7" ht="14.25" thickBot="1">
+    <row r="14" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A14" s="59"/>
-      <c r="B14" s="108" t="s">
+      <c r="B14" s="107" t="s">
         <v>60</v>
       </c>
-      <c r="C14" s="111" t="s">
+      <c r="C14" s="110" t="s">
         <v>61</v>
       </c>
-      <c r="D14" s="111" t="s">
+      <c r="D14" s="110" t="s">
         <v>53</v>
       </c>
-      <c r="E14" s="111" t="s">
+      <c r="E14" s="110" t="s">
         <v>62</v>
       </c>
-      <c r="F14" s="111" t="s">
+      <c r="F14" s="110" t="s">
         <v>63</v>
       </c>
-      <c r="G14" s="110" t="s">
+      <c r="G14" s="109" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="14.1" customHeight="1">
+    <row r="15" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="35"/>
       <c r="B15" s="64"/>
       <c r="C15" s="39"/>
@@ -21825,7 +23098,7 @@
       <c r="F15" s="40"/>
       <c r="G15" s="65"/>
     </row>
-    <row r="16" spans="1:7" ht="14.1" customHeight="1">
+    <row r="16" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="35"/>
       <c r="B16" s="64"/>
       <c r="C16" s="39"/>
@@ -21834,7 +23107,7 @@
       <c r="F16" s="40"/>
       <c r="G16" s="65"/>
     </row>
-    <row r="17" spans="1:7" ht="14.1" customHeight="1">
+    <row r="17" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="35"/>
       <c r="B17" s="64"/>
       <c r="C17" s="39"/>
@@ -21843,7 +23116,7 @@
       <c r="F17" s="40"/>
       <c r="G17" s="65"/>
     </row>
-    <row r="18" spans="1:7" ht="14.1" customHeight="1" thickBot="1">
+    <row r="18" spans="1:7" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A18" s="35"/>
       <c r="B18" s="60"/>
       <c r="C18" s="61"/>
@@ -21871,7 +23144,7 @@
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="13" width="6.625" style="27" customWidth="1"/>
     <col min="14" max="256" width="9" style="27"/>
@@ -22003,7 +23276,7 @@
     <col min="16142" max="16384" width="9" style="27"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="15" customFormat="1" ht="8.1" customHeight="1">
+    <row r="1" spans="1:13" s="15" customFormat="1" ht="8.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="14"/>
       <c r="B1" s="14"/>
       <c r="C1" s="14"/>
@@ -22018,156 +23291,156 @@
       <c r="L1" s="14"/>
       <c r="M1" s="14"/>
     </row>
-    <row r="2" spans="1:13" ht="17.25">
+    <row r="2" spans="1:13" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A2" s="26" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:13" ht="14.45" customHeight="1"/>
-    <row r="4" spans="1:13" ht="6" customHeight="1">
+    <row r="3" spans="1:13" ht="14.45" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="4" spans="1:13" ht="6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="28"/>
       <c r="B4" s="28"/>
     </row>
-    <row r="5" spans="1:13" ht="13.5" customHeight="1">
+    <row r="5" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="29" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:13" ht="13.5" customHeight="1">
+    <row r="6" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="29"/>
     </row>
-    <row r="7" spans="1:13" ht="14.45" customHeight="1">
+    <row r="7" spans="1:13" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B7" s="27" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:13" ht="14.45" customHeight="1"/>
-    <row r="9" spans="1:13" ht="14.45" customHeight="1">
+    <row r="8" spans="1:13" ht="14.45" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="9" spans="1:13" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B9" s="38" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="10" spans="1:13" ht="14.45" customHeight="1">
+    <row r="10" spans="1:13" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B10" s="27" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="1:13" ht="14.45" customHeight="1"/>
-    <row r="12" spans="1:13" ht="14.45" customHeight="1"/>
-    <row r="13" spans="1:13" ht="6" customHeight="1">
+    <row r="11" spans="1:13" ht="14.45" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="12" spans="1:13" ht="14.45" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="13" spans="1:13" ht="6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="28"/>
       <c r="B13" s="28"/>
     </row>
-    <row r="14" spans="1:13">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A14" s="29" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="15" spans="1:13">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A15" s="29"/>
     </row>
-    <row r="16" spans="1:13" ht="14.45" customHeight="1">
+    <row r="16" spans="1:13" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B16" s="27" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="17" spans="1:13" ht="14.45" customHeight="1">
+    <row r="17" spans="1:13" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B17" s="27" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="18" spans="1:13" ht="14.45" customHeight="1"/>
-    <row r="19" spans="1:13" ht="14.45" customHeight="1">
+    <row r="18" spans="1:13" ht="14.45" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="19" spans="1:13" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B19" s="27" t="s">
         <v>22</v>
       </c>
       <c r="J19" s="30"/>
     </row>
-    <row r="20" spans="1:13" ht="14.45" customHeight="1">
+    <row r="20" spans="1:13" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B20" s="38" t="s">
         <v>79</v>
       </c>
       <c r="J20" s="30"/>
     </row>
-    <row r="21" spans="1:13" ht="14.45" customHeight="1">
+    <row r="21" spans="1:13" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="J21" s="30"/>
     </row>
-    <row r="22" spans="1:13" ht="14.45" customHeight="1">
+    <row r="22" spans="1:13" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="J22" s="30"/>
     </row>
-    <row r="23" spans="1:13" ht="6" customHeight="1">
+    <row r="23" spans="1:13" ht="6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="28"/>
       <c r="B23" s="28"/>
     </row>
-    <row r="24" spans="1:13">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A24" s="29" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:13" ht="14.45" customHeight="1">
+    <row r="25" spans="1:13" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="J25" s="30"/>
     </row>
-    <row r="26" spans="1:13" ht="14.45" customHeight="1">
+    <row r="26" spans="1:13" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B26" s="27" t="s">
         <v>24</v>
       </c>
       <c r="M26" s="30"/>
     </row>
-    <row r="27" spans="1:13" ht="14.45" customHeight="1">
+    <row r="27" spans="1:13" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B27" s="27" t="s">
         <v>25</v>
       </c>
       <c r="M27" s="30"/>
     </row>
-    <row r="28" spans="1:13" ht="14.45" customHeight="1">
+    <row r="28" spans="1:13" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B28" s="27" t="s">
         <v>26</v>
       </c>
       <c r="M28" s="30"/>
     </row>
-    <row r="29" spans="1:13" ht="14.45" customHeight="1">
+    <row r="29" spans="1:13" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B29" s="27" t="s">
         <v>27</v>
       </c>
       <c r="M29" s="30"/>
     </row>
-    <row r="30" spans="1:13" ht="14.45" customHeight="1">
+    <row r="30" spans="1:13" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B30" s="27" t="s">
         <v>28</v>
       </c>
       <c r="M30" s="30"/>
     </row>
-    <row r="31" spans="1:13" ht="14.45" customHeight="1">
+    <row r="31" spans="1:13" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B31" s="27" t="s">
         <v>29</v>
       </c>
       <c r="M31" s="30"/>
     </row>
-    <row r="32" spans="1:13" ht="14.45" customHeight="1">
+    <row r="32" spans="1:13" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B32" s="27" t="s">
         <v>30</v>
       </c>
       <c r="M32" s="30"/>
     </row>
-    <row r="33" spans="2:13" ht="14.45" customHeight="1">
+    <row r="33" spans="2:13" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B33" s="27" t="s">
         <v>31</v>
       </c>
       <c r="M33" s="30"/>
     </row>
-    <row r="34" spans="2:13" ht="14.45" customHeight="1">
+    <row r="34" spans="2:13" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B34" s="27" t="s">
         <v>32</v>
       </c>
       <c r="M34" s="30"/>
     </row>
-    <row r="35" spans="2:13" ht="14.45" customHeight="1">
+    <row r="35" spans="2:13" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="M35" s="30"/>
     </row>
-    <row r="36" spans="2:13" ht="14.45" customHeight="1">
+    <row r="36" spans="2:13" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="M36" s="30"/>
     </row>
-    <row r="37" spans="2:13" ht="14.45" customHeight="1">
+    <row r="37" spans="2:13" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="M37" s="30"/>
     </row>
   </sheetData>
@@ -22185,13 +23458,14 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet4">
+    <tabColor rgb="FFFF99CC"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F21"/>
+  <dimension ref="A1:F23"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="80" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.75" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="2.75" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="3" width="2.75" style="82"/>
     <col min="4" max="4" width="22.125" style="82" customWidth="1"/>
@@ -22200,7 +23474,7 @@
     <col min="7" max="16384" width="2.75" style="82"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="6" customHeight="1">
+    <row r="1" spans="1:6" ht="6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="81"/>
       <c r="B1" s="81"/>
       <c r="C1" s="81"/>
@@ -22208,7 +23482,7 @@
       <c r="E1" s="81"/>
       <c r="F1" s="81"/>
     </row>
-    <row r="2" spans="1:6" ht="17.25">
+    <row r="2" spans="1:6" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A2" s="80" t="s">
         <v>72</v>
       </c>
@@ -22218,7 +23492,7 @@
       <c r="E2" s="79"/>
       <c r="F2" s="79"/>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A3" s="79"/>
       <c r="B3" s="79"/>
       <c r="C3" s="83"/>
@@ -22226,7 +23500,7 @@
       <c r="E3" s="83"/>
       <c r="F3" s="83"/>
     </row>
-    <row r="4" spans="1:6" s="85" customFormat="1" ht="11.25">
+    <row r="4" spans="1:6" s="85" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
       <c r="A4" s="84"/>
       <c r="B4" s="84"/>
       <c r="C4" s="84"/>
@@ -22236,7 +23510,7 @@
       <c r="E4" s="84"/>
       <c r="F4" s="84"/>
     </row>
-    <row r="5" spans="1:6" s="85" customFormat="1" ht="16.5" customHeight="1" thickBot="1">
+    <row r="5" spans="1:6" s="85" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A5" s="84"/>
       <c r="B5" s="84"/>
       <c r="C5" s="84"/>
@@ -22244,23 +23518,23 @@
       <c r="E5" s="84"/>
       <c r="F5" s="84"/>
     </row>
-    <row r="6" spans="1:6" s="85" customFormat="1" ht="12">
+    <row r="6" spans="1:6" s="85" customFormat="1" ht="12" x14ac:dyDescent="0.15">
       <c r="A6" s="84"/>
       <c r="B6" s="84"/>
       <c r="C6" s="84"/>
-      <c r="D6" s="101" t="s">
+      <c r="D6" s="100" t="s">
         <v>69</v>
       </c>
-      <c r="E6" s="102" t="s">
+      <c r="E6" s="101" t="s">
         <v>70</v>
       </c>
       <c r="F6" s="84"/>
     </row>
-    <row r="7" spans="1:6" s="85" customFormat="1">
+    <row r="7" spans="1:6" s="85" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A7" s="84"/>
       <c r="B7" s="84"/>
       <c r="C7" s="84"/>
-      <c r="D7" s="116" t="s">
+      <c r="D7" s="115" t="s">
         <v>80</v>
       </c>
       <c r="E7" s="86" t="s">
@@ -22268,11 +23542,11 @@
       </c>
       <c r="F7" s="84"/>
     </row>
-    <row r="8" spans="1:6" s="85" customFormat="1">
+    <row r="8" spans="1:6" s="85" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A8" s="84"/>
       <c r="B8" s="84"/>
       <c r="C8" s="84"/>
-      <c r="D8" s="116" t="s">
+      <c r="D8" s="115" t="s">
         <v>76</v>
       </c>
       <c r="E8" s="86" t="s">
@@ -22280,11 +23554,11 @@
       </c>
       <c r="F8" s="84"/>
     </row>
-    <row r="9" spans="1:6" s="85" customFormat="1">
+    <row r="9" spans="1:6" s="85" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A9" s="84"/>
       <c r="B9" s="84"/>
       <c r="C9" s="84"/>
-      <c r="D9" s="116" t="s">
+      <c r="D9" s="115" t="s">
         <v>81</v>
       </c>
       <c r="E9" s="86" t="s">
@@ -22292,11 +23566,11 @@
       </c>
       <c r="F9" s="84"/>
     </row>
-    <row r="10" spans="1:6" s="85" customFormat="1">
+    <row r="10" spans="1:6" s="85" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A10" s="84"/>
       <c r="B10" s="84"/>
       <c r="C10" s="84"/>
-      <c r="D10" s="116" t="s">
+      <c r="D10" s="115" t="s">
         <v>83</v>
       </c>
       <c r="E10" s="86" t="s">
@@ -22304,11 +23578,11 @@
       </c>
       <c r="F10" s="84"/>
     </row>
-    <row r="11" spans="1:6" s="85" customFormat="1">
+    <row r="11" spans="1:6" s="85" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A11" s="84"/>
       <c r="B11" s="84"/>
       <c r="C11" s="84"/>
-      <c r="D11" s="116" t="s">
+      <c r="D11" s="115" t="s">
         <v>135</v>
       </c>
       <c r="E11" s="86" t="s">
@@ -22316,11 +23590,11 @@
       </c>
       <c r="F11" s="84"/>
     </row>
-    <row r="12" spans="1:6" s="85" customFormat="1">
+    <row r="12" spans="1:6" s="85" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A12" s="84"/>
       <c r="B12" s="84"/>
       <c r="C12" s="84"/>
-      <c r="D12" s="116" t="s">
+      <c r="D12" s="115" t="s">
         <v>136</v>
       </c>
       <c r="E12" s="86" t="s">
@@ -22328,11 +23602,11 @@
       </c>
       <c r="F12" s="84"/>
     </row>
-    <row r="13" spans="1:6" s="85" customFormat="1">
+    <row r="13" spans="1:6" s="85" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A13" s="84"/>
       <c r="B13" s="84"/>
       <c r="C13" s="84"/>
-      <c r="D13" s="116" t="s">
+      <c r="D13" s="115" t="s">
         <v>137</v>
       </c>
       <c r="E13" s="86" t="s">
@@ -22340,11 +23614,11 @@
       </c>
       <c r="F13" s="84"/>
     </row>
-    <row r="14" spans="1:6" s="85" customFormat="1">
+    <row r="14" spans="1:6" s="85" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A14" s="84"/>
       <c r="B14" s="84"/>
       <c r="C14" s="84"/>
-      <c r="D14" s="116" t="s">
+      <c r="D14" s="115" t="s">
         <v>120</v>
       </c>
       <c r="E14" s="86" t="s">
@@ -22352,11 +23626,11 @@
       </c>
       <c r="F14" s="84"/>
     </row>
-    <row r="15" spans="1:6" s="85" customFormat="1">
+    <row r="15" spans="1:6" s="85" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A15" s="84"/>
       <c r="B15" s="84"/>
       <c r="C15" s="84"/>
-      <c r="D15" s="116" t="s">
+      <c r="D15" s="115" t="s">
         <v>121</v>
       </c>
       <c r="E15" s="86" t="s">
@@ -22364,11 +23638,11 @@
       </c>
       <c r="F15" s="84"/>
     </row>
-    <row r="16" spans="1:6" s="85" customFormat="1">
+    <row r="16" spans="1:6" s="85" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A16" s="84"/>
       <c r="B16" s="84"/>
       <c r="C16" s="84"/>
-      <c r="D16" s="116" t="s">
+      <c r="D16" s="115" t="s">
         <v>122</v>
       </c>
       <c r="E16" s="86" t="s">
@@ -22376,11 +23650,11 @@
       </c>
       <c r="F16" s="84"/>
     </row>
-    <row r="17" spans="1:6" s="85" customFormat="1">
+    <row r="17" spans="1:6" s="85" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A17" s="84"/>
       <c r="B17" s="84"/>
       <c r="C17" s="84"/>
-      <c r="D17" s="116" t="s">
+      <c r="D17" s="115" t="s">
         <v>123</v>
       </c>
       <c r="E17" s="86" t="s">
@@ -22388,45 +23662,65 @@
       </c>
       <c r="F17" s="84"/>
     </row>
-    <row r="18" spans="1:6" s="85" customFormat="1">
+    <row r="18" spans="1:6" s="85" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A18" s="84"/>
       <c r="B18" s="84"/>
       <c r="C18" s="84"/>
-      <c r="D18" s="116" t="s">
+      <c r="D18" s="115" t="s">
         <v>138</v>
       </c>
-      <c r="E18" s="125" t="s">
+      <c r="E18" s="123" t="s">
         <v>129</v>
       </c>
       <c r="F18" s="84"/>
     </row>
-    <row r="19" spans="1:6" s="85" customFormat="1" ht="14.25" thickBot="1">
+    <row r="19" spans="1:6" s="85" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A19" s="87"/>
       <c r="B19" s="84"/>
       <c r="C19" s="84"/>
-      <c r="D19" s="124" t="s">
+      <c r="D19" s="115" t="s">
         <v>206</v>
       </c>
-      <c r="E19" s="88" t="s">
+      <c r="E19" s="86" t="s">
         <v>119</v>
       </c>
       <c r="F19" s="84"/>
     </row>
-    <row r="20" spans="1:6" s="85" customFormat="1" ht="11.25">
-      <c r="A20" s="84"/>
-      <c r="B20" s="87"/>
-      <c r="C20" s="87"/>
-      <c r="D20" s="87"/>
-      <c r="E20" s="87"/>
-      <c r="F20" s="87"/>
-    </row>
-    <row r="21" spans="1:6" s="85" customFormat="1" ht="11.25">
+    <row r="20" spans="1:6" s="85" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="87"/>
+      <c r="B20" s="84"/>
+      <c r="C20" s="84"/>
+      <c r="D20" s="130" t="s">
+        <v>240</v>
+      </c>
+      <c r="E20" s="131" t="s">
+        <v>241</v>
+      </c>
+      <c r="F20" s="84"/>
+    </row>
+    <row r="21" spans="1:6" s="85" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A21" s="87"/>
-      <c r="B21" s="87"/>
-      <c r="C21" s="87"/>
-      <c r="D21" s="87"/>
-      <c r="E21" s="87"/>
-      <c r="F21" s="87"/>
+      <c r="B21" s="84"/>
+      <c r="C21" s="84"/>
+      <c r="D21" s="128"/>
+      <c r="E21" s="129"/>
+      <c r="F21" s="84"/>
+    </row>
+    <row r="22" spans="1:6" s="85" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
+      <c r="A22" s="84"/>
+      <c r="B22" s="87"/>
+      <c r="C22" s="87"/>
+      <c r="D22" s="87"/>
+      <c r="E22" s="87"/>
+      <c r="F22" s="87"/>
+    </row>
+    <row r="23" spans="1:6" s="85" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
+      <c r="A23" s="87"/>
+      <c r="B23" s="87"/>
+      <c r="C23" s="87"/>
+      <c r="D23" s="87"/>
+      <c r="E23" s="87"/>
+      <c r="F23" s="87"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3"/>
@@ -22444,9 +23738,10 @@
     <hyperlink ref="D19" location="'テスト仕様_テスト結果(テスト・シナリオ13)'!A1" display="シナリオ13"/>
     <hyperlink ref="D16" location="'テスト仕様_テスト結果(テスト・シナリオ10)'!A1" display="シナリオ10"/>
     <hyperlink ref="D18" location="'テスト仕様_テスト結果(テスト・シナリオ12)'!A1" display="シナリオ12"/>
+    <hyperlink ref="D20" location="'テスト仕様_テスト結果(テスト・シナリオ14)'!A1" display="シナリオ14"/>
   </hyperlinks>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" scale="96" fitToHeight="0" orientation="landscape" cellComments="asDisplayed" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="97" fitToHeight="0" orientation="landscape" cellComments="asDisplayed" r:id="rId1"/>
   <headerFooter>
     <oddHeader>&amp;L&amp;8&amp;F&amp;R&amp;8XXX構築プロジェクト
 &lt;YYYY/MM/DD&gt;</oddHeader>
@@ -22463,7 +23758,7 @@
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="3.125" style="27" customWidth="1"/>
     <col min="2" max="2" width="20.625" style="27" customWidth="1"/>
@@ -22471,476 +23766,476 @@
     <col min="4" max="16384" width="9" style="27"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="6" customHeight="1">
+    <row r="1" spans="1:3" ht="6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="31"/>
       <c r="B1" s="31"/>
       <c r="C1" s="31"/>
     </row>
-    <row r="2" spans="1:3" ht="14.25">
+    <row r="2" spans="1:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A2" s="32" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B4" s="33" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B5" s="33"/>
     </row>
-    <row r="6" spans="1:3">
-      <c r="B6" s="120" t="s">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B6" s="119" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="25.5" customHeight="1">
-      <c r="B7" s="128" t="s">
+    <row r="7" spans="1:3" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B7" s="135" t="s">
         <v>91</v>
       </c>
-      <c r="C7" s="128"/>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="B8" s="121"/>
-      <c r="C8" s="122"/>
-    </row>
-    <row r="9" spans="1:3">
+      <c r="C7" s="135"/>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B8" s="120"/>
+      <c r="C8" s="121"/>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B9" s="34"/>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B10" s="34" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B11" s="33" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
-      <c r="B12" s="121"/>
-      <c r="C12" s="122"/>
-    </row>
-    <row r="13" spans="1:3" s="112" customFormat="1">
-      <c r="B13" s="121" t="s">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B12" s="120"/>
+      <c r="C12" s="121"/>
+    </row>
+    <row r="13" spans="1:3" s="111" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B13" s="120" t="s">
         <v>94</v>
       </c>
-      <c r="C13" s="123">
+      <c r="C13" s="122">
         <v>1237638</v>
       </c>
     </row>
-    <row r="14" spans="1:3" s="112" customFormat="1">
-      <c r="B14" s="121" t="s">
+    <row r="14" spans="1:3" s="111" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B14" s="120" t="s">
         <v>140</v>
       </c>
-      <c r="C14" s="123" t="s">
+      <c r="C14" s="122" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="15" spans="1:3" s="112" customFormat="1">
+    <row r="15" spans="1:3" s="111" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B15" s="33"/>
       <c r="C15" s="27"/>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B16" s="34" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="17" spans="2:3">
+    <row r="17" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B17" s="33" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="18" spans="2:3">
-      <c r="B18" s="123"/>
-      <c r="C18" s="123"/>
-    </row>
-    <row r="19" spans="2:3">
-      <c r="B19" s="121" t="s">
+    <row r="18" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B18" s="122"/>
+      <c r="C18" s="122"/>
+    </row>
+    <row r="19" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B19" s="120" t="s">
         <v>95</v>
       </c>
-      <c r="C19" s="123">
+      <c r="C19" s="122">
         <v>1000</v>
       </c>
     </row>
-    <row r="20" spans="2:3">
-      <c r="B20" s="121" t="s">
+    <row r="20" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B20" s="120" t="s">
         <v>140</v>
       </c>
-      <c r="C20" s="123" t="s">
+      <c r="C20" s="122" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="21" spans="2:3">
-      <c r="B21" s="121"/>
-      <c r="C21" s="123"/>
-    </row>
-    <row r="22" spans="2:3">
+    <row r="21" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B21" s="120"/>
+      <c r="C21" s="122"/>
+    </row>
+    <row r="22" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B22" s="34" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="23" spans="2:3">
+    <row r="23" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B23" s="33" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="24" spans="2:3">
-      <c r="B24" s="123"/>
-      <c r="C24" s="123"/>
-    </row>
-    <row r="25" spans="2:3">
-      <c r="B25" s="121" t="s">
+    <row r="24" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B24" s="122"/>
+      <c r="C24" s="122"/>
+    </row>
+    <row r="25" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B25" s="120" t="s">
         <v>94</v>
       </c>
-      <c r="C25" s="123">
+      <c r="C25" s="122">
         <v>1115595</v>
       </c>
     </row>
-    <row r="26" spans="2:3">
-      <c r="B26" s="121" t="s">
+    <row r="26" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B26" s="120" t="s">
         <v>140</v>
       </c>
-      <c r="C26" s="123" t="s">
+      <c r="C26" s="122" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="27" spans="2:3">
-      <c r="B27" s="121"/>
-      <c r="C27" s="123"/>
-    </row>
-    <row r="28" spans="2:3">
+    <row r="27" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B27" s="120"/>
+      <c r="C27" s="122"/>
+    </row>
+    <row r="28" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B28" s="34" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="29" spans="2:3">
+    <row r="29" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B29" s="33" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="30" spans="2:3">
-      <c r="B30" s="123"/>
-      <c r="C30" s="123"/>
-    </row>
-    <row r="31" spans="2:3">
-      <c r="B31" s="121" t="s">
+    <row r="30" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B30" s="122"/>
+      <c r="C30" s="122"/>
+    </row>
+    <row r="31" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B31" s="120" t="s">
         <v>94</v>
       </c>
-      <c r="C31" s="123">
+      <c r="C31" s="122">
         <v>1237645</v>
       </c>
     </row>
-    <row r="32" spans="2:3">
-      <c r="B32" s="121" t="s">
+    <row r="32" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B32" s="120" t="s">
         <v>140</v>
       </c>
-      <c r="C32" s="123" t="s">
+      <c r="C32" s="122" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="33" spans="2:3">
-      <c r="B33" s="121"/>
-      <c r="C33" s="123"/>
-    </row>
-    <row r="34" spans="2:3">
+    <row r="33" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B33" s="120"/>
+      <c r="C33" s="122"/>
+    </row>
+    <row r="34" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B34" s="34" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="35" spans="2:3">
+    <row r="35" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B35" s="33" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="36" spans="2:3">
-      <c r="B36" s="123"/>
-      <c r="C36" s="123"/>
-    </row>
-    <row r="37" spans="2:3">
-      <c r="B37" s="121" t="s">
+    <row r="36" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B36" s="122"/>
+      <c r="C36" s="122"/>
+    </row>
+    <row r="37" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B37" s="120" t="s">
         <v>99</v>
       </c>
-      <c r="C37" s="123">
+      <c r="C37" s="122">
         <v>9999990</v>
       </c>
     </row>
-    <row r="39" spans="2:3">
+    <row r="39" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B39" s="33" t="s">
         <v>100</v>
       </c>
-      <c r="C39" s="123"/>
-    </row>
-    <row r="40" spans="2:3">
-      <c r="B40" s="121" t="s">
+      <c r="C39" s="122"/>
+    </row>
+    <row r="40" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B40" s="120" t="s">
         <v>101</v>
       </c>
-      <c r="C40" s="123" t="s">
+      <c r="C40" s="122" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="41" spans="2:3">
-      <c r="B41" s="121" t="s">
+    <row r="41" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B41" s="120" t="s">
         <v>140</v>
       </c>
-      <c r="C41" s="123" t="s">
+      <c r="C41" s="122" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="42" spans="2:3">
+    <row r="42" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B42" s="34"/>
-      <c r="C42" s="123" t="s">
+      <c r="C42" s="122" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="43" spans="2:3">
+    <row r="43" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B43" s="34"/>
     </row>
-    <row r="44" spans="2:3">
+    <row r="44" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B44" s="34" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="45" spans="2:3">
+    <row r="45" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B45" s="33" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="46" spans="2:3">
-      <c r="B46" s="121"/>
-      <c r="C46" s="122"/>
-    </row>
-    <row r="47" spans="2:3">
-      <c r="B47" s="121" t="s">
+    <row r="46" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B46" s="120"/>
+      <c r="C46" s="121"/>
+    </row>
+    <row r="47" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B47" s="120" t="s">
         <v>94</v>
       </c>
-      <c r="C47" s="123">
+      <c r="C47" s="122">
         <v>1237638</v>
       </c>
     </row>
-    <row r="48" spans="2:3">
-      <c r="B48" s="121" t="s">
+    <row r="48" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B48" s="120" t="s">
         <v>140</v>
       </c>
-      <c r="C48" s="123" t="s">
+      <c r="C48" s="122" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="49" spans="2:3">
+    <row r="49" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B49" s="34"/>
     </row>
-    <row r="50" spans="2:3">
+    <row r="50" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B50" s="34" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="51" spans="2:3">
+    <row r="51" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B51" s="33" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="52" spans="2:3">
-      <c r="B52" s="121"/>
-      <c r="C52" s="122"/>
-    </row>
-    <row r="53" spans="2:3">
-      <c r="B53" s="121" t="s">
+    <row r="52" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B52" s="120"/>
+      <c r="C52" s="121"/>
+    </row>
+    <row r="53" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B53" s="120" t="s">
         <v>94</v>
       </c>
-      <c r="C53" s="123">
+      <c r="C53" s="122">
         <v>1237638</v>
       </c>
     </row>
-    <row r="54" spans="2:3">
-      <c r="B54" s="121" t="s">
+    <row r="54" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B54" s="120" t="s">
         <v>140</v>
       </c>
-      <c r="C54" s="123" t="s">
+      <c r="C54" s="122" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="55" spans="2:3">
+    <row r="55" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B55" s="34"/>
     </row>
-    <row r="56" spans="2:3">
+    <row r="56" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B56" s="34" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="57" spans="2:3">
+    <row r="57" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B57" s="33" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="58" spans="2:3">
-      <c r="B58" s="121"/>
-      <c r="C58" s="122"/>
-    </row>
-    <row r="59" spans="2:3">
-      <c r="B59" s="121" t="s">
+    <row r="58" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B58" s="120"/>
+      <c r="C58" s="121"/>
+    </row>
+    <row r="59" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B59" s="120" t="s">
         <v>94</v>
       </c>
-      <c r="C59" s="123">
+      <c r="C59" s="122">
         <v>1237638</v>
       </c>
     </row>
-    <row r="60" spans="2:3">
-      <c r="B60" s="121" t="s">
+    <row r="60" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B60" s="120" t="s">
         <v>140</v>
       </c>
-      <c r="C60" s="123" t="s">
+      <c r="C60" s="122" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="61" spans="2:3">
+    <row r="61" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B61" s="34"/>
     </row>
-    <row r="62" spans="2:3">
+    <row r="62" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B62" s="34" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="63" spans="2:3">
+    <row r="63" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B63" s="33" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="64" spans="2:3">
-      <c r="B64" s="121"/>
-      <c r="C64" s="122"/>
-    </row>
-    <row r="65" spans="2:3">
-      <c r="B65" s="121" t="s">
+    <row r="64" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B64" s="120"/>
+      <c r="C64" s="121"/>
+    </row>
+    <row r="65" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B65" s="120" t="s">
         <v>94</v>
       </c>
-      <c r="C65" s="123">
+      <c r="C65" s="122">
         <v>1237638</v>
       </c>
     </row>
-    <row r="66" spans="2:3">
-      <c r="B66" s="121" t="s">
+    <row r="66" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B66" s="120" t="s">
         <v>140</v>
       </c>
-      <c r="C66" s="123" t="s">
+      <c r="C66" s="122" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="67" spans="2:3">
+    <row r="67" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B67" s="34"/>
     </row>
-    <row r="68" spans="2:3">
+    <row r="68" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B68" s="34" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="69" spans="2:3">
+    <row r="69" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B69" s="33" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="70" spans="2:3">
-      <c r="B70" s="121"/>
-      <c r="C70" s="122"/>
-    </row>
-    <row r="71" spans="2:3">
-      <c r="B71" s="121" t="s">
+    <row r="70" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B70" s="120"/>
+      <c r="C70" s="121"/>
+    </row>
+    <row r="71" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B71" s="120" t="s">
         <v>103</v>
       </c>
-      <c r="C71" s="123">
+      <c r="C71" s="122">
         <v>1237638</v>
       </c>
     </row>
-    <row r="72" spans="2:3">
-      <c r="B72" s="121" t="s">
+    <row r="72" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B72" s="120" t="s">
         <v>140</v>
       </c>
-      <c r="C72" s="123" t="s">
+      <c r="C72" s="122" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="73" spans="2:3">
-      <c r="B73" s="121"/>
-      <c r="C73" s="123"/>
-    </row>
-    <row r="74" spans="2:3">
+    <row r="73" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B73" s="120"/>
+      <c r="C73" s="122"/>
+    </row>
+    <row r="74" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B74" s="34" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="75" spans="2:3">
+    <row r="75" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B75" s="33" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="76" spans="2:3">
-      <c r="B76" s="121"/>
-      <c r="C76" s="122"/>
-    </row>
-    <row r="77" spans="2:3">
-      <c r="B77" s="121" t="s">
+    <row r="76" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B76" s="120"/>
+      <c r="C76" s="121"/>
+    </row>
+    <row r="77" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B77" s="120" t="s">
         <v>94</v>
       </c>
-      <c r="C77" s="123">
+      <c r="C77" s="122">
         <v>1237638</v>
       </c>
     </row>
-    <row r="78" spans="2:3">
-      <c r="B78" s="121" t="s">
+    <row r="78" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B78" s="120" t="s">
         <v>140</v>
       </c>
-      <c r="C78" s="123" t="s">
+      <c r="C78" s="122" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="79" spans="2:3">
-      <c r="B79" s="121"/>
-      <c r="C79" s="123"/>
-    </row>
-    <row r="80" spans="2:3">
+    <row r="79" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B79" s="120"/>
+      <c r="C79" s="122"/>
+    </row>
+    <row r="80" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B80" s="34" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="81" spans="2:3">
+    <row r="81" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B81" s="33" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="82" spans="2:3">
-      <c r="B82" s="121"/>
-      <c r="C82" s="122"/>
-    </row>
-    <row r="83" spans="2:3">
-      <c r="B83" s="121" t="s">
+    <row r="82" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B82" s="120"/>
+      <c r="C82" s="121"/>
+    </row>
+    <row r="83" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B83" s="120" t="s">
         <v>94</v>
       </c>
-      <c r="C83" s="123">
+      <c r="C83" s="122">
         <v>1115589</v>
       </c>
     </row>
-    <row r="84" spans="2:3">
+    <row r="84" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B84" s="35"/>
       <c r="C84" s="35"/>
     </row>
-    <row r="85" spans="2:3">
+    <row r="85" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B85" s="34" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="86" spans="2:3">
+    <row r="86" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B86" s="33" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="87" spans="2:3">
-      <c r="B87" s="121"/>
-      <c r="C87" s="122"/>
-    </row>
-    <row r="88" spans="2:3">
-      <c r="B88" s="121" t="s">
+    <row r="87" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B87" s="120"/>
+      <c r="C87" s="121"/>
+    </row>
+    <row r="88" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B88" s="120" t="s">
         <v>94</v>
       </c>
-      <c r="C88" s="123">
+      <c r="C88" s="122">
         <v>1115589</v>
       </c>
     </row>
@@ -22968,7 +24263,7 @@
       <selection pane="bottomLeft" activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="3.125" style="27" customWidth="1"/>
     <col min="2" max="2" width="9.75" style="27" customWidth="1"/>
@@ -22981,7 +24276,7 @@
     <col min="10" max="16384" width="9" style="27"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="6" customHeight="1">
+    <row r="1" spans="1:9" ht="6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="31"/>
       <c r="B1" s="31"/>
       <c r="C1" s="31"/>
@@ -22992,61 +24287,61 @@
       <c r="H1" s="36"/>
       <c r="I1" s="36"/>
     </row>
-    <row r="2" spans="1:9" ht="17.25">
+    <row r="2" spans="1:9" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A2" s="26" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B4" s="33" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B5" s="25" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B6" s="25"/>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B8" s="37" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="14.25" thickBot="1">
+    <row r="9" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B9" s="25" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="14.25" thickBot="1">
-      <c r="B10" s="103" t="s">
+    <row r="10" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B10" s="102" t="s">
         <v>41</v>
       </c>
-      <c r="C10" s="104" t="s">
+      <c r="C10" s="103" t="s">
         <v>42</v>
       </c>
-      <c r="D10" s="104" t="s">
+      <c r="D10" s="103" t="s">
         <v>43</v>
       </c>
-      <c r="E10" s="104" t="s">
+      <c r="E10" s="103" t="s">
         <v>44</v>
       </c>
-      <c r="F10" s="104" t="s">
+      <c r="F10" s="103" t="s">
         <v>45</v>
       </c>
-      <c r="G10" s="104" t="s">
+      <c r="G10" s="103" t="s">
         <v>46</v>
       </c>
-      <c r="H10" s="104" t="s">
+      <c r="H10" s="103" t="s">
         <v>47</v>
       </c>
-      <c r="I10" s="105" t="s">
+      <c r="I10" s="104" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="21">
+    <row r="11" spans="1:9" ht="21" x14ac:dyDescent="0.15">
       <c r="B11" s="64" t="s">
         <v>141</v>
       </c>
@@ -23060,12 +24355,12 @@
       <c r="H11" s="51"/>
       <c r="I11" s="78"/>
     </row>
-    <row r="12" spans="1:9" ht="73.5">
+    <row r="12" spans="1:9" ht="73.5" x14ac:dyDescent="0.15">
       <c r="A12" s="38"/>
       <c r="B12" s="64" t="s">
         <v>142</v>
       </c>
-      <c r="C12" s="113" t="s">
+      <c r="C12" s="112" t="s">
         <v>222</v>
       </c>
       <c r="D12" s="46" t="s">
@@ -23087,7 +24382,7 @@
         <v>44938</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="52.5">
+    <row r="13" spans="1:9" ht="52.5" x14ac:dyDescent="0.15">
       <c r="A13" s="38"/>
       <c r="B13" s="64"/>
       <c r="C13" s="46"/>
@@ -23108,7 +24403,7 @@
         <v>44938</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="94.5">
+    <row r="14" spans="1:9" ht="94.5" x14ac:dyDescent="0.15">
       <c r="A14" s="38"/>
       <c r="B14" s="64"/>
       <c r="C14" s="46"/>
@@ -23129,7 +24424,7 @@
         <v>44938</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="52.5">
+    <row r="15" spans="1:9" ht="52.5" x14ac:dyDescent="0.15">
       <c r="A15" s="38"/>
       <c r="B15" s="64"/>
       <c r="C15" s="46"/>
@@ -23150,11 +24445,11 @@
         <v>44938</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="52.5">
+    <row r="16" spans="1:9" ht="52.5" x14ac:dyDescent="0.15">
       <c r="B16" s="64"/>
       <c r="C16" s="46"/>
       <c r="D16" s="46"/>
-      <c r="E16" s="115" t="s">
+      <c r="E16" s="114" t="s">
         <v>224</v>
       </c>
       <c r="F16" s="39" t="s">
@@ -23170,11 +24465,11 @@
         <v>44938</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="73.5">
+    <row r="17" spans="1:9" ht="73.5" x14ac:dyDescent="0.15">
       <c r="B17" s="64"/>
       <c r="C17" s="46"/>
       <c r="D17" s="46"/>
-      <c r="E17" s="115" t="s">
+      <c r="E17" s="114" t="s">
         <v>145</v>
       </c>
       <c r="F17" s="39" t="s">
@@ -23190,11 +24485,11 @@
         <v>44938</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="63">
+    <row r="18" spans="1:9" ht="63" x14ac:dyDescent="0.15">
       <c r="B18" s="64"/>
       <c r="C18" s="46"/>
       <c r="D18" s="46"/>
-      <c r="E18" s="115" t="s">
+      <c r="E18" s="114" t="s">
         <v>215</v>
       </c>
       <c r="F18" s="39" t="s">
@@ -23210,7 +24505,7 @@
         <v>44938</v>
       </c>
     </row>
-    <row r="19" spans="1:9">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B19" s="64"/>
       <c r="C19" s="46"/>
       <c r="D19" s="46"/>
@@ -23220,7 +24515,7 @@
       <c r="H19" s="46"/>
       <c r="I19" s="76"/>
     </row>
-    <row r="20" spans="1:9">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B20" s="64"/>
       <c r="C20" s="46"/>
       <c r="D20" s="46"/>
@@ -23230,17 +24525,17 @@
       <c r="H20" s="46"/>
       <c r="I20" s="76"/>
     </row>
-    <row r="21" spans="1:9">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B21" s="64"/>
       <c r="C21" s="46"/>
       <c r="D21" s="46"/>
-      <c r="E21" s="115"/>
+      <c r="E21" s="114"/>
       <c r="F21" s="46"/>
       <c r="G21" s="46"/>
       <c r="H21" s="46"/>
       <c r="I21" s="76"/>
     </row>
-    <row r="22" spans="1:9">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A22" s="38"/>
       <c r="B22" s="64"/>
       <c r="C22" s="46"/>
@@ -23251,7 +24546,7 @@
       <c r="H22" s="57"/>
       <c r="I22" s="76"/>
     </row>
-    <row r="23" spans="1:9">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A23" s="38"/>
       <c r="B23" s="64"/>
       <c r="C23" s="46"/>
@@ -23262,17 +24557,17 @@
       <c r="H23" s="57"/>
       <c r="I23" s="76"/>
     </row>
-    <row r="24" spans="1:9">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B24" s="64"/>
       <c r="C24" s="46"/>
       <c r="D24" s="46"/>
-      <c r="E24" s="115"/>
+      <c r="E24" s="114"/>
       <c r="F24" s="46"/>
       <c r="G24" s="46"/>
       <c r="H24" s="46"/>
       <c r="I24" s="76"/>
     </row>
-    <row r="25" spans="1:9">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A25" s="38"/>
       <c r="B25" s="64"/>
       <c r="C25" s="46"/>
@@ -23283,7 +24578,7 @@
       <c r="H25" s="57"/>
       <c r="I25" s="76"/>
     </row>
-    <row r="26" spans="1:9">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A26" s="38"/>
       <c r="B26" s="64"/>
       <c r="C26" s="46"/>
@@ -23294,69 +24589,69 @@
       <c r="H26" s="57"/>
       <c r="I26" s="76"/>
     </row>
-    <row r="27" spans="1:9">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B27" s="64"/>
       <c r="C27" s="46"/>
       <c r="D27" s="46"/>
-      <c r="E27" s="115"/>
+      <c r="E27" s="114"/>
       <c r="F27" s="46"/>
       <c r="G27" s="46"/>
       <c r="H27" s="46"/>
       <c r="I27" s="76"/>
     </row>
-    <row r="28" spans="1:9">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B28" s="64"/>
       <c r="C28" s="46"/>
       <c r="D28" s="46"/>
-      <c r="E28" s="115"/>
+      <c r="E28" s="114"/>
       <c r="F28" s="46"/>
       <c r="G28" s="46"/>
       <c r="H28" s="46"/>
       <c r="I28" s="76"/>
     </row>
-    <row r="29" spans="1:9">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B29" s="64"/>
       <c r="C29" s="46"/>
       <c r="D29" s="46"/>
-      <c r="E29" s="115"/>
+      <c r="E29" s="114"/>
       <c r="F29" s="46"/>
       <c r="G29" s="46"/>
       <c r="H29" s="46"/>
       <c r="I29" s="76"/>
     </row>
-    <row r="30" spans="1:9">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B30" s="64"/>
       <c r="C30" s="46"/>
       <c r="D30" s="46"/>
-      <c r="E30" s="115"/>
+      <c r="E30" s="114"/>
       <c r="F30" s="46"/>
       <c r="G30" s="46"/>
       <c r="H30" s="46"/>
       <c r="I30" s="76"/>
     </row>
-    <row r="31" spans="1:9">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B31" s="64"/>
       <c r="C31" s="46"/>
       <c r="D31" s="46"/>
-      <c r="E31" s="115"/>
+      <c r="E31" s="114"/>
       <c r="F31" s="46"/>
       <c r="G31" s="46"/>
       <c r="H31" s="46"/>
       <c r="I31" s="76"/>
     </row>
-    <row r="32" spans="1:9">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B32" s="64"/>
       <c r="C32" s="46"/>
       <c r="D32" s="46"/>
-      <c r="E32" s="115"/>
+      <c r="E32" s="114"/>
       <c r="F32" s="46"/>
       <c r="G32" s="46"/>
       <c r="H32" s="46"/>
       <c r="I32" s="76"/>
     </row>
-    <row r="33" spans="1:9">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B33" s="64"/>
-      <c r="C33" s="113"/>
+      <c r="C33" s="112"/>
       <c r="D33" s="46"/>
       <c r="E33" s="51"/>
       <c r="F33" s="46"/>
@@ -23364,7 +24659,7 @@
       <c r="H33" s="46"/>
       <c r="I33" s="76"/>
     </row>
-    <row r="34" spans="1:9">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B34" s="64"/>
       <c r="C34" s="46"/>
       <c r="D34" s="46"/>
@@ -23374,7 +24669,7 @@
       <c r="H34" s="46"/>
       <c r="I34" s="76"/>
     </row>
-    <row r="35" spans="1:9">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B35" s="64"/>
       <c r="C35" s="46"/>
       <c r="D35" s="46"/>
@@ -23384,7 +24679,7 @@
       <c r="H35" s="46"/>
       <c r="I35" s="76"/>
     </row>
-    <row r="36" spans="1:9">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B36" s="68"/>
       <c r="C36" s="46"/>
       <c r="D36" s="46"/>
@@ -23394,7 +24689,7 @@
       <c r="H36" s="46"/>
       <c r="I36" s="76"/>
     </row>
-    <row r="37" spans="1:9">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B37" s="68"/>
       <c r="C37" s="46"/>
       <c r="D37" s="46"/>
@@ -23404,7 +24699,7 @@
       <c r="H37" s="46"/>
       <c r="I37" s="76"/>
     </row>
-    <row r="38" spans="1:9" ht="14.25" thickBot="1">
+    <row r="38" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B38" s="72"/>
       <c r="C38" s="47"/>
       <c r="D38" s="47"/>
@@ -23414,7 +24709,7 @@
       <c r="H38" s="47"/>
       <c r="I38" s="77"/>
     </row>
-    <row r="39" spans="1:9">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B39" s="35"/>
       <c r="C39" s="35"/>
       <c r="D39" s="35"/>
@@ -23424,7 +24719,7 @@
       <c r="H39" s="35"/>
       <c r="I39" s="35"/>
     </row>
-    <row r="40" spans="1:9">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B40" s="35"/>
       <c r="C40" s="35"/>
       <c r="D40" s="35"/>
@@ -23434,7 +24729,7 @@
       <c r="H40" s="35"/>
       <c r="I40" s="35"/>
     </row>
-    <row r="41" spans="1:9" ht="6" customHeight="1">
+    <row r="41" spans="1:9" ht="6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="28"/>
       <c r="B41" s="28"/>
       <c r="C41" s="28"/>
@@ -23444,7 +24739,7 @@
       <c r="G41" s="35"/>
       <c r="H41" s="35"/>
     </row>
-    <row r="42" spans="1:9" ht="14.25">
+    <row r="42" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A42" s="32" t="s">
         <v>49</v>
       </c>
@@ -23454,7 +24749,7 @@
       <c r="H42" s="35"/>
       <c r="I42" s="35"/>
     </row>
-    <row r="43" spans="1:9">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B43" s="35"/>
       <c r="C43" s="35"/>
       <c r="D43" s="35"/>
@@ -23464,8 +24759,8 @@
       <c r="H43" s="35"/>
       <c r="I43" s="35"/>
     </row>
-    <row r="44" spans="1:9">
-      <c r="B44" s="119"/>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B44" s="118"/>
       <c r="C44" s="35"/>
       <c r="D44" s="35"/>
       <c r="E44" s="35"/>
@@ -23474,7 +24769,7 @@
       <c r="H44" s="35"/>
       <c r="I44" s="35"/>
     </row>
-    <row r="45" spans="1:9">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B45" s="35"/>
       <c r="C45" s="35"/>
       <c r="D45" s="35"/>
@@ -23484,7 +24779,7 @@
       <c r="H45" s="35"/>
       <c r="I45" s="35"/>
     </row>
-    <row r="46" spans="1:9">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B46" s="35"/>
       <c r="C46" s="35"/>
       <c r="D46" s="35"/>
@@ -23494,7 +24789,7 @@
       <c r="H46" s="35"/>
       <c r="I46" s="35"/>
     </row>
-    <row r="47" spans="1:9">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B47" s="35"/>
       <c r="C47" s="35"/>
       <c r="D47" s="35"/>
@@ -23504,7 +24799,7 @@
       <c r="H47" s="35"/>
       <c r="I47" s="35"/>
     </row>
-    <row r="48" spans="1:9">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B48" s="35"/>
       <c r="C48" s="35"/>
       <c r="D48" s="35"/>
@@ -23522,7 +24817,7 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51200000000000001" footer="0.51200000000000001"/>
-  <pageSetup paperSize="9" scale="63" fitToHeight="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="64" fitToHeight="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
   <drawing r:id="rId2"/>
 </worksheet>
@@ -23540,7 +24835,7 @@
       <selection pane="bottomLeft" activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="3.125" style="27" customWidth="1"/>
     <col min="2" max="2" width="9.75" style="27" customWidth="1"/>
@@ -23553,7 +24848,7 @@
     <col min="10" max="16384" width="9" style="27"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="6" customHeight="1">
+    <row r="1" spans="1:9" ht="6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="31"/>
       <c r="B1" s="31"/>
       <c r="C1" s="31"/>
@@ -23564,61 +24859,61 @@
       <c r="H1" s="36"/>
       <c r="I1" s="36"/>
     </row>
-    <row r="2" spans="1:9" ht="17.25">
+    <row r="2" spans="1:9" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A2" s="26" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B4" s="33" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B5" s="25" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B6" s="25"/>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B8" s="37" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="14.25" thickBot="1">
+    <row r="9" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B9" s="25" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="14.25" thickBot="1">
-      <c r="B10" s="103" t="s">
+    <row r="10" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B10" s="102" t="s">
         <v>41</v>
       </c>
-      <c r="C10" s="104" t="s">
+      <c r="C10" s="103" t="s">
         <v>42</v>
       </c>
-      <c r="D10" s="104" t="s">
+      <c r="D10" s="103" t="s">
         <v>43</v>
       </c>
-      <c r="E10" s="104" t="s">
+      <c r="E10" s="103" t="s">
         <v>44</v>
       </c>
-      <c r="F10" s="104" t="s">
+      <c r="F10" s="103" t="s">
         <v>45</v>
       </c>
-      <c r="G10" s="104" t="s">
+      <c r="G10" s="103" t="s">
         <v>46</v>
       </c>
-      <c r="H10" s="104" t="s">
+      <c r="H10" s="103" t="s">
         <v>47</v>
       </c>
-      <c r="I10" s="105" t="s">
+      <c r="I10" s="104" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="21">
+    <row r="11" spans="1:9" ht="21" x14ac:dyDescent="0.15">
       <c r="B11" s="64" t="s">
         <v>109</v>
       </c>
@@ -23632,12 +24927,12 @@
       <c r="H11" s="51"/>
       <c r="I11" s="78"/>
     </row>
-    <row r="12" spans="1:9" ht="73.5">
+    <row r="12" spans="1:9" ht="73.5" x14ac:dyDescent="0.15">
       <c r="A12" s="38"/>
       <c r="B12" s="64" t="s">
         <v>146</v>
       </c>
-      <c r="C12" s="113" t="s">
+      <c r="C12" s="112" t="s">
         <v>148</v>
       </c>
       <c r="D12" s="46" t="s">
@@ -23659,7 +24954,7 @@
         <v>44938</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="52.5">
+    <row r="13" spans="1:9" ht="52.5" x14ac:dyDescent="0.15">
       <c r="A13" s="38"/>
       <c r="B13" s="64"/>
       <c r="C13" s="46"/>
@@ -23680,7 +24975,7 @@
         <v>44938</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="84">
+    <row r="14" spans="1:9" ht="84" x14ac:dyDescent="0.15">
       <c r="A14" s="38"/>
       <c r="B14" s="64"/>
       <c r="C14" s="46"/>
@@ -23701,7 +24996,7 @@
         <v>44938</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="52.5">
+    <row r="15" spans="1:9" ht="52.5" x14ac:dyDescent="0.15">
       <c r="A15" s="38"/>
       <c r="B15" s="64"/>
       <c r="C15" s="46"/>
@@ -23722,11 +25017,11 @@
         <v>44938</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="52.5">
+    <row r="16" spans="1:9" ht="52.5" x14ac:dyDescent="0.15">
       <c r="B16" s="64"/>
       <c r="C16" s="46"/>
       <c r="D16" s="46"/>
-      <c r="E16" s="115" t="s">
+      <c r="E16" s="114" t="s">
         <v>224</v>
       </c>
       <c r="F16" s="39" t="s">
@@ -23742,11 +25037,11 @@
         <v>44938</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="73.5">
+    <row r="17" spans="1:9" ht="73.5" x14ac:dyDescent="0.15">
       <c r="B17" s="64"/>
       <c r="C17" s="46"/>
       <c r="D17" s="46"/>
-      <c r="E17" s="115" t="s">
+      <c r="E17" s="114" t="s">
         <v>145</v>
       </c>
       <c r="F17" s="39" t="s">
@@ -23762,11 +25057,11 @@
         <v>44938</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="42">
+    <row r="18" spans="1:9" ht="42" x14ac:dyDescent="0.15">
       <c r="B18" s="64"/>
       <c r="C18" s="46"/>
       <c r="D18" s="46"/>
-      <c r="E18" s="115" t="s">
+      <c r="E18" s="114" t="s">
         <v>108</v>
       </c>
       <c r="F18" s="39" t="s">
@@ -23782,47 +25077,47 @@
         <v>44938</v>
       </c>
     </row>
-    <row r="19" spans="1:9">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B19" s="64"/>
       <c r="C19" s="46"/>
       <c r="D19" s="46"/>
-      <c r="E19" s="115"/>
+      <c r="E19" s="114"/>
       <c r="F19" s="46"/>
       <c r="G19" s="46"/>
       <c r="H19" s="46"/>
       <c r="I19" s="76"/>
     </row>
-    <row r="20" spans="1:9">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B20" s="64"/>
       <c r="C20" s="46"/>
       <c r="D20" s="46"/>
-      <c r="E20" s="115"/>
+      <c r="E20" s="114"/>
       <c r="F20" s="46"/>
       <c r="G20" s="46"/>
       <c r="H20" s="46"/>
       <c r="I20" s="76"/>
     </row>
-    <row r="21" spans="1:9">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B21" s="64"/>
       <c r="C21" s="46"/>
       <c r="D21" s="46"/>
-      <c r="E21" s="115"/>
+      <c r="E21" s="114"/>
       <c r="F21" s="46"/>
       <c r="G21" s="46"/>
       <c r="H21" s="46"/>
       <c r="I21" s="76"/>
     </row>
-    <row r="22" spans="1:9">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B22" s="64"/>
       <c r="C22" s="46"/>
       <c r="D22" s="46"/>
-      <c r="E22" s="115"/>
+      <c r="E22" s="114"/>
       <c r="F22" s="46"/>
       <c r="G22" s="46"/>
       <c r="H22" s="46"/>
       <c r="I22" s="76"/>
     </row>
-    <row r="23" spans="1:9">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B23" s="64"/>
       <c r="C23" s="46"/>
       <c r="D23" s="46"/>
@@ -23832,17 +25127,17 @@
       <c r="H23" s="46"/>
       <c r="I23" s="76"/>
     </row>
-    <row r="24" spans="1:9">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B24" s="64"/>
       <c r="C24" s="46"/>
       <c r="D24" s="46"/>
-      <c r="E24" s="115"/>
+      <c r="E24" s="114"/>
       <c r="F24" s="46"/>
       <c r="G24" s="46"/>
       <c r="H24" s="46"/>
       <c r="I24" s="76"/>
     </row>
-    <row r="25" spans="1:9">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A25" s="38"/>
       <c r="B25" s="64"/>
       <c r="C25" s="46"/>
@@ -23853,7 +25148,7 @@
       <c r="H25" s="57"/>
       <c r="I25" s="76"/>
     </row>
-    <row r="26" spans="1:9">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A26" s="38"/>
       <c r="B26" s="64"/>
       <c r="C26" s="46"/>
@@ -23864,17 +25159,17 @@
       <c r="H26" s="57"/>
       <c r="I26" s="76"/>
     </row>
-    <row r="27" spans="1:9">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B27" s="64"/>
       <c r="C27" s="46"/>
       <c r="D27" s="46"/>
-      <c r="E27" s="115"/>
+      <c r="E27" s="114"/>
       <c r="F27" s="46"/>
       <c r="G27" s="46"/>
       <c r="H27" s="46"/>
       <c r="I27" s="76"/>
     </row>
-    <row r="28" spans="1:9">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A28" s="38"/>
       <c r="B28" s="64"/>
       <c r="C28" s="46"/>
@@ -23885,7 +25180,7 @@
       <c r="H28" s="57"/>
       <c r="I28" s="76"/>
     </row>
-    <row r="29" spans="1:9">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A29" s="38"/>
       <c r="B29" s="64"/>
       <c r="C29" s="46"/>
@@ -23896,69 +25191,69 @@
       <c r="H29" s="57"/>
       <c r="I29" s="76"/>
     </row>
-    <row r="30" spans="1:9">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B30" s="64"/>
       <c r="C30" s="46"/>
       <c r="D30" s="46"/>
-      <c r="E30" s="115"/>
+      <c r="E30" s="114"/>
       <c r="F30" s="46"/>
       <c r="G30" s="46"/>
       <c r="H30" s="46"/>
       <c r="I30" s="76"/>
     </row>
-    <row r="31" spans="1:9">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B31" s="64"/>
       <c r="C31" s="46"/>
       <c r="D31" s="46"/>
-      <c r="E31" s="115"/>
+      <c r="E31" s="114"/>
       <c r="F31" s="46"/>
       <c r="G31" s="46"/>
       <c r="H31" s="46"/>
       <c r="I31" s="76"/>
     </row>
-    <row r="32" spans="1:9">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B32" s="64"/>
       <c r="C32" s="46"/>
       <c r="D32" s="46"/>
-      <c r="E32" s="115"/>
+      <c r="E32" s="114"/>
       <c r="F32" s="46"/>
       <c r="G32" s="46"/>
       <c r="H32" s="46"/>
       <c r="I32" s="76"/>
     </row>
-    <row r="33" spans="1:9">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B33" s="64"/>
       <c r="C33" s="46"/>
       <c r="D33" s="46"/>
-      <c r="E33" s="115"/>
+      <c r="E33" s="114"/>
       <c r="F33" s="46"/>
       <c r="G33" s="46"/>
       <c r="H33" s="46"/>
       <c r="I33" s="76"/>
     </row>
-    <row r="34" spans="1:9">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B34" s="64"/>
       <c r="C34" s="46"/>
       <c r="D34" s="46"/>
-      <c r="E34" s="115"/>
+      <c r="E34" s="114"/>
       <c r="F34" s="46"/>
       <c r="G34" s="46"/>
       <c r="H34" s="46"/>
       <c r="I34" s="76"/>
     </row>
-    <row r="35" spans="1:9">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B35" s="64"/>
       <c r="C35" s="46"/>
       <c r="D35" s="46"/>
-      <c r="E35" s="115"/>
+      <c r="E35" s="114"/>
       <c r="F35" s="46"/>
       <c r="G35" s="46"/>
       <c r="H35" s="46"/>
       <c r="I35" s="76"/>
     </row>
-    <row r="36" spans="1:9">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B36" s="64"/>
-      <c r="C36" s="113"/>
+      <c r="C36" s="112"/>
       <c r="D36" s="46"/>
       <c r="E36" s="51"/>
       <c r="F36" s="46"/>
@@ -23966,7 +25261,7 @@
       <c r="H36" s="46"/>
       <c r="I36" s="76"/>
     </row>
-    <row r="37" spans="1:9">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B37" s="64"/>
       <c r="C37" s="46"/>
       <c r="D37" s="46"/>
@@ -23976,7 +25271,7 @@
       <c r="H37" s="46"/>
       <c r="I37" s="76"/>
     </row>
-    <row r="38" spans="1:9">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B38" s="68"/>
       <c r="C38" s="46"/>
       <c r="D38" s="46"/>
@@ -23986,7 +25281,7 @@
       <c r="H38" s="46"/>
       <c r="I38" s="76"/>
     </row>
-    <row r="39" spans="1:9">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B39" s="68"/>
       <c r="C39" s="46"/>
       <c r="D39" s="46"/>
@@ -23996,7 +25291,7 @@
       <c r="H39" s="46"/>
       <c r="I39" s="76"/>
     </row>
-    <row r="40" spans="1:9">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B40" s="68"/>
       <c r="C40" s="46"/>
       <c r="D40" s="46"/>
@@ -24006,7 +25301,7 @@
       <c r="H40" s="46"/>
       <c r="I40" s="76"/>
     </row>
-    <row r="41" spans="1:9" ht="14.25" thickBot="1">
+    <row r="41" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B41" s="72"/>
       <c r="C41" s="47"/>
       <c r="D41" s="47"/>
@@ -24016,7 +25311,7 @@
       <c r="H41" s="47"/>
       <c r="I41" s="77"/>
     </row>
-    <row r="42" spans="1:9">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B42" s="35"/>
       <c r="C42" s="35"/>
       <c r="D42" s="35"/>
@@ -24026,7 +25321,7 @@
       <c r="H42" s="35"/>
       <c r="I42" s="35"/>
     </row>
-    <row r="43" spans="1:9">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B43" s="35"/>
       <c r="C43" s="35"/>
       <c r="D43" s="35"/>
@@ -24036,7 +25331,7 @@
       <c r="H43" s="35"/>
       <c r="I43" s="35"/>
     </row>
-    <row r="44" spans="1:9" ht="6" customHeight="1">
+    <row r="44" spans="1:9" ht="6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44" s="28"/>
       <c r="B44" s="28"/>
       <c r="C44" s="28"/>
@@ -24046,7 +25341,7 @@
       <c r="G44" s="35"/>
       <c r="H44" s="35"/>
     </row>
-    <row r="45" spans="1:9" ht="14.25">
+    <row r="45" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A45" s="32" t="s">
         <v>49</v>
       </c>
@@ -24056,7 +25351,7 @@
       <c r="H45" s="35"/>
       <c r="I45" s="35"/>
     </row>
-    <row r="46" spans="1:9">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B46" s="35"/>
       <c r="C46" s="35"/>
       <c r="D46" s="35"/>
@@ -24066,7 +25361,7 @@
       <c r="H46" s="35"/>
       <c r="I46" s="35"/>
     </row>
-    <row r="47" spans="1:9">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B47" s="35"/>
       <c r="C47" s="35"/>
       <c r="D47" s="35"/>
@@ -24076,7 +25371,7 @@
       <c r="H47" s="35"/>
       <c r="I47" s="35"/>
     </row>
-    <row r="48" spans="1:9">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B48" s="35"/>
       <c r="C48" s="35"/>
       <c r="D48" s="35"/>
@@ -24086,7 +25381,7 @@
       <c r="H48" s="35"/>
       <c r="I48" s="35"/>
     </row>
-    <row r="49" spans="2:9">
+    <row r="49" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B49" s="35"/>
       <c r="C49" s="35"/>
       <c r="D49" s="35"/>
@@ -24096,7 +25391,7 @@
       <c r="H49" s="35"/>
       <c r="I49" s="35"/>
     </row>
-    <row r="50" spans="2:9">
+    <row r="50" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B50" s="35"/>
       <c r="C50" s="35"/>
       <c r="D50" s="35"/>
@@ -24106,7 +25401,7 @@
       <c r="H50" s="35"/>
       <c r="I50" s="35"/>
     </row>
-    <row r="51" spans="2:9">
+    <row r="51" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B51" s="35"/>
       <c r="C51" s="35"/>
       <c r="D51" s="35"/>
@@ -24124,7 +25419,7 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51200000000000001" footer="0.51200000000000001"/>
-  <pageSetup paperSize="9" scale="63" fitToHeight="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="64" fitToHeight="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
   <drawing r:id="rId2"/>
 </worksheet>
@@ -24142,7 +25437,7 @@
       <selection pane="bottomLeft" activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="3.125" style="27" customWidth="1"/>
     <col min="2" max="2" width="9.75" style="27" customWidth="1"/>
@@ -24155,7 +25450,7 @@
     <col min="10" max="16384" width="9" style="27"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="6" customHeight="1">
+    <row r="1" spans="1:9" ht="6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="31"/>
       <c r="B1" s="31"/>
       <c r="C1" s="31"/>
@@ -24166,61 +25461,61 @@
       <c r="H1" s="36"/>
       <c r="I1" s="36"/>
     </row>
-    <row r="2" spans="1:9" ht="17.25">
+    <row r="2" spans="1:9" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A2" s="26" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B4" s="33" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B5" s="25" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B6" s="25"/>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B8" s="37" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="14.25" thickBot="1">
+    <row r="9" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B9" s="25" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="14.25" thickBot="1">
-      <c r="B10" s="103" t="s">
+    <row r="10" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B10" s="102" t="s">
         <v>41</v>
       </c>
-      <c r="C10" s="104" t="s">
+      <c r="C10" s="103" t="s">
         <v>42</v>
       </c>
-      <c r="D10" s="104" t="s">
+      <c r="D10" s="103" t="s">
         <v>43</v>
       </c>
-      <c r="E10" s="104" t="s">
+      <c r="E10" s="103" t="s">
         <v>44</v>
       </c>
-      <c r="F10" s="104" t="s">
+      <c r="F10" s="103" t="s">
         <v>45</v>
       </c>
-      <c r="G10" s="104" t="s">
+      <c r="G10" s="103" t="s">
         <v>46</v>
       </c>
-      <c r="H10" s="104" t="s">
+      <c r="H10" s="103" t="s">
         <v>47</v>
       </c>
-      <c r="I10" s="105" t="s">
+      <c r="I10" s="104" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="21">
+    <row r="11" spans="1:9" ht="21" x14ac:dyDescent="0.15">
       <c r="B11" s="64" t="s">
         <v>151</v>
       </c>
@@ -24234,12 +25529,12 @@
       <c r="H11" s="51"/>
       <c r="I11" s="78"/>
     </row>
-    <row r="12" spans="1:9" ht="73.5">
+    <row r="12" spans="1:9" ht="73.5" x14ac:dyDescent="0.15">
       <c r="A12" s="38"/>
-      <c r="B12" s="117" t="s">
+      <c r="B12" s="116" t="s">
         <v>152</v>
       </c>
-      <c r="C12" s="113" t="s">
+      <c r="C12" s="112" t="s">
         <v>153</v>
       </c>
       <c r="D12" s="46" t="s">
@@ -24261,7 +25556,7 @@
         <v>44938</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="52.5">
+    <row r="13" spans="1:9" ht="52.5" x14ac:dyDescent="0.15">
       <c r="B13" s="64"/>
       <c r="C13" s="46"/>
       <c r="D13" s="46"/>
@@ -24281,9 +25576,9 @@
         <v>44938</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="84">
+    <row r="14" spans="1:9" ht="84" x14ac:dyDescent="0.15">
       <c r="B14" s="64"/>
-      <c r="C14" s="113"/>
+      <c r="C14" s="112"/>
       <c r="D14" s="46"/>
       <c r="E14" s="57" t="s">
         <v>107</v>
@@ -24301,7 +25596,7 @@
         <v>44938</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="52.5">
+    <row r="15" spans="1:9" ht="52.5" x14ac:dyDescent="0.15">
       <c r="B15" s="64"/>
       <c r="C15" s="46"/>
       <c r="D15" s="46"/>
@@ -24321,11 +25616,11 @@
         <v>44938</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="52.5">
+    <row r="16" spans="1:9" ht="52.5" x14ac:dyDescent="0.15">
       <c r="B16" s="64"/>
       <c r="C16" s="46"/>
       <c r="D16" s="46"/>
-      <c r="E16" s="115" t="s">
+      <c r="E16" s="114" t="s">
         <v>224</v>
       </c>
       <c r="F16" s="39" t="s">
@@ -24341,11 +25636,11 @@
         <v>44938</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="73.5">
+    <row r="17" spans="1:9" ht="73.5" x14ac:dyDescent="0.15">
       <c r="B17" s="64"/>
       <c r="C17" s="46"/>
       <c r="D17" s="46"/>
-      <c r="E17" s="115" t="s">
+      <c r="E17" s="114" t="s">
         <v>145</v>
       </c>
       <c r="F17" s="39" t="s">
@@ -24361,11 +25656,11 @@
         <v>44938</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="42">
+    <row r="18" spans="1:9" ht="42" x14ac:dyDescent="0.15">
       <c r="B18" s="64"/>
       <c r="C18" s="46"/>
       <c r="D18" s="46"/>
-      <c r="E18" s="115" t="s">
+      <c r="E18" s="114" t="s">
         <v>108</v>
       </c>
       <c r="F18" s="39" t="s">
@@ -24381,123 +25676,123 @@
         <v>44938</v>
       </c>
     </row>
-    <row r="19" spans="1:9">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A19" s="38"/>
       <c r="B19" s="64"/>
       <c r="C19" s="46"/>
-      <c r="D19" s="115"/>
-      <c r="E19" s="115"/>
+      <c r="D19" s="114"/>
+      <c r="E19" s="114"/>
       <c r="F19" s="57"/>
       <c r="G19" s="57"/>
       <c r="H19" s="57"/>
       <c r="I19" s="76"/>
     </row>
-    <row r="20" spans="1:9">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A20" s="38"/>
       <c r="B20" s="64"/>
       <c r="C20" s="46"/>
-      <c r="D20" s="115"/>
+      <c r="D20" s="114"/>
       <c r="E20" s="46"/>
       <c r="F20" s="57"/>
       <c r="G20" s="57"/>
       <c r="H20" s="57"/>
       <c r="I20" s="76"/>
     </row>
-    <row r="21" spans="1:9">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B21" s="64"/>
       <c r="C21" s="46"/>
-      <c r="D21" s="115"/>
-      <c r="E21" s="115"/>
+      <c r="D21" s="114"/>
+      <c r="E21" s="114"/>
       <c r="F21" s="46"/>
       <c r="G21" s="46"/>
       <c r="H21" s="46"/>
       <c r="I21" s="76"/>
     </row>
-    <row r="22" spans="1:9">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A22" s="38"/>
       <c r="B22" s="64"/>
       <c r="C22" s="46"/>
-      <c r="D22" s="115"/>
-      <c r="E22" s="115"/>
+      <c r="D22" s="114"/>
+      <c r="E22" s="114"/>
       <c r="F22" s="57"/>
       <c r="G22" s="57"/>
       <c r="H22" s="57"/>
       <c r="I22" s="76"/>
     </row>
-    <row r="23" spans="1:9">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A23" s="38"/>
       <c r="B23" s="64"/>
       <c r="C23" s="46"/>
-      <c r="D23" s="115"/>
+      <c r="D23" s="114"/>
       <c r="E23" s="46"/>
       <c r="F23" s="57"/>
       <c r="G23" s="57"/>
       <c r="H23" s="57"/>
       <c r="I23" s="76"/>
     </row>
-    <row r="24" spans="1:9">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B24" s="64"/>
       <c r="C24" s="46"/>
-      <c r="D24" s="115"/>
-      <c r="E24" s="115"/>
+      <c r="D24" s="114"/>
+      <c r="E24" s="114"/>
       <c r="F24" s="46"/>
       <c r="G24" s="46"/>
       <c r="H24" s="46"/>
       <c r="I24" s="76"/>
     </row>
-    <row r="25" spans="1:9">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B25" s="64"/>
       <c r="C25" s="46"/>
       <c r="D25" s="46"/>
-      <c r="E25" s="115"/>
+      <c r="E25" s="114"/>
       <c r="F25" s="46"/>
       <c r="G25" s="46"/>
       <c r="H25" s="46"/>
       <c r="I25" s="76"/>
     </row>
-    <row r="26" spans="1:9">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B26" s="64"/>
       <c r="C26" s="46"/>
       <c r="D26" s="46"/>
-      <c r="E26" s="115"/>
+      <c r="E26" s="114"/>
       <c r="F26" s="46"/>
       <c r="G26" s="46"/>
       <c r="H26" s="46"/>
       <c r="I26" s="76"/>
     </row>
-    <row r="27" spans="1:9">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B27" s="64"/>
       <c r="C27" s="46"/>
       <c r="D27" s="46"/>
-      <c r="E27" s="115"/>
+      <c r="E27" s="114"/>
       <c r="F27" s="46"/>
       <c r="G27" s="46"/>
       <c r="H27" s="46"/>
       <c r="I27" s="76"/>
     </row>
-    <row r="28" spans="1:9">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B28" s="64"/>
       <c r="C28" s="46"/>
       <c r="D28" s="46"/>
-      <c r="E28" s="115"/>
+      <c r="E28" s="114"/>
       <c r="F28" s="46"/>
       <c r="G28" s="46"/>
       <c r="H28" s="46"/>
       <c r="I28" s="76"/>
     </row>
-    <row r="29" spans="1:9">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B29" s="64"/>
       <c r="C29" s="46"/>
       <c r="D29" s="46"/>
-      <c r="E29" s="115"/>
+      <c r="E29" s="114"/>
       <c r="F29" s="46"/>
       <c r="G29" s="46"/>
       <c r="H29" s="46"/>
       <c r="I29" s="76"/>
     </row>
-    <row r="30" spans="1:9">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B30" s="64"/>
-      <c r="C30" s="113"/>
+      <c r="C30" s="112"/>
       <c r="D30" s="46"/>
       <c r="E30" s="51"/>
       <c r="F30" s="46"/>
@@ -24505,7 +25800,7 @@
       <c r="H30" s="46"/>
       <c r="I30" s="76"/>
     </row>
-    <row r="31" spans="1:9">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B31" s="64"/>
       <c r="C31" s="46"/>
       <c r="D31" s="46"/>
@@ -24515,7 +25810,7 @@
       <c r="H31" s="46"/>
       <c r="I31" s="76"/>
     </row>
-    <row r="32" spans="1:9">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B32" s="68"/>
       <c r="C32" s="46"/>
       <c r="D32" s="46"/>
@@ -24525,7 +25820,7 @@
       <c r="H32" s="46"/>
       <c r="I32" s="76"/>
     </row>
-    <row r="33" spans="1:9">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B33" s="68"/>
       <c r="C33" s="46"/>
       <c r="D33" s="46"/>
@@ -24535,7 +25830,7 @@
       <c r="H33" s="46"/>
       <c r="I33" s="76"/>
     </row>
-    <row r="34" spans="1:9">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B34" s="68"/>
       <c r="C34" s="46"/>
       <c r="D34" s="46"/>
@@ -24545,7 +25840,7 @@
       <c r="H34" s="46"/>
       <c r="I34" s="76"/>
     </row>
-    <row r="35" spans="1:9" ht="14.25" thickBot="1">
+    <row r="35" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B35" s="72"/>
       <c r="C35" s="47"/>
       <c r="D35" s="47"/>
@@ -24555,7 +25850,7 @@
       <c r="H35" s="47"/>
       <c r="I35" s="77"/>
     </row>
-    <row r="36" spans="1:9">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B36" s="35"/>
       <c r="C36" s="35"/>
       <c r="D36" s="35"/>
@@ -24565,7 +25860,7 @@
       <c r="H36" s="35"/>
       <c r="I36" s="35"/>
     </row>
-    <row r="37" spans="1:9">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B37" s="35"/>
       <c r="C37" s="35"/>
       <c r="D37" s="35"/>
@@ -24575,7 +25870,7 @@
       <c r="H37" s="35"/>
       <c r="I37" s="35"/>
     </row>
-    <row r="38" spans="1:9" ht="6" customHeight="1">
+    <row r="38" spans="1:9" ht="6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="28"/>
       <c r="B38" s="28"/>
       <c r="C38" s="28"/>
@@ -24585,7 +25880,7 @@
       <c r="G38" s="35"/>
       <c r="H38" s="35"/>
     </row>
-    <row r="39" spans="1:9" ht="14.25">
+    <row r="39" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A39" s="32" t="s">
         <v>49</v>
       </c>
@@ -24595,7 +25890,7 @@
       <c r="H39" s="35"/>
       <c r="I39" s="35"/>
     </row>
-    <row r="40" spans="1:9">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B40" s="35"/>
       <c r="C40" s="35"/>
       <c r="D40" s="35"/>
@@ -24605,7 +25900,7 @@
       <c r="H40" s="35"/>
       <c r="I40" s="35"/>
     </row>
-    <row r="41" spans="1:9">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B41" s="35"/>
       <c r="C41" s="35"/>
       <c r="D41" s="35"/>
@@ -24615,7 +25910,7 @@
       <c r="H41" s="35"/>
       <c r="I41" s="35"/>
     </row>
-    <row r="42" spans="1:9">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B42" s="35"/>
       <c r="C42" s="35"/>
       <c r="D42" s="35"/>
@@ -24625,7 +25920,7 @@
       <c r="H42" s="35"/>
       <c r="I42" s="35"/>
     </row>
-    <row r="43" spans="1:9">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B43" s="35"/>
       <c r="C43" s="35"/>
       <c r="D43" s="35"/>
@@ -24635,7 +25930,7 @@
       <c r="H43" s="35"/>
       <c r="I43" s="35"/>
     </row>
-    <row r="44" spans="1:9">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B44" s="35"/>
       <c r="C44" s="35"/>
       <c r="D44" s="35"/>
@@ -24645,7 +25940,7 @@
       <c r="H44" s="35"/>
       <c r="I44" s="35"/>
     </row>
-    <row r="45" spans="1:9">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B45" s="35"/>
       <c r="C45" s="35"/>
       <c r="D45" s="35"/>
@@ -24663,7 +25958,7 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51200000000000001" footer="0.51200000000000001"/>
-  <pageSetup paperSize="9" scale="63" fitToHeight="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="64" fitToHeight="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
   <drawing r:id="rId2"/>
 </worksheet>
@@ -24681,7 +25976,7 @@
       <selection pane="bottomLeft" activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="3.125" style="27" customWidth="1"/>
     <col min="2" max="2" width="9.75" style="27" customWidth="1"/>
@@ -24694,7 +25989,7 @@
     <col min="10" max="16384" width="9" style="27"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="6" customHeight="1">
+    <row r="1" spans="1:9" ht="6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="31"/>
       <c r="B1" s="31"/>
       <c r="C1" s="31"/>
@@ -24705,61 +26000,61 @@
       <c r="H1" s="36"/>
       <c r="I1" s="36"/>
     </row>
-    <row r="2" spans="1:9" ht="17.25">
+    <row r="2" spans="1:9" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A2" s="26" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B4" s="33" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B5" s="25" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B6" s="25"/>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B8" s="37" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="14.25" thickBot="1">
+    <row r="9" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B9" s="25" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="14.25" thickBot="1">
-      <c r="B10" s="103" t="s">
+    <row r="10" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B10" s="102" t="s">
         <v>41</v>
       </c>
-      <c r="C10" s="104" t="s">
+      <c r="C10" s="103" t="s">
         <v>42</v>
       </c>
-      <c r="D10" s="104" t="s">
+      <c r="D10" s="103" t="s">
         <v>43</v>
       </c>
-      <c r="E10" s="104" t="s">
+      <c r="E10" s="103" t="s">
         <v>44</v>
       </c>
-      <c r="F10" s="104" t="s">
+      <c r="F10" s="103" t="s">
         <v>45</v>
       </c>
-      <c r="G10" s="104" t="s">
+      <c r="G10" s="103" t="s">
         <v>46</v>
       </c>
-      <c r="H10" s="104" t="s">
+      <c r="H10" s="103" t="s">
         <v>47</v>
       </c>
-      <c r="I10" s="105" t="s">
+      <c r="I10" s="104" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="21">
+    <row r="11" spans="1:9" ht="21" x14ac:dyDescent="0.15">
       <c r="B11" s="64" t="s">
         <v>154</v>
       </c>
@@ -24773,12 +26068,12 @@
       <c r="H11" s="51"/>
       <c r="I11" s="78"/>
     </row>
-    <row r="12" spans="1:9" ht="73.5">
+    <row r="12" spans="1:9" ht="73.5" x14ac:dyDescent="0.15">
       <c r="A12" s="38"/>
       <c r="B12" s="64" t="s">
         <v>155</v>
       </c>
-      <c r="C12" s="113" t="s">
+      <c r="C12" s="112" t="s">
         <v>223</v>
       </c>
       <c r="D12" s="46" t="s">
@@ -24800,7 +26095,7 @@
         <v>44938</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="52.5">
+    <row r="13" spans="1:9" ht="52.5" x14ac:dyDescent="0.15">
       <c r="B13" s="64"/>
       <c r="C13" s="46"/>
       <c r="D13" s="46"/>
@@ -24820,7 +26115,7 @@
         <v>44938</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="94.5">
+    <row r="14" spans="1:9" ht="94.5" x14ac:dyDescent="0.15">
       <c r="B14" s="64"/>
       <c r="C14" s="46"/>
       <c r="D14" s="46"/>
@@ -24840,7 +26135,7 @@
         <v>44938</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="52.5">
+    <row r="15" spans="1:9" ht="52.5" x14ac:dyDescent="0.15">
       <c r="B15" s="64"/>
       <c r="C15" s="46"/>
       <c r="D15" s="46"/>
@@ -24860,11 +26155,11 @@
         <v>44938</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="52.5">
+    <row r="16" spans="1:9" ht="52.5" x14ac:dyDescent="0.15">
       <c r="B16" s="64"/>
       <c r="C16" s="46"/>
       <c r="D16" s="46"/>
-      <c r="E16" s="115" t="s">
+      <c r="E16" s="114" t="s">
         <v>224</v>
       </c>
       <c r="F16" s="39" t="s">
@@ -24880,11 +26175,11 @@
         <v>44938</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="73.5">
+    <row r="17" spans="1:9" ht="73.5" x14ac:dyDescent="0.15">
       <c r="B17" s="64"/>
       <c r="C17" s="46"/>
       <c r="D17" s="46"/>
-      <c r="E17" s="115" t="s">
+      <c r="E17" s="114" t="s">
         <v>145</v>
       </c>
       <c r="F17" s="39" t="s">
@@ -24900,11 +26195,11 @@
         <v>44938</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="63">
+    <row r="18" spans="1:9" ht="63" x14ac:dyDescent="0.15">
       <c r="B18" s="64"/>
       <c r="C18" s="46"/>
       <c r="D18" s="46"/>
-      <c r="E18" s="115" t="s">
+      <c r="E18" s="114" t="s">
         <v>216</v>
       </c>
       <c r="F18" s="39" t="s">
@@ -24920,143 +26215,143 @@
         <v>44938</v>
       </c>
     </row>
-    <row r="19" spans="1:9">
-      <c r="B19" s="117"/>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B19" s="116"/>
       <c r="C19" s="46"/>
-      <c r="D19" s="115"/>
-      <c r="E19" s="115"/>
+      <c r="D19" s="114"/>
+      <c r="E19" s="114"/>
       <c r="F19" s="46"/>
       <c r="G19" s="46"/>
       <c r="H19" s="46"/>
       <c r="I19" s="76"/>
     </row>
-    <row r="20" spans="1:9">
-      <c r="B20" s="117"/>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B20" s="116"/>
       <c r="C20" s="46"/>
-      <c r="D20" s="115"/>
-      <c r="E20" s="115"/>
+      <c r="D20" s="114"/>
+      <c r="E20" s="114"/>
       <c r="F20" s="46"/>
       <c r="G20" s="46"/>
       <c r="H20" s="46"/>
       <c r="I20" s="76"/>
     </row>
-    <row r="21" spans="1:9">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A21" s="38"/>
-      <c r="B21" s="117"/>
+      <c r="B21" s="116"/>
       <c r="C21" s="46"/>
-      <c r="D21" s="115"/>
-      <c r="E21" s="115"/>
+      <c r="D21" s="114"/>
+      <c r="E21" s="114"/>
       <c r="F21" s="57"/>
       <c r="G21" s="57"/>
       <c r="H21" s="57"/>
       <c r="I21" s="76"/>
     </row>
-    <row r="22" spans="1:9">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A22" s="38"/>
-      <c r="B22" s="117"/>
+      <c r="B22" s="116"/>
       <c r="C22" s="46"/>
-      <c r="D22" s="115"/>
+      <c r="D22" s="114"/>
       <c r="E22" s="46"/>
       <c r="F22" s="57"/>
       <c r="G22" s="57"/>
       <c r="H22" s="57"/>
       <c r="I22" s="76"/>
     </row>
-    <row r="23" spans="1:9">
-      <c r="B23" s="117"/>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B23" s="116"/>
       <c r="C23" s="46"/>
-      <c r="D23" s="115"/>
-      <c r="E23" s="115"/>
+      <c r="D23" s="114"/>
+      <c r="E23" s="114"/>
       <c r="F23" s="46"/>
       <c r="G23" s="46"/>
       <c r="H23" s="46"/>
       <c r="I23" s="76"/>
     </row>
-    <row r="24" spans="1:9">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A24" s="38"/>
-      <c r="B24" s="117"/>
+      <c r="B24" s="116"/>
       <c r="C24" s="46"/>
-      <c r="D24" s="115"/>
-      <c r="E24" s="115"/>
+      <c r="D24" s="114"/>
+      <c r="E24" s="114"/>
       <c r="F24" s="57"/>
       <c r="G24" s="57"/>
       <c r="H24" s="57"/>
       <c r="I24" s="76"/>
     </row>
-    <row r="25" spans="1:9">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A25" s="38"/>
-      <c r="B25" s="117"/>
+      <c r="B25" s="116"/>
       <c r="C25" s="46"/>
-      <c r="D25" s="115"/>
+      <c r="D25" s="114"/>
       <c r="E25" s="46"/>
       <c r="F25" s="57"/>
       <c r="G25" s="57"/>
       <c r="H25" s="57"/>
       <c r="I25" s="76"/>
     </row>
-    <row r="26" spans="1:9">
-      <c r="B26" s="117"/>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B26" s="116"/>
       <c r="C26" s="46"/>
-      <c r="D26" s="115"/>
-      <c r="E26" s="115"/>
+      <c r="D26" s="114"/>
+      <c r="E26" s="114"/>
       <c r="F26" s="46"/>
       <c r="G26" s="46"/>
       <c r="H26" s="46"/>
       <c r="I26" s="76"/>
     </row>
-    <row r="27" spans="1:9">
-      <c r="B27" s="117"/>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B27" s="116"/>
       <c r="C27" s="46"/>
       <c r="D27" s="46"/>
-      <c r="E27" s="115"/>
+      <c r="E27" s="114"/>
       <c r="F27" s="46"/>
       <c r="G27" s="46"/>
       <c r="H27" s="46"/>
       <c r="I27" s="76"/>
     </row>
-    <row r="28" spans="1:9">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B28" s="64"/>
       <c r="C28" s="46"/>
       <c r="D28" s="46"/>
-      <c r="E28" s="115"/>
+      <c r="E28" s="114"/>
       <c r="F28" s="46"/>
       <c r="G28" s="46"/>
       <c r="H28" s="46"/>
       <c r="I28" s="76"/>
     </row>
-    <row r="29" spans="1:9">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B29" s="64"/>
       <c r="C29" s="46"/>
       <c r="D29" s="46"/>
-      <c r="E29" s="115"/>
+      <c r="E29" s="114"/>
       <c r="F29" s="46"/>
       <c r="G29" s="46"/>
       <c r="H29" s="46"/>
       <c r="I29" s="76"/>
     </row>
-    <row r="30" spans="1:9">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B30" s="64"/>
       <c r="C30" s="46"/>
       <c r="D30" s="46"/>
-      <c r="E30" s="115"/>
+      <c r="E30" s="114"/>
       <c r="F30" s="46"/>
       <c r="G30" s="46"/>
       <c r="H30" s="46"/>
       <c r="I30" s="76"/>
     </row>
-    <row r="31" spans="1:9">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B31" s="64"/>
       <c r="C31" s="46"/>
       <c r="D31" s="46"/>
-      <c r="E31" s="115"/>
+      <c r="E31" s="114"/>
       <c r="F31" s="46"/>
       <c r="G31" s="46"/>
       <c r="H31" s="46"/>
       <c r="I31" s="76"/>
     </row>
-    <row r="32" spans="1:9">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B32" s="64"/>
-      <c r="C32" s="113"/>
+      <c r="C32" s="112"/>
       <c r="D32" s="46"/>
       <c r="E32" s="51"/>
       <c r="F32" s="46"/>
@@ -25064,7 +26359,7 @@
       <c r="H32" s="46"/>
       <c r="I32" s="76"/>
     </row>
-    <row r="33" spans="1:9">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B33" s="64"/>
       <c r="C33" s="46"/>
       <c r="D33" s="46"/>
@@ -25074,7 +26369,7 @@
       <c r="H33" s="46"/>
       <c r="I33" s="76"/>
     </row>
-    <row r="34" spans="1:9">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B34" s="68"/>
       <c r="C34" s="46"/>
       <c r="D34" s="46"/>
@@ -25084,7 +26379,7 @@
       <c r="H34" s="46"/>
       <c r="I34" s="76"/>
     </row>
-    <row r="35" spans="1:9">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B35" s="68"/>
       <c r="C35" s="46"/>
       <c r="D35" s="46"/>
@@ -25094,7 +26389,7 @@
       <c r="H35" s="46"/>
       <c r="I35" s="76"/>
     </row>
-    <row r="36" spans="1:9">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B36" s="68"/>
       <c r="C36" s="46"/>
       <c r="D36" s="46"/>
@@ -25104,7 +26399,7 @@
       <c r="H36" s="46"/>
       <c r="I36" s="76"/>
     </row>
-    <row r="37" spans="1:9" ht="14.25" thickBot="1">
+    <row r="37" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B37" s="72"/>
       <c r="C37" s="47"/>
       <c r="D37" s="47"/>
@@ -25114,7 +26409,7 @@
       <c r="H37" s="47"/>
       <c r="I37" s="77"/>
     </row>
-    <row r="38" spans="1:9">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B38" s="35"/>
       <c r="C38" s="35"/>
       <c r="D38" s="35"/>
@@ -25124,7 +26419,7 @@
       <c r="H38" s="35"/>
       <c r="I38" s="35"/>
     </row>
-    <row r="39" spans="1:9">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B39" s="35"/>
       <c r="C39" s="35"/>
       <c r="D39" s="35"/>
@@ -25134,7 +26429,7 @@
       <c r="H39" s="35"/>
       <c r="I39" s="35"/>
     </row>
-    <row r="40" spans="1:9" ht="6" customHeight="1">
+    <row r="40" spans="1:9" ht="6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="28"/>
       <c r="B40" s="28"/>
       <c r="C40" s="28"/>
@@ -25144,7 +26439,7 @@
       <c r="G40" s="35"/>
       <c r="H40" s="35"/>
     </row>
-    <row r="41" spans="1:9" ht="14.25">
+    <row r="41" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A41" s="32" t="s">
         <v>49</v>
       </c>
@@ -25154,7 +26449,7 @@
       <c r="H41" s="35"/>
       <c r="I41" s="35"/>
     </row>
-    <row r="42" spans="1:9">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B42" s="35"/>
       <c r="C42" s="35"/>
       <c r="D42" s="35"/>
@@ -25164,7 +26459,7 @@
       <c r="H42" s="35"/>
       <c r="I42" s="35"/>
     </row>
-    <row r="43" spans="1:9">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B43" s="35"/>
       <c r="C43" s="35"/>
       <c r="D43" s="35"/>
@@ -25174,7 +26469,7 @@
       <c r="H43" s="35"/>
       <c r="I43" s="35"/>
     </row>
-    <row r="44" spans="1:9">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B44" s="35"/>
       <c r="C44" s="35"/>
       <c r="D44" s="35"/>
@@ -25184,7 +26479,7 @@
       <c r="H44" s="35"/>
       <c r="I44" s="35"/>
     </row>
-    <row r="45" spans="1:9">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B45" s="35"/>
       <c r="C45" s="35"/>
       <c r="D45" s="35"/>
@@ -25194,7 +26489,7 @@
       <c r="H45" s="35"/>
       <c r="I45" s="35"/>
     </row>
-    <row r="46" spans="1:9">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B46" s="35"/>
       <c r="C46" s="35"/>
       <c r="D46" s="35"/>
@@ -25204,7 +26499,7 @@
       <c r="H46" s="35"/>
       <c r="I46" s="35"/>
     </row>
-    <row r="47" spans="1:9">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B47" s="35"/>
       <c r="C47" s="35"/>
       <c r="D47" s="35"/>
@@ -25222,7 +26517,7 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51200000000000001" footer="0.51200000000000001"/>
-  <pageSetup paperSize="9" scale="63" fitToHeight="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="64" fitToHeight="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
   <drawing r:id="rId2"/>
 </worksheet>
